--- a/inst/testdata/examples_of_output/testoutput_doaggregate_10pts_1miles.xlsx
+++ b/inst/testdata/examples_of_output/testoutput_doaggregate_10pts_1miles.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="1170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="997">
   <si>
     <t xml:space="preserve">Analysis Title</t>
   </si>
@@ -1829,7 +1829,7 @@
     <t xml:space="preserve">US percentile for Air Toxics Respiratory Hazard Index</t>
   </si>
   <si>
-    <t xml:space="preserve">US percentile for Air Toxics Diesel Particulate Matter  (ug/m3)</t>
+    <t xml:space="preserve">US percentile for Air Toxics Diesel Particulate Matter (ug/m3)</t>
   </si>
   <si>
     <t xml:space="preserve">US percentile for Lead Paint Indicator (% pre-1960s housing)</t>
@@ -1853,7 +1853,7 @@
     <t xml:space="preserve">US percentile for Underground Storage Tanks (UST) indicator</t>
   </si>
   <si>
-    <t xml:space="preserve">US%ile Toxic Releases to Air</t>
+    <t xml:space="preserve">US percentile for Toxic Releases to Air</t>
   </si>
   <si>
     <t xml:space="preserve">US average for Particulate Matter (PM 2.5 in ug/m3)</t>
@@ -1868,7 +1868,7 @@
     <t xml:space="preserve">US average for Air Toxics Respiratory Hazard Index</t>
   </si>
   <si>
-    <t xml:space="preserve">US average for Air Toxics Diesel Particulate Matter  (ug/m3)</t>
+    <t xml:space="preserve">US average for Air Toxics Diesel Particulate Matter (ug/m3)</t>
   </si>
   <si>
     <t xml:space="preserve">US average for Lead Paint Indicator (% pre-1960s housing)</t>
@@ -1907,7 +1907,7 @@
     <t xml:space="preserve">State percentile for Air Toxics Respiratory Hazard Index</t>
   </si>
   <si>
-    <t xml:space="preserve">State percentile for Air Toxics Diesel Particulate Matter  (ug/m3)</t>
+    <t xml:space="preserve">State percentile for Air Toxics Diesel Particulate Matter (ug/m3)</t>
   </si>
   <si>
     <t xml:space="preserve">State percentile for Lead Paint Indicator (% pre-1960s housing)</t>
@@ -1931,7 +1931,7 @@
     <t xml:space="preserve">State percentile for Underground Storage Tanks (UST) indicator</t>
   </si>
   <si>
-    <t xml:space="preserve">State%ile Toxic Releases to Air</t>
+    <t xml:space="preserve">State percentile for Toxic Releases to Air</t>
   </si>
   <si>
     <t xml:space="preserve">State average for Particulate Matter (PM 2.5 in ug/m3)</t>
@@ -1946,7 +1946,7 @@
     <t xml:space="preserve">State average for Air Toxics Respiratory Hazard Index</t>
   </si>
   <si>
-    <t xml:space="preserve">State average for Air Toxics Diesel Particulate Matter  (ug/m3)</t>
+    <t xml:space="preserve">State average for Air Toxics Diesel Particulate Matter (ug/m3)</t>
   </si>
   <si>
     <t xml:space="preserve">State average for Lead Paint Indicator (% pre-1960s housing)</t>
@@ -2048,7 +2048,7 @@
     <t xml:space="preserve">US percentile for EJ Supplemental Index for Underground Storage Tanks (UST) indicator</t>
   </si>
   <si>
-    <t xml:space="preserve">EJ Suppl: Toxic Releases to Air (US%ile)</t>
+    <t xml:space="preserve">US Percentile for Toxic Releases to Air Supplemental Index</t>
   </si>
   <si>
     <t xml:space="preserve">State percentile for EJ Index for Particulate Matter (PM 2.5)</t>
@@ -2126,7 +2126,7 @@
     <t xml:space="preserve">State percentile for EJ Supplemental Index for Underground Storage Tanks (UST) indicator</t>
   </si>
   <si>
-    <t xml:space="preserve">EJ Suppl: Toxic Releases to Air (State%ile)</t>
+    <t xml:space="preserve">State Percentile for Toxic Releases to Air Supplemental Index</t>
   </si>
   <si>
     <t xml:space="preserve">Low income resident count</t>
@@ -2141,10 +2141,10 @@
     <t xml:space="preserve">Less Than High School Education resident count</t>
   </si>
   <si>
-    <t xml:space="preserve">Under Age 5  resident count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Over Age 64  resident count</t>
+    <t xml:space="preserve">Under Age 5 resident count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Over Age 64 resident count</t>
   </si>
   <si>
     <t xml:space="preserve">People of Color resident count</t>
@@ -2282,7 +2282,7 @@
     <t xml:space="preserve">Buffer distance (miles)</t>
   </si>
   <si>
-    <t xml:space="preserve">Households  below Poverty Level</t>
+    <t xml:space="preserve">Households below Poverty Level</t>
   </si>
   <si>
     <t xml:space="preserve">Particulate Matter 2.5 EJ Index</t>
@@ -2468,247 +2468,55 @@
     <t xml:space="preserve">indicator</t>
   </si>
   <si>
-    <t xml:space="preserve">60740.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15509059004837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22719177648373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28914513788934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41143300922495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.984337251886272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28660212751691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1089556870424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16012734428962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.626954735972852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04929231166424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44449315258489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.689193583478233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.59835983475031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40023000842424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00981035808161786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.258834681706878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.917306992591921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.974319827151174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99401340697048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.983727555630845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05103568840792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9431634087635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3914711144607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36182502257449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.844554478901931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87744645209624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39687584712197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.699949839626733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000628210603019329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39103427263507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40787608918503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27725135901372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27377293644414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26533274913395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94632908931405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10252981551897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46423366271612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08767349363334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14259337011017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.587948931650003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28902428248068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83166208112301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.757185590036211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2764942177851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.821250957574415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0211175147532702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.293936140378921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.986153967802546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.868787857910699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01842180129477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00086488412593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19385071165445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11372283831009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4730655391462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4162320304591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41759072867446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3335534926563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24939055579875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62072324297621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000549542391698243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40032633231994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09722551140677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.402213982301018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177292613262759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.396010488889865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0681898975535662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0571522547117061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148745029046363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.216365396112293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0642407100392984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.108321822579078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.408417475712171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.254705689632748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0859050745551141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0296853983269757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00884091780909874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48171806856403e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000905494375233576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0283600838323156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.591582524287829</t>
+    <t xml:space="preserve">60740</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6</t>
   </si>
   <si>
     <t xml:space="preserve">64</t>
@@ -2747,211 +2555,73 @@
     <t xml:space="preserve">90</t>
   </si>
   <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
     <t xml:space="preserve">87</t>
   </si>
   <si>
     <t xml:space="preserve">40</t>
   </si>
   <si>
-    <t xml:space="preserve">0.348209902986201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144470177082473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.307188443915815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0483125285492727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0580616598652403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115610743885085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.19510734165523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0553738435314915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172774550320597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.389231362101946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176328762221516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12464578402133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0496112817120539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00631390396999697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00151036084130344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00349835025686016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.030916676817411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.607174880159797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139057139555231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113453129174059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0232554115117608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0107651841712436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000701653620644247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00308058197289479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0287582717894555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.680928628204466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.1398429049576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.1192371456842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.186551597539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.7956299195098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.4442701139112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.8774964891513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.1824818119107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.6122689548784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4961532952587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.9518359310046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.8443899684394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.6248158142123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.4492421012079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.5208337792207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0040648465681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.080875464889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0783285561645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.314905894961507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139186983951542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.312969445516141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0350351325107094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.051837377916899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.101585582160735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.198924950712489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0562235977556075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184236787836466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.316842344448459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03351072702825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.6227489938755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5272363781745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.288763333872004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363496529916469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.412797814473439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">179.121427813334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.387259553859506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.595260375728001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35314439812251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0137032410288398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48864668363157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6492.77619759039</t>
+    <t xml:space="preserve">66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6493</t>
   </si>
   <si>
     <t xml:space="preserve">45</t>
@@ -2969,150 +2639,87 @@
     <t xml:space="preserve">79</t>
   </si>
   <si>
-    <t xml:space="preserve">67</t>
-  </si>
-  <si>
     <t xml:space="preserve">93</t>
   </si>
   <si>
-    <t xml:space="preserve">66</t>
-  </si>
-  <si>
     <t xml:space="preserve">89</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08189373573191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.6255472837694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2391395180474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.306164691281415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.261231818712494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.303121038041331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">212.089844158098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134584451980812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.426136923302407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9332019546488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.813132352397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94573073547232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4611.7525877926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.7046458446863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.9071226187556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9189203872882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8888645594441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.2288711119306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.9576854246686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.6803555464823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.2009160310371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.5717143313418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.6048603645356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.5827284356514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.2040177608606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.8597487993968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88819594868734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.5703626487188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2198940949767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.259277554467825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24676195339357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.291476118033866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126.356235400061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0893630491733312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.476440591747104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.834901581122311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9357305930355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91954829167459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5917.44917529842</t>
+    <t xml:space="preserve">8.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5917</t>
   </si>
   <si>
     <t xml:space="preserve">77</t>
   </si>
   <si>
-    <t xml:space="preserve">75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73</t>
-  </si>
-  <si>
     <t xml:space="preserve">84</t>
   </si>
   <si>
@@ -3122,403 +2729,277 @@
     <t xml:space="preserve">82</t>
   </si>
   <si>
-    <t xml:space="preserve">78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.6620003523196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.4601442534857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.5652030036072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.483092773661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.5912993515014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.7771874686164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.8473616363436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.3459696445358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.954020641979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.8064020098682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.4128412273235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.3757027871117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.2598703002784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.9170814105297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.2504910249044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.8948474077342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.9059471224212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.7541796797184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.0204575874667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.3426341325281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.5990635541807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.2369958660066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.4390626980769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.5978139719428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.4290545157004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.0386069874532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21641.3</t>
+    <t xml:space="preserve">21641</t>
   </si>
   <si>
     <t xml:space="preserve">1477</t>
   </si>
   <si>
-    <t xml:space="preserve">1737.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5487.1</t>
+    <t xml:space="preserve">1738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5487</t>
   </si>
   <si>
     <t xml:space="preserve">3902</t>
   </si>
   <si>
-    <t xml:space="preserve">6579.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24807.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15470.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5217.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1803.1</t>
+    <t xml:space="preserve">6580</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1803</t>
   </si>
   <si>
     <t xml:space="preserve">537</t>
   </si>
   <si>
-    <t xml:space="preserve">0.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1722.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35932.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54648.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36889.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21660.1</t>
+    <t xml:space="preserve">1723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21660</t>
   </si>
   <si>
     <t xml:space="preserve">30403</t>
   </si>
   <si>
-    <t xml:space="preserve">10184.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24671.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56838.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11330.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">707.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1152.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1367.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1120.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13015.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47725.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30954.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29785.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11126.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58670.1</t>
+    <t xml:space="preserve">10184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58670</t>
   </si>
   <si>
     <t xml:space="preserve">6852.1</t>
   </si>
   <si>
-    <t xml:space="preserve">76.4043738686003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27396.5437510437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.190479268332095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.758903182125931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121191604603927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111780636425186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00805687203791469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.214276188955274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.785725457398136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.509620466148504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.490379533851496</t>
+    <t xml:space="preserve">27397</t>
   </si>
   <si>
     <t xml:space="preserve">1152</t>
   </si>
   <si>
-    <t xml:space="preserve">4125.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7490061700825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2800525682083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9436874546867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3223520494095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3062952754009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8875691628529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6804528960566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.365844456708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8219735907916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1230826578635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2394849849795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5011294805059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8783117132121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0221926595924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38962718980835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94440985667818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94890832117283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4617510865063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4839114905125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2149123924552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5003626854019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2843520085863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7895964704421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2179715338023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0783464646228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6120490276571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8063947005102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8671272361231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3994584350557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8434714599746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7322176834729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7560665816297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0334153594205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0546905974176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0837523210072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7126658844692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3782670269578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8612628660625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.690962610657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.477788252368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35761090705433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18062897652306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06911266266519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2137257751854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0076097480187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9897104046075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.316391581613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7516570875059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0145599344855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69644419262566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5242147150694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.852589104637</t>
+    <t xml:space="preserve">4126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.853</t>
   </si>
   <si>
     <t xml:space="preserve">0.018</t>
   </si>
   <si>
     <t xml:space="preserve">0.751551987007954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116790324202618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.513704922876626</t>
   </si>
   <si>
     <t xml:space="preserve">0.0124440738023481</t>
@@ -18611,7 +18092,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B9" t="s">
         <v>434</v>
@@ -18619,7 +18100,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B10" t="s">
         <v>435</v>
@@ -18627,7 +18108,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B11" t="s">
         <v>436</v>
@@ -18635,7 +18116,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>820</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
         <v>437</v>
@@ -18643,7 +18124,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="B13" t="s">
         <v>438</v>
@@ -18651,7 +18132,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B14" t="s">
         <v>439</v>
@@ -18659,7 +18140,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="B15" t="s">
         <v>440</v>
@@ -18667,7 +18148,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="B16" t="s">
         <v>441</v>
@@ -18675,7 +18156,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>825</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
         <v>442</v>
@@ -18683,7 +18164,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="B18" t="s">
         <v>443</v>
@@ -18691,7 +18172,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="B19" t="s">
         <v>444</v>
@@ -18699,7 +18180,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="B20" t="s">
         <v>445</v>
@@ -18707,7 +18188,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
       <c r="B21" t="s">
         <v>446</v>
@@ -18715,7 +18196,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="B22" t="s">
         <v>447</v>
@@ -18723,7 +18204,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="B23" t="s">
         <v>448</v>
@@ -18731,7 +18212,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="B24" t="s">
         <v>449</v>
@@ -18739,7 +18220,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>833</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
         <v>450</v>
@@ -18747,7 +18228,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>834</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
         <v>451</v>
@@ -18755,7 +18236,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>835</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
         <v>452</v>
@@ -18763,7 +18244,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>836</v>
+        <v>819</v>
       </c>
       <c r="B28" t="s">
         <v>453</v>
@@ -18771,7 +18252,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>837</v>
+        <v>824</v>
       </c>
       <c r="B29" t="s">
         <v>454</v>
@@ -18779,7 +18260,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>838</v>
+        <v>818</v>
       </c>
       <c r="B30" t="s">
         <v>455</v>
@@ -18787,7 +18268,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>839</v>
+        <v>818</v>
       </c>
       <c r="B31" t="s">
         <v>456</v>
@@ -18795,7 +18276,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>840</v>
+        <v>825</v>
       </c>
       <c r="B32" t="s">
         <v>457</v>
@@ -18803,7 +18284,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>841</v>
+        <v>826</v>
       </c>
       <c r="B33" t="s">
         <v>458</v>
@@ -18811,7 +18292,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>842</v>
+        <v>818</v>
       </c>
       <c r="B34" t="s">
         <v>459</v>
@@ -18819,7 +18300,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>843</v>
+        <v>821</v>
       </c>
       <c r="B35" t="s">
         <v>460</v>
@@ -18827,7 +18308,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>844</v>
+        <v>822</v>
       </c>
       <c r="B36" t="s">
         <v>461</v>
@@ -18835,7 +18316,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>845</v>
+        <v>818</v>
       </c>
       <c r="B37" t="s">
         <v>462</v>
@@ -18843,7 +18324,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>846</v>
+        <v>818</v>
       </c>
       <c r="B38" t="s">
         <v>463</v>
@@ -18851,7 +18332,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>847</v>
+        <v>817</v>
       </c>
       <c r="B39" t="s">
         <v>464</v>
@@ -18859,7 +18340,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>848</v>
+        <v>817</v>
       </c>
       <c r="B40" t="s">
         <v>465</v>
@@ -18867,7 +18348,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>849</v>
+        <v>817</v>
       </c>
       <c r="B41" t="s">
         <v>466</v>
@@ -18875,7 +18356,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>850</v>
+        <v>827</v>
       </c>
       <c r="B42" t="s">
         <v>467</v>
@@ -18883,7 +18364,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>851</v>
+        <v>819</v>
       </c>
       <c r="B43" t="s">
         <v>468</v>
@@ -18891,7 +18372,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>852</v>
+        <v>828</v>
       </c>
       <c r="B44" t="s">
         <v>469</v>
@@ -18899,7 +18380,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>853</v>
+        <v>819</v>
       </c>
       <c r="B45" t="s">
         <v>470</v>
@@ -18907,7 +18388,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>854</v>
+        <v>819</v>
       </c>
       <c r="B46" t="s">
         <v>471</v>
@@ -18915,7 +18396,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>855</v>
+        <v>820</v>
       </c>
       <c r="B47" t="s">
         <v>472</v>
@@ -18923,7 +18404,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>856</v>
+        <v>817</v>
       </c>
       <c r="B48" t="s">
         <v>473</v>
@@ -18931,7 +18412,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>857</v>
+        <v>829</v>
       </c>
       <c r="B49" t="s">
         <v>474</v>
@@ -18939,7 +18420,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>858</v>
+        <v>825</v>
       </c>
       <c r="B50" t="s">
         <v>475</v>
@@ -18947,7 +18428,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>859</v>
+        <v>817</v>
       </c>
       <c r="B51" t="s">
         <v>476</v>
@@ -18955,7 +18436,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>860</v>
+        <v>825</v>
       </c>
       <c r="B52" t="s">
         <v>477</v>
@@ -18963,7 +18444,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>861</v>
+        <v>822</v>
       </c>
       <c r="B53" t="s">
         <v>478</v>
@@ -18971,7 +18452,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>862</v>
+        <v>823</v>
       </c>
       <c r="B54" t="s">
         <v>479</v>
@@ -18979,7 +18460,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>863</v>
+        <v>7</v>
       </c>
       <c r="B55" t="s">
         <v>480</v>
@@ -18987,7 +18468,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>864</v>
+        <v>824</v>
       </c>
       <c r="B56" t="s">
         <v>481</v>
@@ -18995,7 +18476,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>865</v>
+        <v>7</v>
       </c>
       <c r="B57" t="s">
         <v>482</v>
@@ -19003,7 +18484,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>866</v>
+        <v>7</v>
       </c>
       <c r="B58" t="s">
         <v>483</v>
@@ -19011,7 +18492,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>867</v>
+        <v>816</v>
       </c>
       <c r="B59" t="s">
         <v>484</v>
@@ -19019,7 +18500,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>868</v>
+        <v>819</v>
       </c>
       <c r="B60" t="s">
         <v>485</v>
@@ -19027,7 +18508,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>869</v>
+        <v>828</v>
       </c>
       <c r="B61" t="s">
         <v>486</v>
@@ -19035,7 +18516,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>870</v>
+        <v>818</v>
       </c>
       <c r="B62" t="s">
         <v>487</v>
@@ -19043,7 +18524,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>871</v>
+        <v>818</v>
       </c>
       <c r="B63" t="s">
         <v>488</v>
@@ -19051,7 +18532,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>872</v>
+        <v>830</v>
       </c>
       <c r="B64" t="s">
         <v>489</v>
@@ -19059,7 +18540,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>873</v>
+        <v>816</v>
       </c>
       <c r="B65" t="s">
         <v>490</v>
@@ -19067,7 +18548,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>874</v>
+        <v>831</v>
       </c>
       <c r="B66" t="s">
         <v>491</v>
@@ -19075,7 +18556,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>875</v>
+        <v>822</v>
       </c>
       <c r="B67" t="s">
         <v>492</v>
@@ -19083,7 +18564,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>876</v>
+        <v>818</v>
       </c>
       <c r="B68" t="s">
         <v>493</v>
@@ -19091,7 +18572,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>877</v>
+        <v>819</v>
       </c>
       <c r="B69" t="s">
         <v>494</v>
@@ -19099,7 +18580,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>878</v>
+        <v>822</v>
       </c>
       <c r="B70" t="s">
         <v>495</v>
@@ -19107,7 +18588,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>879</v>
+        <v>822</v>
       </c>
       <c r="B71" t="s">
         <v>496</v>
@@ -19115,7 +18596,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>880</v>
+        <v>822</v>
       </c>
       <c r="B72" t="s">
         <v>497</v>
@@ -19123,7 +18604,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>881</v>
+        <v>822</v>
       </c>
       <c r="B73" t="s">
         <v>498</v>
@@ -19131,7 +18612,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>882</v>
+        <v>822</v>
       </c>
       <c r="B74" t="s">
         <v>499</v>
@@ -19139,7 +18620,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>883</v>
+        <v>822</v>
       </c>
       <c r="B75" t="s">
         <v>500</v>
@@ -19147,7 +18628,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>884</v>
+        <v>822</v>
       </c>
       <c r="B76" t="s">
         <v>501</v>
@@ -19155,7 +18636,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>885</v>
+        <v>822</v>
       </c>
       <c r="B77" t="s">
         <v>502</v>
@@ -19163,7 +18644,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>886</v>
+        <v>822</v>
       </c>
       <c r="B78" t="s">
         <v>503</v>
@@ -19171,7 +18652,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>887</v>
+        <v>822</v>
       </c>
       <c r="B79" t="s">
         <v>504</v>
@@ -19179,7 +18660,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>888</v>
+        <v>822</v>
       </c>
       <c r="B80" t="s">
         <v>505</v>
@@ -19187,7 +18668,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>889</v>
+        <v>822</v>
       </c>
       <c r="B81" t="s">
         <v>506</v>
@@ -19195,7 +18676,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>890</v>
+        <v>822</v>
       </c>
       <c r="B82" t="s">
         <v>507</v>
@@ -19203,7 +18684,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>891</v>
+        <v>822</v>
       </c>
       <c r="B83" t="s">
         <v>508</v>
@@ -19211,7 +18692,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>892</v>
+        <v>822</v>
       </c>
       <c r="B84" t="s">
         <v>509</v>
@@ -19219,7 +18700,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>893</v>
+        <v>822</v>
       </c>
       <c r="B85" t="s">
         <v>510</v>
@@ -19227,7 +18708,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B86" t="s">
         <v>511</v>
@@ -19235,7 +18716,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>895</v>
+        <v>7</v>
       </c>
       <c r="B87" t="s">
         <v>512</v>
@@ -19243,7 +18724,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>896</v>
+        <v>832</v>
       </c>
       <c r="B88" t="s">
         <v>513</v>
@@ -19251,7 +18732,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>897</v>
+        <v>833</v>
       </c>
       <c r="B89" t="s">
         <v>514</v>
@@ -19259,7 +18740,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>898</v>
+        <v>834</v>
       </c>
       <c r="B90" t="s">
         <v>515</v>
@@ -19267,7 +18748,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>899</v>
+        <v>835</v>
       </c>
       <c r="B91" t="s">
         <v>516</v>
@@ -19275,7 +18756,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>900</v>
+        <v>836</v>
       </c>
       <c r="B92" t="s">
         <v>517</v>
@@ -19283,7 +18764,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>901</v>
+        <v>837</v>
       </c>
       <c r="B93" t="s">
         <v>518</v>
@@ -19291,7 +18772,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>902</v>
+        <v>838</v>
       </c>
       <c r="B94" t="s">
         <v>519</v>
@@ -19299,7 +18780,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>896</v>
+        <v>832</v>
       </c>
       <c r="B95" t="s">
         <v>520</v>
@@ -19307,7 +18788,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>903</v>
+        <v>839</v>
       </c>
       <c r="B96" t="s">
         <v>521</v>
@@ -19315,7 +18796,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>904</v>
+        <v>840</v>
       </c>
       <c r="B97" t="s">
         <v>522</v>
@@ -19323,7 +18804,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>905</v>
+        <v>841</v>
       </c>
       <c r="B98" t="s">
         <v>523</v>
@@ -19331,7 +18812,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>906</v>
+        <v>842</v>
       </c>
       <c r="B99" t="s">
         <v>524</v>
@@ -19339,7 +18820,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>906</v>
+        <v>842</v>
       </c>
       <c r="B100" t="s">
         <v>525</v>
@@ -19347,7 +18828,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>907</v>
+        <v>843</v>
       </c>
       <c r="B101" t="s">
         <v>526</v>
@@ -19355,7 +18836,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>908</v>
+        <v>822</v>
       </c>
       <c r="B102" t="s">
         <v>527</v>
@@ -19363,7 +18844,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>909</v>
+        <v>844</v>
       </c>
       <c r="B103" t="s">
         <v>528</v>
@@ -19371,7 +18852,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>896</v>
+        <v>832</v>
       </c>
       <c r="B104" t="s">
         <v>529</v>
@@ -19379,7 +18860,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>910</v>
+        <v>845</v>
       </c>
       <c r="B105" t="s">
         <v>530</v>
@@ -19387,7 +18868,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>911</v>
+        <v>822</v>
       </c>
       <c r="B106" t="s">
         <v>531</v>
@@ -19395,7 +18876,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>912</v>
+        <v>822</v>
       </c>
       <c r="B107" t="s">
         <v>532</v>
@@ -19403,7 +18884,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>913</v>
+        <v>822</v>
       </c>
       <c r="B108" t="s">
         <v>533</v>
@@ -19411,7 +18892,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>914</v>
+        <v>822</v>
       </c>
       <c r="B109" t="s">
         <v>534</v>
@@ -19419,7 +18900,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>915</v>
+        <v>822</v>
       </c>
       <c r="B110" t="s">
         <v>535</v>
@@ -19427,7 +18908,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>916</v>
+        <v>822</v>
       </c>
       <c r="B111" t="s">
         <v>536</v>
@@ -19435,7 +18916,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>917</v>
+        <v>822</v>
       </c>
       <c r="B112" t="s">
         <v>537</v>
@@ -19443,7 +18924,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>918</v>
+        <v>822</v>
       </c>
       <c r="B113" t="s">
         <v>538</v>
@@ -19451,7 +18932,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>919</v>
+        <v>822</v>
       </c>
       <c r="B114" t="s">
         <v>539</v>
@@ -19459,7 +18940,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>920</v>
+        <v>822</v>
       </c>
       <c r="B115" t="s">
         <v>540</v>
@@ -19467,7 +18948,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>921</v>
+        <v>822</v>
       </c>
       <c r="B116" t="s">
         <v>541</v>
@@ -19475,7 +18956,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>922</v>
+        <v>822</v>
       </c>
       <c r="B117" t="s">
         <v>542</v>
@@ -19483,7 +18964,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>923</v>
+        <v>822</v>
       </c>
       <c r="B118" t="s">
         <v>543</v>
@@ -19491,7 +18972,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>924</v>
+        <v>822</v>
       </c>
       <c r="B119" t="s">
         <v>544</v>
@@ -19499,7 +18980,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>925</v>
+        <v>822</v>
       </c>
       <c r="B120" t="s">
         <v>545</v>
@@ -19507,7 +18988,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>926</v>
+        <v>822</v>
       </c>
       <c r="B121" t="s">
         <v>546</v>
@@ -19515,7 +18996,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>927</v>
+        <v>822</v>
       </c>
       <c r="B122" t="s">
         <v>547</v>
@@ -19523,7 +19004,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>928</v>
+        <v>7</v>
       </c>
       <c r="B123" t="s">
         <v>548</v>
@@ -19531,7 +19012,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>929</v>
+        <v>822</v>
       </c>
       <c r="B124" t="s">
         <v>549</v>
@@ -19539,7 +19020,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>930</v>
+        <v>822</v>
       </c>
       <c r="B125" t="s">
         <v>550</v>
@@ -19547,7 +19028,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>931</v>
+        <v>822</v>
       </c>
       <c r="B126" t="s">
         <v>551</v>
@@ -19555,7 +19036,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>932</v>
+        <v>822</v>
       </c>
       <c r="B127" t="s">
         <v>552</v>
@@ -19563,7 +19044,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>933</v>
+        <v>822</v>
       </c>
       <c r="B128" t="s">
         <v>553</v>
@@ -19571,7 +19052,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>934</v>
+        <v>822</v>
       </c>
       <c r="B129" t="s">
         <v>554</v>
@@ -19579,7 +19060,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>935</v>
+        <v>822</v>
       </c>
       <c r="B130" t="s">
         <v>555</v>
@@ -19587,7 +19068,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>936</v>
+        <v>7</v>
       </c>
       <c r="B131" t="s">
         <v>556</v>
@@ -19595,7 +19076,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>937</v>
+        <v>834</v>
       </c>
       <c r="B132" t="s">
         <v>557</v>
@@ -19603,7 +19084,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>938</v>
+        <v>837</v>
       </c>
       <c r="B133" t="s">
         <v>558</v>
@@ -19611,7 +19092,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>939</v>
+        <v>846</v>
       </c>
       <c r="B134" t="s">
         <v>559</v>
@@ -19619,7 +19100,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>940</v>
+        <v>847</v>
       </c>
       <c r="B135" t="s">
         <v>560</v>
@@ -19627,7 +19108,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>941</v>
+        <v>848</v>
       </c>
       <c r="B136" t="s">
         <v>561</v>
@@ -19635,7 +19116,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>942</v>
+        <v>849</v>
       </c>
       <c r="B137" t="s">
         <v>562</v>
@@ -19643,7 +19124,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>943</v>
+        <v>850</v>
       </c>
       <c r="B138" t="s">
         <v>563</v>
@@ -19651,7 +19132,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>944</v>
+        <v>836</v>
       </c>
       <c r="B139" t="s">
         <v>564</v>
@@ -19659,7 +19140,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>945</v>
+        <v>851</v>
       </c>
       <c r="B140" t="s">
         <v>565</v>
@@ -19667,7 +19148,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>946</v>
+        <v>850</v>
       </c>
       <c r="B141" t="s">
         <v>566</v>
@@ -19675,7 +19156,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>947</v>
+        <v>841</v>
       </c>
       <c r="B142" t="s">
         <v>567</v>
@@ -19683,7 +19164,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>948</v>
+        <v>852</v>
       </c>
       <c r="B143" t="s">
         <v>568</v>
@@ -19691,7 +19172,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>949</v>
+        <v>853</v>
       </c>
       <c r="B144" t="s">
         <v>569</v>
@@ -19699,7 +19180,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>950</v>
+        <v>854</v>
       </c>
       <c r="B145" t="s">
         <v>570</v>
@@ -19707,7 +19188,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>908</v>
+        <v>822</v>
       </c>
       <c r="B146" t="s">
         <v>571</v>
@@ -19715,7 +19196,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>951</v>
+        <v>855</v>
       </c>
       <c r="B147" t="s">
         <v>572</v>
@@ -19723,7 +19204,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>952</v>
+        <v>840</v>
       </c>
       <c r="B148" t="s">
         <v>573</v>
@@ -19731,7 +19212,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>953</v>
+        <v>856</v>
       </c>
       <c r="B149" t="s">
         <v>574</v>
@@ -19739,7 +19220,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>954</v>
+        <v>822</v>
       </c>
       <c r="B150" t="s">
         <v>575</v>
@@ -19747,7 +19228,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>955</v>
+        <v>822</v>
       </c>
       <c r="B151" t="s">
         <v>576</v>
@@ -19755,7 +19236,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>956</v>
+        <v>822</v>
       </c>
       <c r="B152" t="s">
         <v>577</v>
@@ -19763,7 +19244,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>957</v>
+        <v>822</v>
       </c>
       <c r="B153" t="s">
         <v>578</v>
@@ -19771,7 +19252,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>958</v>
+        <v>822</v>
       </c>
       <c r="B154" t="s">
         <v>579</v>
@@ -19779,7 +19260,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>959</v>
+        <v>822</v>
       </c>
       <c r="B155" t="s">
         <v>580</v>
@@ -19787,7 +19268,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>960</v>
+        <v>822</v>
       </c>
       <c r="B156" t="s">
         <v>581</v>
@@ -19795,7 +19276,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>961</v>
+        <v>822</v>
       </c>
       <c r="B157" t="s">
         <v>582</v>
@@ -19803,7 +19284,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>962</v>
+        <v>822</v>
       </c>
       <c r="B158" t="s">
         <v>583</v>
@@ -19811,7 +19292,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>963</v>
+        <v>822</v>
       </c>
       <c r="B159" t="s">
         <v>584</v>
@@ -19819,7 +19300,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>964</v>
+        <v>857</v>
       </c>
       <c r="B160" t="s">
         <v>585</v>
@@ -19827,7 +19308,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>965</v>
+        <v>858</v>
       </c>
       <c r="B161" t="s">
         <v>586</v>
@@ -19835,7 +19316,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>966</v>
+        <v>859</v>
       </c>
       <c r="B162" t="s">
         <v>587</v>
@@ -19843,7 +19324,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>967</v>
+        <v>860</v>
       </c>
       <c r="B163" t="s">
         <v>588</v>
@@ -19851,7 +19332,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>968</v>
+        <v>861</v>
       </c>
       <c r="B164" t="s">
         <v>589</v>
@@ -19859,7 +19340,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>969</v>
+        <v>862</v>
       </c>
       <c r="B165" t="s">
         <v>590</v>
@@ -19867,7 +19348,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>970</v>
+        <v>863</v>
       </c>
       <c r="B166" t="s">
         <v>591</v>
@@ -19875,7 +19356,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>971</v>
+        <v>864</v>
       </c>
       <c r="B167" t="s">
         <v>592</v>
@@ -19883,7 +19364,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>972</v>
+        <v>820</v>
       </c>
       <c r="B168" t="s">
         <v>593</v>
@@ -19891,7 +19372,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>973</v>
+        <v>818</v>
       </c>
       <c r="B169" t="s">
         <v>594</v>
@@ -19899,7 +19380,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>974</v>
+        <v>822</v>
       </c>
       <c r="B170" t="s">
         <v>595</v>
@@ -19907,7 +19388,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>975</v>
+        <v>865</v>
       </c>
       <c r="B171" t="s">
         <v>596</v>
@@ -19915,7 +19396,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>976</v>
+        <v>866</v>
       </c>
       <c r="B172" t="s">
         <v>597</v>
@@ -19923,7 +19404,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>977</v>
+        <v>867</v>
       </c>
       <c r="B173" t="s">
         <v>598</v>
@@ -19931,7 +19412,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>978</v>
+        <v>868</v>
       </c>
       <c r="B174" t="s">
         <v>599</v>
@@ -19939,7 +19420,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>979</v>
+        <v>869</v>
       </c>
       <c r="B175" t="s">
         <v>600</v>
@@ -19947,7 +19428,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>980</v>
+        <v>870</v>
       </c>
       <c r="B176" t="s">
         <v>601</v>
@@ -19955,7 +19436,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>981</v>
+        <v>871</v>
       </c>
       <c r="B177" t="s">
         <v>602</v>
@@ -19963,7 +19444,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>982</v>
+        <v>850</v>
       </c>
       <c r="B178" t="s">
         <v>603</v>
@@ -19971,7 +19452,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>897</v>
+        <v>833</v>
       </c>
       <c r="B179" t="s">
         <v>604</v>
@@ -19979,7 +19460,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>983</v>
+        <v>872</v>
       </c>
       <c r="B180" t="s">
         <v>605</v>
@@ -19987,7 +19468,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>981</v>
+        <v>871</v>
       </c>
       <c r="B181" t="s">
         <v>606</v>
@@ -19995,7 +19476,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>984</v>
+        <v>846</v>
       </c>
       <c r="B182" t="s">
         <v>607</v>
@@ -20003,7 +19484,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>902</v>
+        <v>838</v>
       </c>
       <c r="B183" t="s">
         <v>608</v>
@@ -20011,7 +19492,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>981</v>
+        <v>871</v>
       </c>
       <c r="B184" t="s">
         <v>609</v>
@@ -20019,7 +19500,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>985</v>
+        <v>873</v>
       </c>
       <c r="B185" t="s">
         <v>610</v>
@@ -20027,7 +19508,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>986</v>
+        <v>874</v>
       </c>
       <c r="B186" t="s">
         <v>611</v>
@@ -20035,7 +19516,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>987</v>
+        <v>875</v>
       </c>
       <c r="B187" t="s">
         <v>612</v>
@@ -20043,7 +19524,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>988</v>
+        <v>855</v>
       </c>
       <c r="B188" t="s">
         <v>613</v>
@@ -20051,7 +19532,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>989</v>
+        <v>876</v>
       </c>
       <c r="B189" t="s">
         <v>614</v>
@@ -20059,7 +19540,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>990</v>
+        <v>877</v>
       </c>
       <c r="B190" t="s">
         <v>615</v>
@@ -20067,7 +19548,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>991</v>
+        <v>878</v>
       </c>
       <c r="B191" t="s">
         <v>616</v>
@@ -20075,7 +19556,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>992</v>
+        <v>879</v>
       </c>
       <c r="B192" t="s">
         <v>617</v>
@@ -20083,7 +19564,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>993</v>
+        <v>880</v>
       </c>
       <c r="B193" t="s">
         <v>618</v>
@@ -20091,7 +19572,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>994</v>
+        <v>881</v>
       </c>
       <c r="B194" t="s">
         <v>619</v>
@@ -20099,7 +19580,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>995</v>
+        <v>827</v>
       </c>
       <c r="B195" t="s">
         <v>620</v>
@@ -20107,7 +19588,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>996</v>
+        <v>882</v>
       </c>
       <c r="B196" t="s">
         <v>621</v>
@@ -20115,7 +19596,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>997</v>
+        <v>883</v>
       </c>
       <c r="B197" t="s">
         <v>622</v>
@@ -20123,7 +19604,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>998</v>
+        <v>884</v>
       </c>
       <c r="B198" t="s">
         <v>623</v>
@@ -20131,7 +19612,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>999</v>
+        <v>850</v>
       </c>
       <c r="B199" t="s">
         <v>624</v>
@@ -20139,7 +19620,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>1000</v>
+        <v>885</v>
       </c>
       <c r="B200" t="s">
         <v>625</v>
@@ -20147,7 +19628,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>1001</v>
+        <v>886</v>
       </c>
       <c r="B201" t="s">
         <v>626</v>
@@ -20155,7 +19636,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>1002</v>
+        <v>887</v>
       </c>
       <c r="B202" t="s">
         <v>627</v>
@@ -20163,7 +19644,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>1003</v>
+        <v>888</v>
       </c>
       <c r="B203" t="s">
         <v>628</v>
@@ -20171,7 +19652,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>1004</v>
+        <v>848</v>
       </c>
       <c r="B204" t="s">
         <v>629</v>
@@ -20179,7 +19660,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>1005</v>
+        <v>889</v>
       </c>
       <c r="B205" t="s">
         <v>630</v>
@@ -20187,7 +19668,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>1006</v>
+        <v>849</v>
       </c>
       <c r="B206" t="s">
         <v>631</v>
@@ -20195,7 +19676,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>1007</v>
+        <v>834</v>
       </c>
       <c r="B207" t="s">
         <v>632</v>
@@ -20203,7 +19684,7 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>1008</v>
+        <v>833</v>
       </c>
       <c r="B208" t="s">
         <v>633</v>
@@ -20211,7 +19692,7 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>1009</v>
+        <v>890</v>
       </c>
       <c r="B209" t="s">
         <v>634</v>
@@ -20219,7 +19700,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>1010</v>
+        <v>841</v>
       </c>
       <c r="B210" t="s">
         <v>635</v>
@@ -20227,7 +19708,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>1011</v>
+        <v>888</v>
       </c>
       <c r="B211" t="s">
         <v>636</v>
@@ -20235,7 +19716,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>1012</v>
+        <v>891</v>
       </c>
       <c r="B212" t="s">
         <v>637</v>
@@ -20243,7 +19724,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>1013</v>
+        <v>858</v>
       </c>
       <c r="B213" t="s">
         <v>638</v>
@@ -20251,7 +19732,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>1014</v>
+        <v>882</v>
       </c>
       <c r="B214" t="s">
         <v>639</v>
@@ -20259,7 +19740,7 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>1015</v>
+        <v>877</v>
       </c>
       <c r="B215" t="s">
         <v>640</v>
@@ -20267,7 +19748,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>1016</v>
+        <v>892</v>
       </c>
       <c r="B216" t="s">
         <v>641</v>
@@ -20275,7 +19756,7 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>1017</v>
+        <v>893</v>
       </c>
       <c r="B217" t="s">
         <v>642</v>
@@ -20283,7 +19764,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>1018</v>
+        <v>894</v>
       </c>
       <c r="B218" t="s">
         <v>643</v>
@@ -20291,7 +19772,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>1019</v>
+        <v>895</v>
       </c>
       <c r="B219" t="s">
         <v>644</v>
@@ -20299,7 +19780,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>1020</v>
+        <v>896</v>
       </c>
       <c r="B220" t="s">
         <v>645</v>
@@ -20307,7 +19788,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>1021</v>
+        <v>825</v>
       </c>
       <c r="B221" t="s">
         <v>646</v>
@@ -20315,7 +19796,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>1022</v>
+        <v>855</v>
       </c>
       <c r="B222" t="s">
         <v>647</v>
@@ -20323,7 +19804,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>1023</v>
+        <v>883</v>
       </c>
       <c r="B223" t="s">
         <v>648</v>
@@ -20331,7 +19812,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>1024</v>
+        <v>897</v>
       </c>
       <c r="B224" t="s">
         <v>649</v>
@@ -20339,7 +19820,7 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>898</v>
+        <v>834</v>
       </c>
       <c r="B225" t="s">
         <v>650</v>
@@ -20347,7 +19828,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>900</v>
+        <v>836</v>
       </c>
       <c r="B226" t="s">
         <v>651</v>
@@ -20355,7 +19836,7 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>901</v>
+        <v>837</v>
       </c>
       <c r="B227" t="s">
         <v>652</v>
@@ -20363,7 +19844,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>896</v>
+        <v>832</v>
       </c>
       <c r="B228" t="s">
         <v>653</v>
@@ -20371,7 +19852,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>1025</v>
+        <v>898</v>
       </c>
       <c r="B229" t="s">
         <v>654</v>
@@ -20379,7 +19860,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>902</v>
+        <v>838</v>
       </c>
       <c r="B230" t="s">
         <v>655</v>
@@ -20387,7 +19868,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>902</v>
+        <v>838</v>
       </c>
       <c r="B231" t="s">
         <v>656</v>
@@ -20395,7 +19876,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>981</v>
+        <v>871</v>
       </c>
       <c r="B232" t="s">
         <v>657</v>
@@ -20403,7 +19884,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>1025</v>
+        <v>898</v>
       </c>
       <c r="B233" t="s">
         <v>658</v>
@@ -20411,7 +19892,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>898</v>
+        <v>834</v>
       </c>
       <c r="B234" t="s">
         <v>659</v>
@@ -20419,7 +19900,7 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>902</v>
+        <v>838</v>
       </c>
       <c r="B235" t="s">
         <v>660</v>
@@ -20427,7 +19908,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>1026</v>
+        <v>889</v>
       </c>
       <c r="B236" t="s">
         <v>661</v>
@@ -20435,7 +19916,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>1027</v>
+        <v>847</v>
       </c>
       <c r="B237" t="s">
         <v>662</v>
@@ -20443,7 +19924,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>1028</v>
+        <v>849</v>
       </c>
       <c r="B238" t="s">
         <v>663</v>
@@ -20451,7 +19932,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>898</v>
+        <v>834</v>
       </c>
       <c r="B239" t="s">
         <v>664</v>
@@ -20459,7 +19940,7 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>1029</v>
+        <v>853</v>
       </c>
       <c r="B240" t="s">
         <v>665</v>
@@ -20467,7 +19948,7 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>984</v>
+        <v>846</v>
       </c>
       <c r="B241" t="s">
         <v>666</v>
@@ -20475,7 +19956,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>1030</v>
+        <v>899</v>
       </c>
       <c r="B242" t="s">
         <v>667</v>
@@ -20483,7 +19964,7 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>1028</v>
+        <v>849</v>
       </c>
       <c r="B243" t="s">
         <v>668</v>
@@ -20491,7 +19972,7 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>905</v>
+        <v>841</v>
       </c>
       <c r="B244" t="s">
         <v>669</v>
@@ -20499,7 +19980,7 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>1031</v>
+        <v>900</v>
       </c>
       <c r="B245" t="s">
         <v>670</v>
@@ -20507,7 +19988,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>1032</v>
+        <v>901</v>
       </c>
       <c r="B246" t="s">
         <v>671</v>
@@ -20515,7 +19996,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>905</v>
+        <v>841</v>
       </c>
       <c r="B247" t="s">
         <v>672</v>
@@ -20523,7 +20004,7 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>1026</v>
+        <v>889</v>
       </c>
       <c r="B248" t="s">
         <v>673</v>
@@ -20531,7 +20012,7 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>1033</v>
+        <v>888</v>
       </c>
       <c r="B249" t="s">
         <v>674</v>
@@ -20539,7 +20020,7 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>1031</v>
+        <v>900</v>
       </c>
       <c r="B250" t="s">
         <v>675</v>
@@ -20547,7 +20028,7 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>1034</v>
+        <v>833</v>
       </c>
       <c r="B251" t="s">
         <v>676</v>
@@ -20555,7 +20036,7 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>1035</v>
+        <v>832</v>
       </c>
       <c r="B252" t="s">
         <v>677</v>
@@ -20563,7 +20044,7 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>1036</v>
+        <v>847</v>
       </c>
       <c r="B253" t="s">
         <v>678</v>
@@ -20571,7 +20052,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>1037</v>
+        <v>889</v>
       </c>
       <c r="B254" t="s">
         <v>679</v>
@@ -20579,7 +20060,7 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>1038</v>
+        <v>898</v>
       </c>
       <c r="B255" t="s">
         <v>680</v>
@@ -20587,7 +20068,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>1039</v>
+        <v>850</v>
       </c>
       <c r="B256" t="s">
         <v>681</v>
@@ -20595,7 +20076,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>1040</v>
+        <v>849</v>
       </c>
       <c r="B257" t="s">
         <v>682</v>
@@ -20603,7 +20084,7 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>1041</v>
+        <v>833</v>
       </c>
       <c r="B258" t="s">
         <v>683</v>
@@ -20611,7 +20092,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>1042</v>
+        <v>849</v>
       </c>
       <c r="B259" t="s">
         <v>684</v>
@@ -20619,7 +20100,7 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>1043</v>
+        <v>833</v>
       </c>
       <c r="B260" t="s">
         <v>685</v>
@@ -20627,7 +20108,7 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>1044</v>
+        <v>846</v>
       </c>
       <c r="B261" t="s">
         <v>686</v>
@@ -20635,7 +20116,7 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>1045</v>
+        <v>853</v>
       </c>
       <c r="B262" t="s">
         <v>687</v>
@@ -20643,7 +20124,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>1046</v>
+        <v>889</v>
       </c>
       <c r="B263" t="s">
         <v>688</v>
@@ -20651,7 +20132,7 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>1047</v>
+        <v>853</v>
       </c>
       <c r="B264" t="s">
         <v>689</v>
@@ -20659,7 +20140,7 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>1048</v>
+        <v>848</v>
       </c>
       <c r="B265" t="s">
         <v>690</v>
@@ -20667,7 +20148,7 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>1049</v>
+        <v>847</v>
       </c>
       <c r="B266" t="s">
         <v>691</v>
@@ -20675,7 +20156,7 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>1050</v>
+        <v>898</v>
       </c>
       <c r="B267" t="s">
         <v>692</v>
@@ -20683,7 +20164,7 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>1051</v>
+        <v>835</v>
       </c>
       <c r="B268" t="s">
         <v>693</v>
@@ -20691,7 +20172,7 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>1052</v>
+        <v>850</v>
       </c>
       <c r="B269" t="s">
         <v>694</v>
@@ -20699,7 +20180,7 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>1053</v>
+        <v>898</v>
       </c>
       <c r="B270" t="s">
         <v>695</v>
@@ -20707,7 +20188,7 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>1054</v>
+        <v>849</v>
       </c>
       <c r="B271" t="s">
         <v>696</v>
@@ -20715,7 +20196,7 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>1055</v>
+        <v>889</v>
       </c>
       <c r="B272" t="s">
         <v>697</v>
@@ -20723,7 +20204,7 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>1056</v>
+        <v>849</v>
       </c>
       <c r="B273" t="s">
         <v>698</v>
@@ -20731,7 +20212,7 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>1057</v>
+        <v>846</v>
       </c>
       <c r="B274" t="s">
         <v>699</v>
@@ -20739,7 +20220,7 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>1058</v>
+        <v>849</v>
       </c>
       <c r="B275" t="s">
         <v>700</v>
@@ -20747,7 +20228,7 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>1059</v>
+        <v>888</v>
       </c>
       <c r="B276" t="s">
         <v>701</v>
@@ -20755,7 +20236,7 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>1060</v>
+        <v>902</v>
       </c>
       <c r="B277" t="s">
         <v>702</v>
@@ -20763,7 +20244,7 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>1061</v>
+        <v>903</v>
       </c>
       <c r="B278" t="s">
         <v>703</v>
@@ -20771,7 +20252,7 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>1062</v>
+        <v>904</v>
       </c>
       <c r="B279" t="s">
         <v>704</v>
@@ -20779,7 +20260,7 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>1063</v>
+        <v>905</v>
       </c>
       <c r="B280" t="s">
         <v>705</v>
@@ -20787,7 +20268,7 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>1064</v>
+        <v>906</v>
       </c>
       <c r="B281" t="s">
         <v>706</v>
@@ -20795,7 +20276,7 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>1065</v>
+        <v>907</v>
       </c>
       <c r="B282" t="s">
         <v>707</v>
@@ -20803,7 +20284,7 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>1066</v>
+        <v>908</v>
       </c>
       <c r="B283" t="s">
         <v>708</v>
@@ -20811,7 +20292,7 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>1067</v>
+        <v>909</v>
       </c>
       <c r="B284" t="s">
         <v>709</v>
@@ -20819,7 +20300,7 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>1068</v>
+        <v>910</v>
       </c>
       <c r="B285" t="s">
         <v>710</v>
@@ -20827,7 +20308,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>1069</v>
+        <v>911</v>
       </c>
       <c r="B286" t="s">
         <v>711</v>
@@ -20835,7 +20316,7 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>1070</v>
+        <v>912</v>
       </c>
       <c r="B287" t="s">
         <v>712</v>
@@ -20843,7 +20324,7 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>1071</v>
+        <v>7</v>
       </c>
       <c r="B288" t="s">
         <v>713</v>
@@ -20851,7 +20332,7 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>1072</v>
+        <v>890</v>
       </c>
       <c r="B289" t="s">
         <v>714</v>
@@ -20859,7 +20340,7 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>1073</v>
+        <v>913</v>
       </c>
       <c r="B290" t="s">
         <v>715</v>
@@ -20867,7 +20348,7 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>1074</v>
+        <v>914</v>
       </c>
       <c r="B291" t="s">
         <v>716</v>
@@ -20875,7 +20356,7 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>1075</v>
+        <v>915</v>
       </c>
       <c r="B292" t="s">
         <v>717</v>
@@ -20883,7 +20364,7 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>1076</v>
+        <v>916</v>
       </c>
       <c r="B293" t="s">
         <v>718</v>
@@ -20891,7 +20372,7 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>1077</v>
+        <v>917</v>
       </c>
       <c r="B294" t="s">
         <v>719</v>
@@ -20899,7 +20380,7 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>1078</v>
+        <v>918</v>
       </c>
       <c r="B295" t="s">
         <v>720</v>
@@ -20907,7 +20388,7 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>1079</v>
+        <v>919</v>
       </c>
       <c r="B296" t="s">
         <v>721</v>
@@ -20915,7 +20396,7 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>1080</v>
+        <v>920</v>
       </c>
       <c r="B297" t="s">
         <v>722</v>
@@ -20923,7 +20404,7 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>1081</v>
+        <v>921</v>
       </c>
       <c r="B298" t="s">
         <v>723</v>
@@ -20931,7 +20412,7 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>1082</v>
+        <v>922</v>
       </c>
       <c r="B299" t="s">
         <v>724</v>
@@ -20939,7 +20420,7 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>1083</v>
+        <v>923</v>
       </c>
       <c r="B300" t="s">
         <v>725</v>
@@ -20947,7 +20428,7 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>1084</v>
+        <v>924</v>
       </c>
       <c r="B301" t="s">
         <v>726</v>
@@ -20955,7 +20436,7 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>1085</v>
+        <v>925</v>
       </c>
       <c r="B302" t="s">
         <v>727</v>
@@ -20963,7 +20444,7 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>1086</v>
+        <v>926</v>
       </c>
       <c r="B303" t="s">
         <v>728</v>
@@ -20971,7 +20452,7 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>1087</v>
+        <v>863</v>
       </c>
       <c r="B304" t="s">
         <v>729</v>
@@ -20979,7 +20460,7 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>1088</v>
+        <v>927</v>
       </c>
       <c r="B305" t="s">
         <v>730</v>
@@ -20987,7 +20468,7 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>1089</v>
+        <v>928</v>
       </c>
       <c r="B306" t="s">
         <v>731</v>
@@ -20995,7 +20476,7 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>1090</v>
+        <v>929</v>
       </c>
       <c r="B307" t="s">
         <v>732</v>
@@ -21003,7 +20484,7 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>1091</v>
+        <v>930</v>
       </c>
       <c r="B308" t="s">
         <v>733</v>
@@ -21011,7 +20492,7 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>1092</v>
+        <v>931</v>
       </c>
       <c r="B309" t="s">
         <v>734</v>
@@ -21019,7 +20500,7 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>1093</v>
+        <v>932</v>
       </c>
       <c r="B310" t="s">
         <v>735</v>
@@ -21027,7 +20508,7 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>1094</v>
+        <v>933</v>
       </c>
       <c r="B311" t="s">
         <v>736</v>
@@ -21035,7 +20516,7 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>1077</v>
+        <v>917</v>
       </c>
       <c r="B312" t="s">
         <v>737</v>
@@ -21043,7 +20524,7 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>1095</v>
+        <v>934</v>
       </c>
       <c r="B313" t="s">
         <v>738</v>
@@ -21051,7 +20532,7 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>1096</v>
+        <v>935</v>
       </c>
       <c r="B314" t="s">
         <v>326</v>
@@ -21059,7 +20540,7 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>1097</v>
+        <v>841</v>
       </c>
       <c r="B315" t="s">
         <v>739</v>
@@ -21067,7 +20548,7 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>1098</v>
+        <v>936</v>
       </c>
       <c r="B316" t="s">
         <v>740</v>
@@ -21075,7 +20556,7 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>1099</v>
+        <v>822</v>
       </c>
       <c r="B317" t="s">
         <v>741</v>
@@ -21083,7 +20564,7 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>1100</v>
+        <v>7</v>
       </c>
       <c r="B318" t="s">
         <v>742</v>
@@ -21091,7 +20572,7 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>1101</v>
+        <v>822</v>
       </c>
       <c r="B319" t="s">
         <v>743</v>
@@ -21099,7 +20580,7 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>1102</v>
+        <v>822</v>
       </c>
       <c r="B320" t="s">
         <v>744</v>
@@ -21107,7 +20588,7 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>1103</v>
+        <v>822</v>
       </c>
       <c r="B321" t="s">
         <v>745</v>
@@ -21115,7 +20596,7 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>1104</v>
+        <v>822</v>
       </c>
       <c r="B322" t="s">
         <v>746</v>
@@ -21123,7 +20604,7 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>1105</v>
+        <v>7</v>
       </c>
       <c r="B323" t="s">
         <v>747</v>
@@ -21131,7 +20612,7 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>1106</v>
+        <v>7</v>
       </c>
       <c r="B324" t="s">
         <v>748</v>
@@ -21139,7 +20620,7 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>1107</v>
+        <v>822</v>
       </c>
       <c r="B325" t="s">
         <v>749</v>
@@ -21147,7 +20628,7 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>1026</v>
+        <v>889</v>
       </c>
       <c r="B326" t="s">
         <v>750</v>
@@ -21155,7 +20636,7 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>1108</v>
+        <v>937</v>
       </c>
       <c r="B327" t="s">
         <v>751</v>
@@ -21171,7 +20652,7 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>1109</v>
+        <v>938</v>
       </c>
       <c r="B329" t="s">
         <v>753</v>
@@ -21179,7 +20660,7 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>1110</v>
+        <v>939</v>
       </c>
       <c r="B330" t="s">
         <v>754</v>
@@ -21187,7 +20668,7 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>1111</v>
+        <v>940</v>
       </c>
       <c r="B331" t="s">
         <v>755</v>
@@ -21195,7 +20676,7 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>1112</v>
+        <v>941</v>
       </c>
       <c r="B332" t="s">
         <v>756</v>
@@ -21203,7 +20684,7 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>1113</v>
+        <v>942</v>
       </c>
       <c r="B333" t="s">
         <v>757</v>
@@ -21211,7 +20692,7 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>1114</v>
+        <v>943</v>
       </c>
       <c r="B334" t="s">
         <v>758</v>
@@ -21219,7 +20700,7 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>1115</v>
+        <v>944</v>
       </c>
       <c r="B335" t="s">
         <v>759</v>
@@ -21227,7 +20708,7 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>1116</v>
+        <v>945</v>
       </c>
       <c r="B336" t="s">
         <v>760</v>
@@ -21235,7 +20716,7 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>1117</v>
+        <v>946</v>
       </c>
       <c r="B337" t="s">
         <v>761</v>
@@ -21243,7 +20724,7 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>1118</v>
+        <v>947</v>
       </c>
       <c r="B338" t="s">
         <v>762</v>
@@ -21251,7 +20732,7 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>1119</v>
+        <v>948</v>
       </c>
       <c r="B339" t="s">
         <v>763</v>
@@ -21259,7 +20740,7 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>1120</v>
+        <v>949</v>
       </c>
       <c r="B340" t="s">
         <v>764</v>
@@ -21267,7 +20748,7 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>1121</v>
+        <v>950</v>
       </c>
       <c r="B341" t="s">
         <v>765</v>
@@ -21275,7 +20756,7 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>1122</v>
+        <v>951</v>
       </c>
       <c r="B342" t="s">
         <v>766</v>
@@ -21283,7 +20764,7 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>1123</v>
+        <v>952</v>
       </c>
       <c r="B343" t="s">
         <v>767</v>
@@ -21291,7 +20772,7 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>1124</v>
+        <v>953</v>
       </c>
       <c r="B344" t="s">
         <v>768</v>
@@ -21299,7 +20780,7 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>1125</v>
+        <v>954</v>
       </c>
       <c r="B345" t="s">
         <v>769</v>
@@ -21307,7 +20788,7 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>1126</v>
+        <v>955</v>
       </c>
       <c r="B346" t="s">
         <v>770</v>
@@ -21315,7 +20796,7 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>1127</v>
+        <v>956</v>
       </c>
       <c r="B347" t="s">
         <v>771</v>
@@ -21323,7 +20804,7 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>1128</v>
+        <v>957</v>
       </c>
       <c r="B348" t="s">
         <v>772</v>
@@ -21331,7 +20812,7 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>1129</v>
+        <v>958</v>
       </c>
       <c r="B349" t="s">
         <v>773</v>
@@ -21339,7 +20820,7 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>1130</v>
+        <v>959</v>
       </c>
       <c r="B350" t="s">
         <v>774</v>
@@ -21347,7 +20828,7 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>1131</v>
+        <v>960</v>
       </c>
       <c r="B351" t="s">
         <v>775</v>
@@ -21355,7 +20836,7 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>1132</v>
+        <v>961</v>
       </c>
       <c r="B352" t="s">
         <v>776</v>
@@ -21363,7 +20844,7 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>1133</v>
+        <v>962</v>
       </c>
       <c r="B353" t="s">
         <v>777</v>
@@ -21371,7 +20852,7 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>1134</v>
+        <v>963</v>
       </c>
       <c r="B354" t="s">
         <v>778</v>
@@ -21379,7 +20860,7 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>1135</v>
+        <v>964</v>
       </c>
       <c r="B355" t="s">
         <v>779</v>
@@ -21387,7 +20868,7 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>1136</v>
+        <v>965</v>
       </c>
       <c r="B356" t="s">
         <v>780</v>
@@ -21395,7 +20876,7 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>1137</v>
+        <v>966</v>
       </c>
       <c r="B357" t="s">
         <v>781</v>
@@ -21403,7 +20884,7 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>1138</v>
+        <v>967</v>
       </c>
       <c r="B358" t="s">
         <v>782</v>
@@ -21411,7 +20892,7 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>1139</v>
+        <v>968</v>
       </c>
       <c r="B359" t="s">
         <v>783</v>
@@ -21419,7 +20900,7 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>1140</v>
+        <v>969</v>
       </c>
       <c r="B360" t="s">
         <v>784</v>
@@ -21427,7 +20908,7 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>1141</v>
+        <v>970</v>
       </c>
       <c r="B361" t="s">
         <v>785</v>
@@ -21435,7 +20916,7 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>1142</v>
+        <v>971</v>
       </c>
       <c r="B362" t="s">
         <v>786</v>
@@ -21443,7 +20924,7 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>1143</v>
+        <v>972</v>
       </c>
       <c r="B363" t="s">
         <v>787</v>
@@ -21451,7 +20932,7 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>1144</v>
+        <v>973</v>
       </c>
       <c r="B364" t="s">
         <v>788</v>
@@ -21459,7 +20940,7 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>1145</v>
+        <v>974</v>
       </c>
       <c r="B365" t="s">
         <v>789</v>
@@ -21467,7 +20948,7 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>1146</v>
+        <v>975</v>
       </c>
       <c r="B366" t="s">
         <v>790</v>
@@ -21475,7 +20956,7 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>1147</v>
+        <v>976</v>
       </c>
       <c r="B367" t="s">
         <v>791</v>
@@ -21483,7 +20964,7 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>1148</v>
+        <v>977</v>
       </c>
       <c r="B368" t="s">
         <v>792</v>
@@ -21491,7 +20972,7 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>1149</v>
+        <v>978</v>
       </c>
       <c r="B369" t="s">
         <v>793</v>
@@ -21499,7 +20980,7 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>1150</v>
+        <v>979</v>
       </c>
       <c r="B370" t="s">
         <v>794</v>
@@ -21507,7 +20988,7 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>1151</v>
+        <v>980</v>
       </c>
       <c r="B371" t="s">
         <v>795</v>
@@ -21515,7 +20996,7 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>1152</v>
+        <v>981</v>
       </c>
       <c r="B372" t="s">
         <v>796</v>
@@ -21523,7 +21004,7 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>1153</v>
+        <v>982</v>
       </c>
       <c r="B373" t="s">
         <v>797</v>
@@ -21531,7 +21012,7 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>1154</v>
+        <v>983</v>
       </c>
       <c r="B374" t="s">
         <v>798</v>
@@ -21539,7 +21020,7 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>1155</v>
+        <v>984</v>
       </c>
       <c r="B375" t="s">
         <v>799</v>
@@ -21547,7 +21028,7 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>1156</v>
+        <v>985</v>
       </c>
       <c r="B376" t="s">
         <v>800</v>
@@ -21555,7 +21036,7 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>1157</v>
+        <v>986</v>
       </c>
       <c r="B377" t="s">
         <v>801</v>
@@ -21563,7 +21044,7 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>1158</v>
+        <v>987</v>
       </c>
       <c r="B378" t="s">
         <v>802</v>
@@ -21571,7 +21052,7 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>1159</v>
+        <v>988</v>
       </c>
       <c r="B379" t="s">
         <v>803</v>
@@ -21579,7 +21060,7 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>1160</v>
+        <v>989</v>
       </c>
       <c r="B380" t="s">
         <v>804</v>
@@ -21587,7 +21068,7 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>1161</v>
+        <v>990</v>
       </c>
       <c r="B381" t="s">
         <v>805</v>
@@ -21595,7 +21076,7 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>1162</v>
+        <v>991</v>
       </c>
       <c r="B382" t="s">
         <v>806</v>
@@ -21603,7 +21084,7 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>1163</v>
+        <v>992</v>
       </c>
       <c r="B383" t="s">
         <v>807</v>
@@ -21635,7 +21116,7 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>1164</v>
+        <v>822</v>
       </c>
       <c r="B387" t="s">
         <v>811</v>
@@ -21643,7 +21124,7 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>1165</v>
+        <v>7</v>
       </c>
       <c r="B388" t="s">
         <v>812</v>
@@ -21651,7 +21132,7 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>1166</v>
+        <v>993</v>
       </c>
       <c r="B389" t="s">
         <v>401</v>
@@ -21659,7 +21140,7 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>1167</v>
+        <v>994</v>
       </c>
       <c r="B390" t="s">
         <v>402</v>
@@ -21667,7 +21148,7 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>1168</v>
+        <v>995</v>
       </c>
       <c r="B391" t="s">
         <v>403</v>
@@ -21675,7 +21156,7 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>1169</v>
+        <v>996</v>
       </c>
       <c r="B392" t="s">
         <v>404</v>

--- a/inst/testdata/examples_of_output/testoutput_doaggregate_10pts_1miles.xlsx
+++ b/inst/testdata/examples_of_output/testoutput_doaggregate_10pts_1miles.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="1081">
   <si>
     <t xml:space="preserve">Analysis Title</t>
   </si>
@@ -1646,13 +1646,13 @@
     <t xml:space="preserve">Ratio to State avg Low life expectancy</t>
   </si>
   <si>
-    <t xml:space="preserve">171</t>
+    <t xml:space="preserve">1.71</t>
   </si>
   <si>
     <t xml:space="preserve">Demographic Index USA</t>
   </si>
   <si>
-    <t xml:space="preserve">178</t>
+    <t xml:space="preserve">1.78</t>
   </si>
   <si>
     <t xml:space="preserve">Supplemental Demographic Index USA</t>
@@ -1733,15 +1733,9 @@
     <t xml:space="preserve">% White (non-Hispanic, single race)</t>
   </si>
   <si>
-    <t xml:space="preserve">190</t>
-  </si>
-  <si>
     <t xml:space="preserve">Demographic Index State</t>
   </si>
   <si>
-    <t xml:space="preserve">172</t>
-  </si>
-  <si>
     <t xml:space="preserve">Supplemental Demographic Index State</t>
   </si>
   <si>
@@ -2006,13 +2000,13 @@
     <t xml:space="preserve">National Percentile of Low Life Expectancy</t>
   </si>
   <si>
-    <t xml:space="preserve">134</t>
+    <t xml:space="preserve">1.34</t>
   </si>
   <si>
     <t xml:space="preserve">US Average of Demographic Index</t>
   </si>
   <si>
-    <t xml:space="preserve">164</t>
+    <t xml:space="preserve">1.64</t>
   </si>
   <si>
     <t xml:space="preserve">US Average of Supplemental Demographic Index</t>
@@ -2165,13 +2159,13 @@
     <t xml:space="preserve">State percentile for Low life expectancy</t>
   </si>
   <si>
-    <t xml:space="preserve">154</t>
+    <t xml:space="preserve">1.54</t>
   </si>
   <si>
     <t xml:space="preserve">State Average of Supplemental Demographic Index</t>
   </si>
   <si>
-    <t xml:space="preserve">142</t>
+    <t xml:space="preserve">1.42</t>
   </si>
   <si>
     <t xml:space="preserve">25</t>
@@ -2252,7 +2246,7 @@
     <t xml:space="preserve">Nitrogen Dioxide (NO2)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.42</t>
+    <t xml:space="preserve">0.415</t>
   </si>
   <si>
     <t xml:space="preserve">Air Toxics Diesel Particulate Matter (ug/m3)</t>
@@ -2378,7 +2372,7 @@
     <t xml:space="preserve">US average for Nitrogen Dioxide (NO2)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.19</t>
+    <t xml:space="preserve">0.191</t>
   </si>
   <si>
     <t xml:space="preserve">US average for Air Toxics Diesel Particulate Matter (ug/m3)</t>
@@ -2501,7 +2495,7 @@
     <t xml:space="preserve">State average for Nitrogen Dioxide (NO2)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.26</t>
+    <t xml:space="preserve">0.264</t>
   </si>
   <si>
     <t xml:space="preserve">State average for Air Toxics Diesel Particulate Matter (ug/m3)</t>
@@ -2519,7 +2513,7 @@
     <t xml:space="preserve">State average for Traffic Proximity and Volume (daily traffic count/distance to road)</t>
   </si>
   <si>
-    <t xml:space="preserve">34.43</t>
+    <t xml:space="preserve">0.34</t>
   </si>
   <si>
     <t xml:space="preserve">State average for Lead Paint Indicator (% pre-1960s housing)</t>
@@ -2553,6 +2547,9 @@
   </si>
   <si>
     <t xml:space="preserve">State average for Wastewater Discharge Indicator (toxicity-weighted concentration/distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52</t>
   </si>
   <si>
     <t xml:space="preserve">State average for Drinking Water Non-Compliance</t>
@@ -3852,23 +3849,131 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10" outlineLevelCol="2"/>
   <cols>
+    <col min="100" max="100" width="6.71" hidden="0" customWidth="1"/>
+    <col min="101" max="101" width="6.71" hidden="0" customWidth="1"/>
+    <col min="102" max="102" width="6.71" hidden="0" customWidth="1"/>
+    <col min="103" max="103" width="6.71" hidden="0" customWidth="1"/>
+    <col min="104" max="104" width="6.71" hidden="0" customWidth="1"/>
+    <col min="105" max="105" width="6.71" hidden="0" customWidth="1"/>
+    <col min="106" max="106" width="6.71" hidden="0" customWidth="1"/>
+    <col min="107" max="107" width="6.71" hidden="0" customWidth="1"/>
+    <col min="108" max="108" width="6.71" hidden="0" customWidth="1"/>
+    <col min="109" max="109" width="6.71" hidden="0" customWidth="1"/>
+    <col min="110" max="110" width="6.71" hidden="0" customWidth="1"/>
+    <col min="111" max="111" width="6.71" hidden="0" customWidth="1"/>
+    <col min="112" max="112" width="6.71" hidden="0" customWidth="1"/>
+    <col min="113" max="113" width="6.71" hidden="0" customWidth="1"/>
+    <col min="114" max="114" width="6.71" hidden="0" customWidth="1"/>
+    <col min="115" max="115" width="6.71" hidden="0" customWidth="1"/>
+    <col min="116" max="116" width="6.71" hidden="0" customWidth="1"/>
+    <col min="117" max="117" width="6.71" hidden="0" customWidth="1"/>
+    <col min="118" max="118" width="6.71" hidden="0" customWidth="1"/>
+    <col min="119" max="119" width="6.71" hidden="0" customWidth="1"/>
     <col min="12" max="12" width="6.71" hidden="0" customWidth="1"/>
+    <col min="120" max="120" width="6.71" hidden="0" customWidth="1"/>
+    <col min="121" max="121" width="6.71" hidden="0" customWidth="1"/>
+    <col min="122" max="122" width="6.71" hidden="0" customWidth="1"/>
+    <col min="123" max="123" width="6.71" hidden="0" customWidth="1"/>
+    <col min="124" max="124" width="6.71" hidden="0" customWidth="1"/>
+    <col min="125" max="125" width="6.71" hidden="0" customWidth="1"/>
+    <col min="126" max="126" width="6.71" hidden="0" customWidth="1"/>
+    <col min="127" max="127" width="6.71" hidden="0" customWidth="1"/>
+    <col min="128" max="128" width="6.71" hidden="0" customWidth="1"/>
+    <col min="129" max="129" width="6.71" hidden="0" customWidth="1"/>
     <col min="13" max="13" width="6.71" hidden="0" customWidth="1"/>
+    <col min="130" max="130" width="6.71" hidden="0" customWidth="1"/>
+    <col min="131" max="131" width="6.71" hidden="0" customWidth="1"/>
+    <col min="132" max="132" width="6.71" hidden="0" customWidth="1"/>
+    <col min="133" max="133" width="6.71" hidden="0" customWidth="1"/>
+    <col min="134" max="134" width="6.71" hidden="0" customWidth="1"/>
+    <col min="135" max="135" width="6.71" hidden="0" customWidth="1"/>
+    <col min="136" max="136" width="6.71" hidden="0" customWidth="1"/>
+    <col min="137" max="137" width="6.71" hidden="0" customWidth="1"/>
+    <col min="138" max="138" width="6.71" hidden="0" customWidth="1"/>
+    <col min="139" max="139" width="6.71" hidden="0" customWidth="1"/>
     <col min="14" max="14" width="6.71" hidden="0" customWidth="1"/>
+    <col min="140" max="140" width="6.71" hidden="0" customWidth="1"/>
+    <col min="141" max="141" width="6.71" hidden="0" customWidth="1"/>
+    <col min="142" max="142" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
+    <col min="143" max="143" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
+    <col min="144" max="144" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
+    <col min="145" max="145" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
+    <col min="146" max="146" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
+    <col min="147" max="147" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
+    <col min="148" max="148" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
+    <col min="149" max="149" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
     <col min="15" max="15" width="6.71" hidden="0" customWidth="1"/>
+    <col min="150" max="150" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
+    <col min="151" max="151" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
+    <col min="152" max="152" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
+    <col min="153" max="153" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
+    <col min="154" max="154" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
+    <col min="155" max="155" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
+    <col min="156" max="156" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
+    <col min="157" max="157" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
+    <col min="158" max="158" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
+    <col min="159" max="159" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
     <col min="16" max="16" width="6.71" hidden="0" customWidth="1"/>
+    <col min="160" max="160" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
+    <col min="161" max="161" width="6.71" hidden="0" customWidth="1"/>
+    <col min="162" max="162" width="6.71" hidden="0" customWidth="1"/>
     <col min="17" max="17" width="6.71" hidden="0" customWidth="1"/>
     <col min="18" max="18" width="6.71" hidden="0" customWidth="1"/>
+    <col min="180" max="180" outlineLevel="2" hidden="1"/>
+    <col min="181" max="181" outlineLevel="2" hidden="1"/>
+    <col min="182" max="182" outlineLevel="2" hidden="1"/>
+    <col min="183" max="183" outlineLevel="2" hidden="1"/>
+    <col min="184" max="184" outlineLevel="2" hidden="1"/>
+    <col min="185" max="185" outlineLevel="2" hidden="1"/>
+    <col min="186" max="186" outlineLevel="2" hidden="1"/>
+    <col min="187" max="187" outlineLevel="2" hidden="1"/>
+    <col min="188" max="188" outlineLevel="2" hidden="1"/>
+    <col min="189" max="189" outlineLevel="2" hidden="1"/>
     <col min="19" max="19" width="6.71" hidden="0" customWidth="1"/>
+    <col min="190" max="190" outlineLevel="2" hidden="1"/>
+    <col min="191" max="191" outlineLevel="2" hidden="1"/>
+    <col min="192" max="192" outlineLevel="2" hidden="1"/>
+    <col min="193" max="193" outlineLevel="2" hidden="1"/>
+    <col min="194" max="194" outlineLevel="2" hidden="1"/>
+    <col min="195" max="195" outlineLevel="2" hidden="1"/>
+    <col min="196" max="196" outlineLevel="2" hidden="1"/>
+    <col min="197" max="197" outlineLevel="2" hidden="1"/>
+    <col min="198" max="198" outlineLevel="2" hidden="1"/>
     <col min="20" max="20" width="6.71" hidden="0" customWidth="1"/>
     <col min="21" max="21" width="6.71" hidden="0" customWidth="1"/>
     <col min="22" max="22" width="6.71" hidden="0" customWidth="1"/>
+    <col min="225" max="225" outlineLevel="2" hidden="1"/>
+    <col min="226" max="226" outlineLevel="2" hidden="1"/>
+    <col min="227" max="227" outlineLevel="2" hidden="1"/>
+    <col min="228" max="228" outlineLevel="2" hidden="1"/>
+    <col min="229" max="229" outlineLevel="2" hidden="1"/>
     <col min="23" max="23" width="6.71" hidden="0" customWidth="1"/>
+    <col min="230" max="230" outlineLevel="2" hidden="1"/>
+    <col min="231" max="231" outlineLevel="2" hidden="1"/>
+    <col min="232" max="232" outlineLevel="2" hidden="1"/>
+    <col min="233" max="233" outlineLevel="2" hidden="1"/>
+    <col min="234" max="234" outlineLevel="2" hidden="1"/>
+    <col min="235" max="235" outlineLevel="2" hidden="1"/>
+    <col min="236" max="236" outlineLevel="2" hidden="1"/>
+    <col min="237" max="237" outlineLevel="2" hidden="1"/>
     <col min="24" max="24" width="6.71" hidden="0" customWidth="1"/>
     <col min="25" max="25" width="6.71" hidden="0" customWidth="1"/>
+    <col min="251" max="251" outlineLevel="2" hidden="1"/>
+    <col min="252" max="252" outlineLevel="2" hidden="1"/>
+    <col min="253" max="253" outlineLevel="2" hidden="1"/>
+    <col min="254" max="254" outlineLevel="2" hidden="1"/>
+    <col min="255" max="255" outlineLevel="2" hidden="1"/>
+    <col min="256" max="256" outlineLevel="2" hidden="1"/>
+    <col min="257" max="257" outlineLevel="2" hidden="1"/>
+    <col min="258" max="258" outlineLevel="2" hidden="1"/>
+    <col min="259" max="259" outlineLevel="2" hidden="1"/>
     <col min="26" max="26" width="6.71" hidden="0" customWidth="1"/>
+    <col min="260" max="260" outlineLevel="2" hidden="1"/>
+    <col min="261" max="261" outlineLevel="2" hidden="1"/>
+    <col min="262" max="262" outlineLevel="2" hidden="1"/>
+    <col min="263" max="263" outlineLevel="2" hidden="1"/>
     <col min="27" max="27" width="6.71" hidden="0" customWidth="1"/>
     <col min="28" max="28" width="6.71" hidden="0" customWidth="1"/>
     <col min="29" max="29" width="6.71" hidden="0" customWidth="1"/>
@@ -3942,114 +4047,6 @@
     <col min="97" max="97" width="6.71" hidden="0" customWidth="1"/>
     <col min="98" max="98" width="6.71" hidden="0" customWidth="1"/>
     <col min="99" max="99" width="6.71" hidden="0" customWidth="1"/>
-    <col min="100" max="100" width="6.71" hidden="0" customWidth="1"/>
-    <col min="101" max="101" width="6.71" hidden="0" customWidth="1"/>
-    <col min="102" max="102" width="6.71" hidden="0" customWidth="1"/>
-    <col min="103" max="103" width="6.71" hidden="0" customWidth="1"/>
-    <col min="104" max="104" width="6.71" hidden="0" customWidth="1"/>
-    <col min="105" max="105" width="6.71" hidden="0" customWidth="1"/>
-    <col min="106" max="106" width="6.71" hidden="0" customWidth="1"/>
-    <col min="107" max="107" width="6.71" hidden="0" customWidth="1"/>
-    <col min="108" max="108" width="6.71" hidden="0" customWidth="1"/>
-    <col min="109" max="109" width="6.71" hidden="0" customWidth="1"/>
-    <col min="110" max="110" width="6.71" hidden="0" customWidth="1"/>
-    <col min="111" max="111" width="6.71" hidden="0" customWidth="1"/>
-    <col min="112" max="112" width="6.71" hidden="0" customWidth="1"/>
-    <col min="113" max="113" width="6.71" hidden="0" customWidth="1"/>
-    <col min="114" max="114" width="6.71" hidden="0" customWidth="1"/>
-    <col min="115" max="115" width="6.71" hidden="0" customWidth="1"/>
-    <col min="116" max="116" width="6.71" hidden="0" customWidth="1"/>
-    <col min="117" max="117" width="6.71" hidden="0" customWidth="1"/>
-    <col min="118" max="118" width="6.71" hidden="0" customWidth="1"/>
-    <col min="119" max="119" width="6.71" hidden="0" customWidth="1"/>
-    <col min="120" max="120" width="6.71" hidden="0" customWidth="1"/>
-    <col min="121" max="121" width="6.71" hidden="0" customWidth="1"/>
-    <col min="122" max="122" width="6.71" hidden="0" customWidth="1"/>
-    <col min="123" max="123" width="6.71" hidden="0" customWidth="1"/>
-    <col min="124" max="124" width="6.71" hidden="0" customWidth="1"/>
-    <col min="125" max="125" width="6.71" hidden="0" customWidth="1"/>
-    <col min="126" max="126" width="6.71" hidden="0" customWidth="1"/>
-    <col min="127" max="127" width="6.71" hidden="0" customWidth="1"/>
-    <col min="128" max="128" width="6.71" hidden="0" customWidth="1"/>
-    <col min="129" max="129" width="6.71" hidden="0" customWidth="1"/>
-    <col min="130" max="130" width="6.71" hidden="0" customWidth="1"/>
-    <col min="131" max="131" width="6.71" hidden="0" customWidth="1"/>
-    <col min="132" max="132" width="6.71" hidden="0" customWidth="1"/>
-    <col min="133" max="133" width="6.71" hidden="0" customWidth="1"/>
-    <col min="134" max="134" width="6.71" hidden="0" customWidth="1"/>
-    <col min="135" max="135" width="6.71" hidden="0" customWidth="1"/>
-    <col min="136" max="136" width="6.71" hidden="0" customWidth="1"/>
-    <col min="137" max="137" width="6.71" hidden="0" customWidth="1"/>
-    <col min="138" max="138" width="6.71" hidden="0" customWidth="1"/>
-    <col min="139" max="139" width="6.71" hidden="0" customWidth="1"/>
-    <col min="140" max="140" width="6.71" hidden="0" customWidth="1"/>
-    <col min="141" max="141" width="6.71" hidden="0" customWidth="1"/>
-    <col min="142" max="142" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
-    <col min="143" max="143" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
-    <col min="144" max="144" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
-    <col min="145" max="145" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
-    <col min="146" max="146" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
-    <col min="147" max="147" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
-    <col min="148" max="148" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
-    <col min="149" max="149" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
-    <col min="150" max="150" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
-    <col min="151" max="151" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
-    <col min="152" max="152" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
-    <col min="153" max="153" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
-    <col min="154" max="154" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
-    <col min="155" max="155" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
-    <col min="156" max="156" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
-    <col min="157" max="157" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
-    <col min="158" max="158" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
-    <col min="159" max="159" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
-    <col min="160" max="160" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
-    <col min="161" max="161" width="6.71" hidden="0" customWidth="1"/>
-    <col min="162" max="162" width="6.71" hidden="0" customWidth="1"/>
-    <col min="180" max="180" outlineLevel="1" hidden="1"/>
-    <col min="181" max="181" outlineLevel="1" hidden="1"/>
-    <col min="182" max="182" outlineLevel="1" hidden="1"/>
-    <col min="183" max="183" outlineLevel="1" hidden="1"/>
-    <col min="184" max="184" outlineLevel="1" hidden="1"/>
-    <col min="185" max="185" outlineLevel="1" hidden="1"/>
-    <col min="186" max="186" outlineLevel="1" hidden="1"/>
-    <col min="187" max="187" outlineLevel="1" hidden="1"/>
-    <col min="188" max="188" outlineLevel="1" hidden="1"/>
-    <col min="189" max="189" outlineLevel="1" hidden="1"/>
-    <col min="190" max="190" outlineLevel="1" hidden="1"/>
-    <col min="191" max="191" outlineLevel="1" hidden="1"/>
-    <col min="192" max="192" outlineLevel="1" hidden="1"/>
-    <col min="193" max="193" outlineLevel="1" hidden="1"/>
-    <col min="194" max="194" outlineLevel="1" hidden="1"/>
-    <col min="195" max="195" outlineLevel="1" hidden="1"/>
-    <col min="196" max="196" outlineLevel="1" hidden="1"/>
-    <col min="197" max="197" outlineLevel="1" hidden="1"/>
-    <col min="198" max="198" outlineLevel="1" hidden="1"/>
-    <col min="225" max="225" outlineLevel="1" hidden="1"/>
-    <col min="226" max="226" outlineLevel="1" hidden="1"/>
-    <col min="227" max="227" outlineLevel="1" hidden="1"/>
-    <col min="228" max="228" outlineLevel="1" hidden="1"/>
-    <col min="229" max="229" outlineLevel="1" hidden="1"/>
-    <col min="230" max="230" outlineLevel="1" hidden="1"/>
-    <col min="231" max="231" outlineLevel="1" hidden="1"/>
-    <col min="232" max="232" outlineLevel="1" hidden="1"/>
-    <col min="233" max="233" outlineLevel="1" hidden="1"/>
-    <col min="234" max="234" outlineLevel="1" hidden="1"/>
-    <col min="235" max="235" outlineLevel="1" hidden="1"/>
-    <col min="236" max="236" outlineLevel="1" hidden="1"/>
-    <col min="237" max="237" outlineLevel="1" hidden="1"/>
-    <col min="251" max="251" outlineLevel="1" hidden="1"/>
-    <col min="252" max="252" outlineLevel="1" hidden="1"/>
-    <col min="253" max="253" outlineLevel="1" hidden="1"/>
-    <col min="254" max="254" outlineLevel="1" hidden="1"/>
-    <col min="255" max="255" outlineLevel="1" hidden="1"/>
-    <col min="256" max="256" outlineLevel="1" hidden="1"/>
-    <col min="257" max="257" outlineLevel="1" hidden="1"/>
-    <col min="258" max="258" outlineLevel="1" hidden="1"/>
-    <col min="259" max="259" outlineLevel="1" hidden="1"/>
-    <col min="260" max="260" outlineLevel="1" hidden="1"/>
-    <col min="261" max="261" outlineLevel="1" hidden="1"/>
-    <col min="262" max="262" outlineLevel="1" hidden="1"/>
-    <col min="263" max="263" outlineLevel="1" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="175" customHeight="1">
@@ -4321,970 +4318,970 @@
         <v>569</v>
       </c>
       <c r="CL1" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="CM1" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="CM1" s="7" t="s">
+      <c r="CN1" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="CN1" s="2" t="s">
+      <c r="CO1" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="CP1" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="CO1" s="2" t="s">
+      <c r="CQ1" s="8" t="s">
         <v>576</v>
       </c>
-      <c r="CP1" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="CQ1" s="8" t="s">
+      <c r="CR1" s="8" t="s">
         <v>578</v>
       </c>
-      <c r="CR1" s="8" t="s">
+      <c r="CS1" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="CS1" s="7" t="s">
+      <c r="CT1" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="CT1" s="7" t="s">
+      <c r="CU1" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="CU1" s="7" t="s">
+      <c r="CV1" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="CV1" s="7" t="s">
+      <c r="CW1" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="CW1" s="7" t="s">
+      <c r="CX1" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="CX1" s="7" t="s">
+      <c r="CY1" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="CY1" s="7" t="s">
+      <c r="CZ1" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="CZ1" s="7" t="s">
+      <c r="DA1" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="DA1" s="7" t="s">
+      <c r="DB1" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="DC1" s="7" t="s">
         <v>598</v>
       </c>
-      <c r="DB1" s="7" t="s">
-        <v>599</v>
-      </c>
-      <c r="DC1" s="7" t="s">
+      <c r="DD1" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="DD1" s="7" t="s">
+      <c r="DE1" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="DE1" s="7" t="s">
+      <c r="DF1" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="DF1" s="7" t="s">
+      <c r="DG1" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="DG1" s="7" t="s">
+      <c r="DH1" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="DH1" s="7" t="s">
+      <c r="DI1" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="DI1" s="7" t="s">
+      <c r="DJ1" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="DJ1" s="7" t="s">
+      <c r="DK1" s="8" t="s">
         <v>614</v>
       </c>
-      <c r="DK1" s="8" t="s">
+      <c r="DL1" s="8" t="s">
         <v>616</v>
       </c>
-      <c r="DL1" s="8" t="s">
+      <c r="DM1" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="DM1" s="7" t="s">
+      <c r="DN1" s="8" t="s">
         <v>620</v>
       </c>
-      <c r="DN1" s="8" t="s">
-        <v>622</v>
-      </c>
       <c r="DO1" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="DP1" s="8" t="s">
         <v>623</v>
       </c>
-      <c r="DP1" s="8" t="s">
+      <c r="DQ1" s="8" t="s">
         <v>625</v>
       </c>
-      <c r="DQ1" s="8" t="s">
+      <c r="DR1" s="7" t="s">
         <v>627</v>
       </c>
-      <c r="DR1" s="7" t="s">
+      <c r="DS1" s="9" t="s">
         <v>629</v>
       </c>
-      <c r="DS1" s="9" t="s">
+      <c r="DT1" s="9" t="s">
         <v>631</v>
       </c>
-      <c r="DT1" s="9" t="s">
-        <v>633</v>
-      </c>
       <c r="DU1" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="DV1" s="9" t="s">
         <v>634</v>
       </c>
-      <c r="DV1" s="9" t="s">
+      <c r="DW1" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="DX1" s="9" t="s">
         <v>636</v>
       </c>
-      <c r="DW1" s="9" t="s">
-        <v>637</v>
-      </c>
-      <c r="DX1" s="9" t="s">
+      <c r="DY1" s="9" t="s">
         <v>638</v>
       </c>
-      <c r="DY1" s="9" t="s">
-        <v>640</v>
-      </c>
       <c r="DZ1" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="EA1" s="9" t="s">
         <v>641</v>
       </c>
-      <c r="EA1" s="9" t="s">
+      <c r="EB1" s="9" t="s">
         <v>643</v>
       </c>
-      <c r="EB1" s="9" t="s">
-        <v>645</v>
-      </c>
       <c r="EC1" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="ED1" s="9" t="s">
         <v>646</v>
       </c>
-      <c r="ED1" s="9" t="s">
+      <c r="EE1" s="9" t="s">
         <v>648</v>
       </c>
-      <c r="EE1" s="9" t="s">
+      <c r="EF1" s="9" t="s">
         <v>650</v>
       </c>
-      <c r="EF1" s="9" t="s">
+      <c r="EG1" s="9" t="s">
         <v>652</v>
       </c>
-      <c r="EG1" s="9" t="s">
+      <c r="EH1" s="9" t="s">
         <v>654</v>
       </c>
-      <c r="EH1" s="9" t="s">
-        <v>656</v>
-      </c>
       <c r="EI1" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="EJ1" s="9" t="s">
         <v>657</v>
       </c>
-      <c r="EJ1" s="9" t="s">
-        <v>659</v>
-      </c>
       <c r="EK1" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="EL1" s="10" t="s">
         <v>660</v>
       </c>
-      <c r="EL1" s="10" t="s">
+      <c r="EM1" s="10" t="s">
         <v>662</v>
       </c>
-      <c r="EM1" s="10" t="s">
+      <c r="EN1" s="10" t="s">
         <v>664</v>
       </c>
-      <c r="EN1" s="10" t="s">
+      <c r="EO1" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="EP1" s="10" t="s">
         <v>666</v>
       </c>
-      <c r="EO1" s="10" t="s">
+      <c r="EQ1" s="10" t="s">
         <v>667</v>
       </c>
-      <c r="EP1" s="10" t="s">
+      <c r="ER1" s="10" t="s">
         <v>668</v>
       </c>
-      <c r="EQ1" s="10" t="s">
+      <c r="ES1" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="ER1" s="10" t="s">
-        <v>670</v>
-      </c>
-      <c r="ES1" s="10" t="s">
+      <c r="ET1" s="10" t="s">
         <v>671</v>
       </c>
-      <c r="ET1" s="10" t="s">
+      <c r="EU1" s="10" t="s">
+        <v>672</v>
+      </c>
+      <c r="EV1" s="10" t="s">
         <v>673</v>
       </c>
-      <c r="EU1" s="10" t="s">
+      <c r="EW1" s="10" t="s">
         <v>674</v>
       </c>
-      <c r="EV1" s="10" t="s">
+      <c r="EX1" s="10" t="s">
         <v>675</v>
       </c>
-      <c r="EW1" s="10" t="s">
+      <c r="EY1" s="10" t="s">
         <v>676</v>
       </c>
-      <c r="EX1" s="10" t="s">
+      <c r="EZ1" s="10" t="s">
         <v>677</v>
       </c>
-      <c r="EY1" s="10" t="s">
-        <v>678</v>
-      </c>
-      <c r="EZ1" s="10" t="s">
+      <c r="FA1" s="10" t="s">
         <v>679</v>
       </c>
-      <c r="FA1" s="10" t="s">
+      <c r="FB1" s="10" t="s">
         <v>681</v>
       </c>
-      <c r="FB1" s="10" t="s">
+      <c r="FC1" s="10" t="s">
         <v>683</v>
       </c>
-      <c r="FC1" s="10" t="s">
+      <c r="FD1" s="10" t="s">
         <v>685</v>
       </c>
-      <c r="FD1" s="10" t="s">
-        <v>687</v>
-      </c>
       <c r="FE1" s="11" t="s">
+        <v>686</v>
+      </c>
+      <c r="FF1" s="11" t="s">
+        <v>686</v>
+      </c>
+      <c r="FG1" s="11" t="s">
         <v>688</v>
       </c>
-      <c r="FF1" s="11" t="s">
-        <v>688</v>
-      </c>
-      <c r="FG1" s="11" t="s">
+      <c r="FH1" s="11" t="s">
         <v>690</v>
       </c>
-      <c r="FH1" s="11" t="s">
+      <c r="FI1" s="11" t="s">
+        <v>691</v>
+      </c>
+      <c r="FJ1" s="11" t="s">
         <v>692</v>
       </c>
-      <c r="FI1" s="11" t="s">
-        <v>693</v>
-      </c>
-      <c r="FJ1" s="11" t="s">
+      <c r="FK1" s="11" t="s">
         <v>694</v>
       </c>
-      <c r="FK1" s="11" t="s">
+      <c r="FL1" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="FM1" s="11" t="s">
         <v>696</v>
       </c>
-      <c r="FL1" s="11" t="s">
-        <v>697</v>
-      </c>
-      <c r="FM1" s="11" t="s">
+      <c r="FN1" s="11" t="s">
         <v>698</v>
       </c>
-      <c r="FN1" s="11" t="s">
+      <c r="FO1" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="FP1" s="11" t="s">
         <v>700</v>
       </c>
-      <c r="FO1" s="11" t="s">
-        <v>701</v>
-      </c>
-      <c r="FP1" s="11" t="s">
+      <c r="FQ1" s="11" t="s">
         <v>702</v>
       </c>
-      <c r="FQ1" s="11" t="s">
+      <c r="FR1" s="11" t="s">
         <v>704</v>
       </c>
-      <c r="FR1" s="11" t="s">
-        <v>706</v>
-      </c>
       <c r="FS1" s="11" t="s">
+        <v>705</v>
+      </c>
+      <c r="FT1" s="11" t="s">
         <v>707</v>
       </c>
-      <c r="FT1" s="11" t="s">
+      <c r="FU1" s="11" t="s">
+        <v>708</v>
+      </c>
+      <c r="FV1" s="11" t="s">
         <v>709</v>
       </c>
-      <c r="FU1" s="11" t="s">
-        <v>710</v>
-      </c>
-      <c r="FV1" s="11" t="s">
+      <c r="FW1" s="11" t="s">
         <v>711</v>
       </c>
-      <c r="FW1" s="11" t="s">
+      <c r="FX1" s="7" t="s">
         <v>713</v>
       </c>
-      <c r="FX1" s="7" t="s">
-        <v>715</v>
-      </c>
       <c r="FY1" s="7" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="FZ1" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="GA1" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="GB1" s="7" t="s">
         <v>718</v>
       </c>
-      <c r="GA1" s="7" t="s">
+      <c r="GC1" s="7" t="s">
         <v>719</v>
       </c>
-      <c r="GB1" s="7" t="s">
+      <c r="GD1" s="7" t="s">
         <v>720</v>
       </c>
-      <c r="GC1" s="7" t="s">
+      <c r="GE1" s="7" t="s">
         <v>721</v>
       </c>
-      <c r="GD1" s="7" t="s">
+      <c r="GF1" s="7" t="s">
         <v>722</v>
       </c>
-      <c r="GE1" s="7" t="s">
-        <v>723</v>
-      </c>
-      <c r="GF1" s="7" t="s">
+      <c r="GG1" s="7" t="s">
         <v>724</v>
       </c>
-      <c r="GG1" s="7" t="s">
+      <c r="GH1" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="GI1" s="7" t="s">
         <v>726</v>
       </c>
-      <c r="GH1" s="7" t="s">
+      <c r="GJ1" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="GI1" s="7" t="s">
+      <c r="GK1" s="7" t="s">
         <v>728</v>
       </c>
-      <c r="GJ1" s="7" t="s">
+      <c r="GL1" s="7" t="s">
         <v>729</v>
       </c>
-      <c r="GK1" s="7" t="s">
+      <c r="GM1" s="7" t="s">
         <v>730</v>
       </c>
-      <c r="GL1" s="7" t="s">
+      <c r="GN1" s="7" t="s">
         <v>731</v>
       </c>
-      <c r="GM1" s="7" t="s">
-        <v>732</v>
-      </c>
-      <c r="GN1" s="7" t="s">
+      <c r="GO1" s="7" t="s">
         <v>733</v>
       </c>
-      <c r="GO1" s="7" t="s">
-        <v>735</v>
-      </c>
       <c r="GP1" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="GQ1" s="12" t="s">
         <v>736</v>
       </c>
-      <c r="GQ1" s="12" t="s">
+      <c r="GR1" s="12" t="s">
         <v>738</v>
       </c>
-      <c r="GR1" s="12" t="s">
+      <c r="GS1" s="12" t="s">
         <v>740</v>
       </c>
-      <c r="GS1" s="12" t="s">
+      <c r="GT1" s="12" t="s">
         <v>742</v>
       </c>
-      <c r="GT1" s="12" t="s">
+      <c r="GU1" s="12" t="s">
         <v>744</v>
       </c>
-      <c r="GU1" s="12" t="s">
+      <c r="GV1" s="12" t="s">
         <v>746</v>
       </c>
-      <c r="GV1" s="12" t="s">
+      <c r="GW1" s="12" t="s">
         <v>748</v>
       </c>
-      <c r="GW1" s="12" t="s">
+      <c r="GX1" s="12" t="s">
         <v>750</v>
       </c>
-      <c r="GX1" s="12" t="s">
-        <v>752</v>
-      </c>
       <c r="GY1" s="12" t="s">
+        <v>751</v>
+      </c>
+      <c r="GZ1" s="12" t="s">
         <v>753</v>
       </c>
-      <c r="GZ1" s="12" t="s">
+      <c r="HA1" s="12" t="s">
         <v>755</v>
       </c>
-      <c r="HA1" s="12" t="s">
+      <c r="HB1" s="12" t="s">
         <v>757</v>
       </c>
-      <c r="HB1" s="12" t="s">
+      <c r="HC1" s="12" t="s">
         <v>759</v>
       </c>
-      <c r="HC1" s="12" t="s">
-        <v>761</v>
-      </c>
       <c r="HD1" s="13" t="s">
+        <v>760</v>
+      </c>
+      <c r="HE1" s="13" t="s">
         <v>762</v>
       </c>
-      <c r="HE1" s="13" t="s">
+      <c r="HF1" s="13" t="s">
+        <v>763</v>
+      </c>
+      <c r="HG1" s="13" t="s">
         <v>764</v>
       </c>
-      <c r="HF1" s="13" t="s">
+      <c r="HH1" s="13" t="s">
         <v>765</v>
       </c>
-      <c r="HG1" s="13" t="s">
+      <c r="HI1" s="13" t="s">
         <v>766</v>
       </c>
-      <c r="HH1" s="13" t="s">
-        <v>767</v>
-      </c>
-      <c r="HI1" s="13" t="s">
+      <c r="HJ1" s="13" t="s">
         <v>768</v>
       </c>
-      <c r="HJ1" s="13" t="s">
+      <c r="HK1" s="13" t="s">
+        <v>769</v>
+      </c>
+      <c r="HL1" s="13" t="s">
         <v>770</v>
       </c>
-      <c r="HK1" s="13" t="s">
+      <c r="HM1" s="13" t="s">
         <v>771</v>
       </c>
-      <c r="HL1" s="13" t="s">
-        <v>772</v>
-      </c>
-      <c r="HM1" s="13" t="s">
+      <c r="HN1" s="13" t="s">
         <v>773</v>
       </c>
-      <c r="HN1" s="13" t="s">
-        <v>775</v>
-      </c>
       <c r="HO1" s="13" t="s">
+        <v>774</v>
+      </c>
+      <c r="HP1" s="13" t="s">
         <v>776</v>
       </c>
-      <c r="HP1" s="13" t="s">
+      <c r="HQ1" s="14" t="s">
         <v>778</v>
       </c>
-      <c r="HQ1" s="14" t="s">
+      <c r="HR1" s="14" t="s">
         <v>780</v>
       </c>
-      <c r="HR1" s="14" t="s">
+      <c r="HS1" s="14" t="s">
         <v>782</v>
       </c>
-      <c r="HS1" s="14" t="s">
+      <c r="HT1" s="14" t="s">
         <v>784</v>
       </c>
-      <c r="HT1" s="14" t="s">
+      <c r="HU1" s="14" t="s">
         <v>786</v>
       </c>
-      <c r="HU1" s="14" t="s">
+      <c r="HV1" s="14" t="s">
         <v>788</v>
       </c>
-      <c r="HV1" s="14" t="s">
-        <v>790</v>
-      </c>
       <c r="HW1" s="14" t="s">
+        <v>789</v>
+      </c>
+      <c r="HX1" s="14" t="s">
         <v>791</v>
       </c>
-      <c r="HX1" s="14" t="s">
+      <c r="HY1" s="14" t="s">
         <v>793</v>
       </c>
-      <c r="HY1" s="14" t="s">
-        <v>795</v>
-      </c>
       <c r="HZ1" s="14" t="s">
+        <v>794</v>
+      </c>
+      <c r="IA1" s="14" t="s">
         <v>796</v>
       </c>
-      <c r="IA1" s="14" t="s">
+      <c r="IB1" s="14" t="s">
         <v>798</v>
       </c>
-      <c r="IB1" s="14" t="s">
+      <c r="IC1" s="14" t="s">
+        <v>799</v>
+      </c>
+      <c r="ID1" s="15" t="s">
         <v>800</v>
       </c>
-      <c r="IC1" s="14" t="s">
-        <v>801</v>
-      </c>
-      <c r="ID1" s="15" t="s">
+      <c r="IE1" s="15" t="s">
         <v>802</v>
       </c>
-      <c r="IE1" s="15" t="s">
+      <c r="IF1" s="15" t="s">
+        <v>803</v>
+      </c>
+      <c r="IG1" s="15" t="s">
         <v>804</v>
       </c>
-      <c r="IF1" s="15" t="s">
+      <c r="IH1" s="15" t="s">
         <v>805</v>
       </c>
-      <c r="IG1" s="15" t="s">
+      <c r="II1" s="15" t="s">
         <v>806</v>
       </c>
-      <c r="IH1" s="15" t="s">
-        <v>807</v>
-      </c>
-      <c r="II1" s="15" t="s">
+      <c r="IJ1" s="15" t="s">
         <v>808</v>
       </c>
-      <c r="IJ1" s="15" t="s">
+      <c r="IK1" s="15" t="s">
         <v>810</v>
       </c>
-      <c r="IK1" s="15" t="s">
-        <v>812</v>
-      </c>
       <c r="IL1" s="15" t="s">
+        <v>811</v>
+      </c>
+      <c r="IM1" s="15" t="s">
         <v>813</v>
       </c>
-      <c r="IM1" s="15" t="s">
+      <c r="IN1" s="15" t="s">
         <v>815</v>
       </c>
-      <c r="IN1" s="15" t="s">
+      <c r="IO1" s="15" t="s">
+        <v>816</v>
+      </c>
+      <c r="IP1" s="15" t="s">
         <v>817</v>
       </c>
-      <c r="IO1" s="15" t="s">
-        <v>818</v>
-      </c>
-      <c r="IP1" s="15" t="s">
+      <c r="IQ1" s="14" t="s">
         <v>819</v>
       </c>
-      <c r="IQ1" s="14" t="s">
+      <c r="IR1" s="14" t="s">
         <v>821</v>
       </c>
-      <c r="IR1" s="14" t="s">
+      <c r="IS1" s="14" t="s">
         <v>823</v>
       </c>
-      <c r="IS1" s="14" t="s">
+      <c r="IT1" s="14" t="s">
         <v>825</v>
       </c>
-      <c r="IT1" s="14" t="s">
+      <c r="IU1" s="14" t="s">
         <v>827</v>
       </c>
-      <c r="IU1" s="14" t="s">
+      <c r="IV1" s="14" t="s">
         <v>829</v>
       </c>
-      <c r="IV1" s="14" t="s">
+      <c r="IW1" s="14" t="s">
         <v>831</v>
       </c>
-      <c r="IW1" s="14" t="s">
+      <c r="IX1" s="14" t="s">
         <v>833</v>
       </c>
-      <c r="IX1" s="14" t="s">
+      <c r="IY1" s="14" t="s">
         <v>835</v>
       </c>
-      <c r="IY1" s="14" t="s">
+      <c r="IZ1" s="14" t="s">
         <v>837</v>
       </c>
-      <c r="IZ1" s="14" t="s">
+      <c r="JA1" s="14" t="s">
         <v>839</v>
       </c>
-      <c r="JA1" s="14" t="s">
+      <c r="JB1" s="14" t="s">
         <v>841</v>
       </c>
-      <c r="JB1" s="14" t="s">
+      <c r="JC1" s="14" t="s">
         <v>843</v>
       </c>
-      <c r="JC1" s="14" t="s">
+      <c r="JD1" s="16" t="s">
         <v>844</v>
       </c>
-      <c r="JD1" s="16" t="s">
+      <c r="JE1" s="16" t="s">
         <v>845</v>
       </c>
-      <c r="JE1" s="16" t="s">
+      <c r="JF1" s="16" t="s">
         <v>846</v>
       </c>
-      <c r="JF1" s="16" t="s">
+      <c r="JG1" s="16" t="s">
         <v>847</v>
       </c>
-      <c r="JG1" s="16" t="s">
+      <c r="JH1" s="16" t="s">
         <v>848</v>
       </c>
-      <c r="JH1" s="16" t="s">
-        <v>849</v>
-      </c>
       <c r="JI1" s="16" t="s">
+        <v>850</v>
+      </c>
+      <c r="JJ1" s="16" t="s">
         <v>851</v>
       </c>
-      <c r="JJ1" s="16" t="s">
-        <v>852</v>
-      </c>
       <c r="JK1" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="JL1" s="16" t="s">
         <v>854</v>
       </c>
-      <c r="JL1" s="16" t="s">
+      <c r="JM1" s="16" t="s">
         <v>855</v>
       </c>
-      <c r="JM1" s="16" t="s">
+      <c r="JN1" s="16" t="s">
         <v>856</v>
       </c>
-      <c r="JN1" s="16" t="s">
+      <c r="JO1" s="16" t="s">
         <v>857</v>
       </c>
-      <c r="JO1" s="16" t="s">
+      <c r="JP1" s="16" t="s">
         <v>858</v>
       </c>
-      <c r="JP1" s="16" t="s">
+      <c r="JQ1" s="16" t="s">
         <v>859</v>
       </c>
-      <c r="JQ1" s="16" t="s">
+      <c r="JR1" s="16" t="s">
         <v>860</v>
       </c>
-      <c r="JR1" s="16" t="s">
+      <c r="JS1" s="16" t="s">
         <v>861</v>
       </c>
-      <c r="JS1" s="16" t="s">
-        <v>862</v>
-      </c>
       <c r="JT1" s="16" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="JU1" s="16" t="s">
+        <v>865</v>
+      </c>
+      <c r="JV1" s="16" t="s">
         <v>866</v>
       </c>
-      <c r="JV1" s="16" t="s">
+      <c r="JW1" s="16" t="s">
         <v>867</v>
       </c>
-      <c r="JW1" s="16" t="s">
+      <c r="JX1" s="16" t="s">
         <v>868</v>
       </c>
-      <c r="JX1" s="16" t="s">
+      <c r="JY1" s="16" t="s">
         <v>869</v>
       </c>
-      <c r="JY1" s="16" t="s">
+      <c r="JZ1" s="16" t="s">
         <v>870</v>
       </c>
-      <c r="JZ1" s="16" t="s">
-        <v>871</v>
-      </c>
       <c r="KA1" s="16" t="s">
+        <v>872</v>
+      </c>
+      <c r="KB1" s="16" t="s">
         <v>873</v>
       </c>
-      <c r="KB1" s="16" t="s">
+      <c r="KC1" s="16" t="s">
         <v>874</v>
       </c>
-      <c r="KC1" s="16" t="s">
-        <v>875</v>
-      </c>
       <c r="KD1" s="17" t="s">
+        <v>876</v>
+      </c>
+      <c r="KE1" s="17" t="s">
         <v>877</v>
       </c>
-      <c r="KE1" s="17" t="s">
+      <c r="KF1" s="17" t="s">
         <v>878</v>
       </c>
-      <c r="KF1" s="17" t="s">
+      <c r="KG1" s="17" t="s">
         <v>879</v>
       </c>
-      <c r="KG1" s="17" t="s">
+      <c r="KH1" s="17" t="s">
         <v>880</v>
       </c>
-      <c r="KH1" s="17" t="s">
+      <c r="KI1" s="17" t="s">
         <v>881</v>
       </c>
-      <c r="KI1" s="17" t="s">
+      <c r="KJ1" s="17" t="s">
         <v>882</v>
       </c>
-      <c r="KJ1" s="17" t="s">
+      <c r="KK1" s="17" t="s">
         <v>883</v>
       </c>
-      <c r="KK1" s="17" t="s">
+      <c r="KL1" s="17" t="s">
         <v>884</v>
       </c>
-      <c r="KL1" s="17" t="s">
+      <c r="KM1" s="17" t="s">
         <v>885</v>
       </c>
-      <c r="KM1" s="17" t="s">
+      <c r="KN1" s="17" t="s">
         <v>886</v>
       </c>
-      <c r="KN1" s="17" t="s">
+      <c r="KO1" s="17" t="s">
         <v>887</v>
       </c>
-      <c r="KO1" s="17" t="s">
+      <c r="KP1" s="17" t="s">
         <v>888</v>
       </c>
-      <c r="KP1" s="17" t="s">
+      <c r="KQ1" s="17" t="s">
         <v>889</v>
       </c>
-      <c r="KQ1" s="17" t="s">
+      <c r="KR1" s="17" t="s">
         <v>890</v>
       </c>
-      <c r="KR1" s="17" t="s">
+      <c r="KS1" s="17" t="s">
         <v>891</v>
       </c>
-      <c r="KS1" s="17" t="s">
+      <c r="KT1" s="17" t="s">
         <v>892</v>
       </c>
-      <c r="KT1" s="17" t="s">
+      <c r="KU1" s="17" t="s">
         <v>893</v>
       </c>
-      <c r="KU1" s="17" t="s">
+      <c r="KV1" s="17" t="s">
         <v>894</v>
       </c>
-      <c r="KV1" s="17" t="s">
+      <c r="KW1" s="17" t="s">
         <v>895</v>
       </c>
-      <c r="KW1" s="17" t="s">
+      <c r="KX1" s="17" t="s">
         <v>896</v>
       </c>
-      <c r="KX1" s="17" t="s">
+      <c r="KY1" s="17" t="s">
         <v>897</v>
       </c>
-      <c r="KY1" s="17" t="s">
+      <c r="KZ1" s="17" t="s">
         <v>898</v>
       </c>
-      <c r="KZ1" s="17" t="s">
-        <v>899</v>
-      </c>
       <c r="LA1" s="17" t="s">
+        <v>900</v>
+      </c>
+      <c r="LB1" s="17" t="s">
         <v>901</v>
       </c>
-      <c r="LB1" s="17" t="s">
+      <c r="LC1" s="17" t="s">
         <v>902</v>
       </c>
-      <c r="LC1" s="17" t="s">
-        <v>903</v>
-      </c>
       <c r="LD1" s="7" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="LE1" s="7" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="LF1" s="7" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="LG1" s="7" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="LH1" s="7" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="LI1" s="7" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="LJ1" s="7" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="LK1" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="LL1" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="LM1" s="7" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="LN1" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="LO1" s="7" t="s">
         <v>925</v>
       </c>
-      <c r="LO1" s="7" t="s">
-        <v>926</v>
-      </c>
       <c r="LP1" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="LQ1" s="7" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="LR1" s="7" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="LS1" s="7" t="s">
+        <v>933</v>
+      </c>
+      <c r="LT1" s="7" t="s">
         <v>934</v>
       </c>
-      <c r="LT1" s="7" t="s">
-        <v>935</v>
-      </c>
       <c r="LU1" s="7" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="LV1" s="7" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="LW1" s="7" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="LX1" s="7" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="LY1" s="8" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="LZ1" s="8" t="s">
+        <v>946</v>
+      </c>
+      <c r="MA1" s="8" t="s">
         <v>947</v>
       </c>
-      <c r="MA1" s="8" t="s">
+      <c r="MB1" s="8" t="s">
         <v>948</v>
       </c>
-      <c r="MB1" s="8" t="s">
+      <c r="MC1" s="8" t="s">
         <v>949</v>
       </c>
-      <c r="MC1" s="8" t="s">
+      <c r="MD1" s="8" t="s">
         <v>950</v>
       </c>
-      <c r="MD1" s="8" t="s">
+      <c r="ME1" s="8" t="s">
         <v>951</v>
       </c>
-      <c r="ME1" s="8" t="s">
+      <c r="MF1" s="8" t="s">
         <v>952</v>
       </c>
-      <c r="MF1" s="8" t="s">
-        <v>953</v>
-      </c>
       <c r="MG1" s="7" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="MH1" s="7" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="MI1" s="7" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="MJ1" s="7" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="MK1" s="7" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="ML1" s="7" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="MM1" s="7" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="MN1" s="7" t="s">
+        <v>968</v>
+      </c>
+      <c r="MO1" s="7" t="s">
         <v>969</v>
       </c>
-      <c r="MO1" s="7" t="s">
+      <c r="MP1" s="7" t="s">
         <v>970</v>
       </c>
-      <c r="MP1" s="7" t="s">
+      <c r="MQ1" s="7" t="s">
         <v>971</v>
       </c>
-      <c r="MQ1" s="7" t="s">
+      <c r="MR1" s="7" t="s">
         <v>972</v>
       </c>
-      <c r="MR1" s="7" t="s">
+      <c r="MS1" s="7" t="s">
         <v>973</v>
       </c>
-      <c r="MS1" s="7" t="s">
+      <c r="MT1" s="7" t="s">
         <v>974</v>
       </c>
-      <c r="MT1" s="7" t="s">
-        <v>975</v>
-      </c>
       <c r="MU1" s="7" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="MV1" s="18" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="MW1" s="18" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="MX1" s="18" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="MY1" s="18" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="MZ1" s="18" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="NA1" s="18" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="NB1" s="18" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="NC1" s="18" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="ND1" s="18" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="NE1" s="18" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="NF1" s="18" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="NG1" s="18" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="NH1" s="18" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="NI1" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="NJ1" s="16" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="NK1" s="16" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="NL1" s="16" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="NM1" s="16" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="NN1" s="16" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="NO1" s="16" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="NP1" s="16" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="NQ1" s="16" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="NR1" s="16" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="NS1" s="16" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="NT1" s="16" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="NU1" s="16" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="NV1" s="18" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="NW1" s="18" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="NX1" s="18" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="NY1" s="18" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="NZ1" s="18" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="OA1" s="18" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="OB1" s="18" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="OC1" s="18" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="OD1" s="18" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="OE1" s="18" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="OF1" s="18" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="OG1" s="18" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="OH1" s="18" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="OI1" s="16" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="OJ1" s="16" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="OK1" s="16" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="OL1" s="16" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="OM1" s="16" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="ON1" s="16" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="OO1" s="16" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="OP1" s="16" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="OQ1" s="16" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="OR1" s="16" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="OS1" s="16" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="OT1" s="16" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="OU1" s="16" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="2">
@@ -5883,7 +5880,7 @@
       <c r="GS2" s="20" t="n">
         <v>6.0626251491715</v>
       </c>
-      <c r="GT2" s="21" t="n">
+      <c r="GT2" s="22" t="n">
         <v>0.0948978776611846</v>
       </c>
       <c r="GU2" s="19" t="n">
@@ -5961,7 +5958,7 @@
       <c r="HS2" s="20" t="n">
         <v>7.84643888222791</v>
       </c>
-      <c r="HT2" s="21" t="n">
+      <c r="HT2" s="22" t="n">
         <v>0.191072582883461</v>
       </c>
       <c r="HU2" s="19" t="n">
@@ -6039,7 +6036,7 @@
       <c r="IS2" s="20" t="n">
         <v>5.69805594148887</v>
       </c>
-      <c r="IT2" s="21" t="n">
+      <c r="IT2" s="22" t="n">
         <v>0.166176090392659</v>
       </c>
       <c r="IU2" s="19" t="n">
@@ -6066,7 +6063,7 @@
       <c r="JB2" s="19" t="n">
         <v>1330.03106450267</v>
       </c>
-      <c r="JC2" s="20" t="n">
+      <c r="JC2" s="21" t="n">
         <v>0.599462022746048</v>
       </c>
       <c r="JD2" s="26" t="n">
@@ -7118,7 +7115,7 @@
       <c r="GS3" s="20" t="n">
         <v>6.01782029176854</v>
       </c>
-      <c r="GT3" s="21" t="n">
+      <c r="GT3" s="22" t="n">
         <v>0.0969390295032073</v>
       </c>
       <c r="GU3" s="19" t="n">
@@ -7196,7 +7193,7 @@
       <c r="HS3" s="20" t="n">
         <v>7.84643888222791</v>
       </c>
-      <c r="HT3" s="21" t="n">
+      <c r="HT3" s="22" t="n">
         <v>0.191072582883461</v>
       </c>
       <c r="HU3" s="19" t="n">
@@ -7274,7 +7271,7 @@
       <c r="IS3" s="20" t="n">
         <v>5.09774165392955</v>
       </c>
-      <c r="IT3" s="21" t="n">
+      <c r="IT3" s="22" t="n">
         <v>0.11531842505104</v>
       </c>
       <c r="IU3" s="19" t="n">
@@ -7301,7 +7298,7 @@
       <c r="JB3" s="19" t="n">
         <v>22916.6608573397</v>
       </c>
-      <c r="JC3" s="20" t="n">
+      <c r="JC3" s="21" t="n">
         <v>4.10750030652865</v>
       </c>
       <c r="JD3" s="26" t="n">
@@ -8353,7 +8350,7 @@
       <c r="GS4" s="20" t="n">
         <v>8.71466771129669</v>
       </c>
-      <c r="GT4" s="21" t="n">
+      <c r="GT4" s="22" t="n">
         <v>0.174650088504535</v>
       </c>
       <c r="GU4" s="19" t="n">
@@ -8431,7 +8428,7 @@
       <c r="HS4" s="20" t="n">
         <v>7.84643888222791</v>
       </c>
-      <c r="HT4" s="21" t="n">
+      <c r="HT4" s="22" t="n">
         <v>0.191072582883461</v>
       </c>
       <c r="HU4" s="19" t="n">
@@ -8509,7 +8506,7 @@
       <c r="IS4" s="20" t="n">
         <v>10.4597423385976</v>
       </c>
-      <c r="IT4" s="21" t="n">
+      <c r="IT4" s="22" t="n">
         <v>0.245397829994846</v>
       </c>
       <c r="IU4" s="19" t="n">
@@ -8536,7 +8533,7 @@
       <c r="JB4" s="19" t="n">
         <v>30588.2332109614</v>
       </c>
-      <c r="JC4" s="20" t="n">
+      <c r="JC4" s="21" t="n">
         <v>0.371113634042385</v>
       </c>
       <c r="JD4" s="26" t="n">
@@ -9588,7 +9585,7 @@
       <c r="GS5" s="20" t="n">
         <v>11.5994838723024</v>
       </c>
-      <c r="GT5" s="21" t="n">
+      <c r="GT5" s="22" t="n">
         <v>0.428456133180005</v>
       </c>
       <c r="GU5" s="19" t="n">
@@ -9666,7 +9663,7 @@
       <c r="HS5" s="20" t="n">
         <v>7.84643888222791</v>
       </c>
-      <c r="HT5" s="21" t="n">
+      <c r="HT5" s="22" t="n">
         <v>0.191072582883461</v>
       </c>
       <c r="HU5" s="19" t="n">
@@ -9744,7 +9741,7 @@
       <c r="IS5" s="20" t="n">
         <v>9.14594000741275</v>
       </c>
-      <c r="IT5" s="21" t="n">
+      <c r="IT5" s="22" t="n">
         <v>0.285745557466617</v>
       </c>
       <c r="IU5" s="19" t="n">
@@ -9771,7 +9768,7 @@
       <c r="JB5" s="19" t="n">
         <v>10997.8469947094</v>
       </c>
-      <c r="JC5" s="20" t="n">
+      <c r="JC5" s="21" t="n">
         <v>0.500180972442577</v>
       </c>
       <c r="JD5" s="26" t="n">
@@ -10823,7 +10820,7 @@
       <c r="GS6" s="20" t="n">
         <v>13.9411467901181</v>
       </c>
-      <c r="GT6" s="21" t="n">
+      <c r="GT6" s="22" t="n">
         <v>0.668524519776826</v>
       </c>
       <c r="GU6" s="19" t="n">
@@ -10901,7 +10898,7 @@
       <c r="HS6" s="20" t="n">
         <v>7.84643888222791</v>
       </c>
-      <c r="HT6" s="21" t="n">
+      <c r="HT6" s="22" t="n">
         <v>0.191072582883461</v>
       </c>
       <c r="HU6" s="19" t="n">
@@ -10979,7 +10976,7 @@
       <c r="IS6" s="20" t="n">
         <v>9.14594000741275</v>
       </c>
-      <c r="IT6" s="21" t="n">
+      <c r="IT6" s="22" t="n">
         <v>0.285745557466617</v>
       </c>
       <c r="IU6" s="19" t="n">
@@ -11006,7 +11003,7 @@
       <c r="JB6" s="19" t="n">
         <v>10997.8469947094</v>
       </c>
-      <c r="JC6" s="20" t="n">
+      <c r="JC6" s="21" t="n">
         <v>0.500180972442577</v>
       </c>
       <c r="JD6" s="26" t="n">
@@ -12058,7 +12055,7 @@
       <c r="GS7" s="20" t="n">
         <v>15.168495665881</v>
       </c>
-      <c r="GT7" s="21" t="n">
+      <c r="GT7" s="22" t="n">
         <v>0.484295895397546</v>
       </c>
       <c r="GU7" s="19" t="n">
@@ -12136,7 +12133,7 @@
       <c r="HS7" s="20" t="n">
         <v>7.84643888222791</v>
       </c>
-      <c r="HT7" s="21" t="n">
+      <c r="HT7" s="22" t="n">
         <v>0.191072582883461</v>
       </c>
       <c r="HU7" s="19" t="n">
@@ -12214,7 +12211,7 @@
       <c r="IS7" s="20" t="n">
         <v>9.01093387487917</v>
       </c>
-      <c r="IT7" s="21" t="n">
+      <c r="IT7" s="22" t="n">
         <v>0.282299212803812</v>
       </c>
       <c r="IU7" s="19" t="n">
@@ -12241,7 +12238,7 @@
       <c r="JB7" s="19" t="n">
         <v>3382.69463881069</v>
       </c>
-      <c r="JC7" s="20" t="n">
+      <c r="JC7" s="21" t="n">
         <v>2.73478769560916</v>
       </c>
       <c r="JD7" s="26" t="n">
@@ -13293,7 +13290,7 @@
       <c r="GS8" s="20" t="n">
         <v>8.28171567467692</v>
       </c>
-      <c r="GT8" s="21" t="n">
+      <c r="GT8" s="22" t="n">
         <v>0.315909661249811</v>
       </c>
       <c r="GU8" s="19" t="n">
@@ -13371,7 +13368,7 @@
       <c r="HS8" s="20" t="n">
         <v>7.84643888222791</v>
       </c>
-      <c r="HT8" s="21" t="n">
+      <c r="HT8" s="22" t="n">
         <v>0.191072582883461</v>
       </c>
       <c r="HU8" s="19" t="n">
@@ -13449,7 +13446,7 @@
       <c r="IS8" s="20" t="n">
         <v>9.14594000741275</v>
       </c>
-      <c r="IT8" s="21" t="n">
+      <c r="IT8" s="22" t="n">
         <v>0.285745557466617</v>
       </c>
       <c r="IU8" s="19" t="n">
@@ -13476,7 +13473,7 @@
       <c r="JB8" s="19" t="n">
         <v>10997.8469947094</v>
       </c>
-      <c r="JC8" s="20" t="n">
+      <c r="JC8" s="21" t="n">
         <v>0.500180972442577</v>
       </c>
       <c r="JD8" s="26" t="n">
@@ -14528,7 +14525,7 @@
       <c r="GS9" s="20" t="n">
         <v>8.75271788163033</v>
       </c>
-      <c r="GT9" s="21" t="n">
+      <c r="GT9" s="22" t="n">
         <v>0.205921981668911</v>
       </c>
       <c r="GU9" s="19" t="n">
@@ -14606,7 +14603,7 @@
       <c r="HS9" s="20" t="n">
         <v>7.84643888222791</v>
       </c>
-      <c r="HT9" s="21" t="n">
+      <c r="HT9" s="22" t="n">
         <v>0.191072582883461</v>
       </c>
       <c r="HU9" s="19" t="n">
@@ -14684,7 +14681,7 @@
       <c r="IS9" s="20" t="n">
         <v>8.43939887056598</v>
       </c>
-      <c r="IT9" s="21" t="n">
+      <c r="IT9" s="22" t="n">
         <v>0.168205783629794</v>
       </c>
       <c r="IU9" s="19" t="n">
@@ -14711,7 +14708,7 @@
       <c r="JB9" s="19" t="n">
         <v>726.303716001872</v>
       </c>
-      <c r="JC9" s="20" t="n">
+      <c r="JC9" s="21" t="n">
         <v>0.810674188765158</v>
       </c>
       <c r="JD9" s="26" t="n">
@@ -15763,7 +15760,7 @@
       <c r="GS10" s="20" t="n">
         <v>8.54002113432728</v>
       </c>
-      <c r="GT10" s="21" t="n">
+      <c r="GT10" s="22" t="n">
         <v>0.194743109756014</v>
       </c>
       <c r="GU10" s="19" t="n">
@@ -15841,7 +15838,7 @@
       <c r="HS10" s="20" t="n">
         <v>7.84643888222791</v>
       </c>
-      <c r="HT10" s="21" t="n">
+      <c r="HT10" s="22" t="n">
         <v>0.191072582883461</v>
       </c>
       <c r="HU10" s="19" t="n">
@@ -15919,7 +15916,7 @@
       <c r="IS10" s="20" t="n">
         <v>8.08328357533653</v>
       </c>
-      <c r="IT10" s="21" t="n">
+      <c r="IT10" s="22" t="n">
         <v>0.16105725545636</v>
       </c>
       <c r="IU10" s="19" t="n">
@@ -15946,7 +15943,7 @@
       <c r="JB10" s="19" t="n">
         <v>87764.0390601017</v>
       </c>
-      <c r="JC10" s="20" t="n">
+      <c r="JC10" s="21" t="n">
         <v>1.56424948730167</v>
       </c>
       <c r="JD10" s="26" t="n">
@@ -16998,7 +16995,7 @@
       <c r="GS11" s="20" t="n">
         <v>6.22442463291997</v>
       </c>
-      <c r="GT11" s="21" t="n">
+      <c r="GT11" s="22" t="n">
         <v>0.191507403853593</v>
       </c>
       <c r="GU11" s="19" t="n">
@@ -17076,7 +17073,7 @@
       <c r="HS11" s="20" t="n">
         <v>7.84643888222791</v>
       </c>
-      <c r="HT11" s="21" t="n">
+      <c r="HT11" s="22" t="n">
         <v>0.191072582883461</v>
       </c>
       <c r="HU11" s="19" t="n">
@@ -17154,7 +17151,7 @@
       <c r="IS11" s="20" t="n">
         <v>9.01093387487917</v>
       </c>
-      <c r="IT11" s="21" t="n">
+      <c r="IT11" s="22" t="n">
         <v>0.282299212803812</v>
       </c>
       <c r="IU11" s="19" t="n">
@@ -17181,7 +17178,7 @@
       <c r="JB11" s="19" t="n">
         <v>3382.69463881069</v>
       </c>
-      <c r="JC11" s="20" t="n">
+      <c r="JC11" s="21" t="n">
         <v>2.73478769560916</v>
       </c>
       <c r="JD11" s="26" t="n">
@@ -18212,970 +18209,970 @@
         <v>569</v>
       </c>
       <c r="CL1" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="CM1" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="CM1" s="7" t="s">
+      <c r="CN1" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="CN1" s="2" t="s">
+      <c r="CO1" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="CP1" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="CO1" s="2" t="s">
+      <c r="CQ1" s="8" t="s">
         <v>576</v>
       </c>
-      <c r="CP1" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="CQ1" s="8" t="s">
+      <c r="CR1" s="8" t="s">
         <v>578</v>
       </c>
-      <c r="CR1" s="8" t="s">
+      <c r="CS1" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="CS1" s="7" t="s">
+      <c r="CT1" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="CT1" s="7" t="s">
+      <c r="CU1" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="CU1" s="7" t="s">
+      <c r="CV1" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="CV1" s="7" t="s">
+      <c r="CW1" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="CW1" s="7" t="s">
+      <c r="CX1" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="CX1" s="7" t="s">
+      <c r="CY1" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="CY1" s="7" t="s">
+      <c r="CZ1" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="CZ1" s="7" t="s">
+      <c r="DA1" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="DA1" s="7" t="s">
+      <c r="DB1" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="DC1" s="7" t="s">
         <v>598</v>
       </c>
-      <c r="DB1" s="7" t="s">
-        <v>599</v>
-      </c>
-      <c r="DC1" s="7" t="s">
+      <c r="DD1" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="DD1" s="7" t="s">
+      <c r="DE1" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="DE1" s="7" t="s">
+      <c r="DF1" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="DF1" s="7" t="s">
+      <c r="DG1" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="DG1" s="7" t="s">
+      <c r="DH1" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="DH1" s="7" t="s">
+      <c r="DI1" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="DI1" s="7" t="s">
+      <c r="DJ1" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="DJ1" s="7" t="s">
+      <c r="DK1" s="8" t="s">
         <v>614</v>
       </c>
-      <c r="DK1" s="8" t="s">
+      <c r="DL1" s="8" t="s">
         <v>616</v>
       </c>
-      <c r="DL1" s="8" t="s">
+      <c r="DM1" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="DM1" s="7" t="s">
+      <c r="DN1" s="8" t="s">
         <v>620</v>
       </c>
-      <c r="DN1" s="8" t="s">
-        <v>622</v>
-      </c>
       <c r="DO1" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="DP1" s="8" t="s">
         <v>623</v>
       </c>
-      <c r="DP1" s="8" t="s">
+      <c r="DQ1" s="8" t="s">
         <v>625</v>
       </c>
-      <c r="DQ1" s="8" t="s">
+      <c r="DR1" s="7" t="s">
         <v>627</v>
       </c>
-      <c r="DR1" s="7" t="s">
+      <c r="DS1" s="9" t="s">
         <v>629</v>
       </c>
-      <c r="DS1" s="9" t="s">
+      <c r="DT1" s="9" t="s">
         <v>631</v>
       </c>
-      <c r="DT1" s="9" t="s">
-        <v>633</v>
-      </c>
       <c r="DU1" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="DV1" s="9" t="s">
         <v>634</v>
       </c>
-      <c r="DV1" s="9" t="s">
+      <c r="DW1" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="DX1" s="9" t="s">
         <v>636</v>
       </c>
-      <c r="DW1" s="9" t="s">
-        <v>637</v>
-      </c>
-      <c r="DX1" s="9" t="s">
+      <c r="DY1" s="9" t="s">
         <v>638</v>
       </c>
-      <c r="DY1" s="9" t="s">
-        <v>640</v>
-      </c>
       <c r="DZ1" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="EA1" s="9" t="s">
         <v>641</v>
       </c>
-      <c r="EA1" s="9" t="s">
+      <c r="EB1" s="9" t="s">
         <v>643</v>
       </c>
-      <c r="EB1" s="9" t="s">
-        <v>645</v>
-      </c>
       <c r="EC1" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="ED1" s="9" t="s">
         <v>646</v>
       </c>
-      <c r="ED1" s="9" t="s">
+      <c r="EE1" s="9" t="s">
         <v>648</v>
       </c>
-      <c r="EE1" s="9" t="s">
+      <c r="EF1" s="9" t="s">
         <v>650</v>
       </c>
-      <c r="EF1" s="9" t="s">
+      <c r="EG1" s="9" t="s">
         <v>652</v>
       </c>
-      <c r="EG1" s="9" t="s">
+      <c r="EH1" s="9" t="s">
         <v>654</v>
       </c>
-      <c r="EH1" s="9" t="s">
-        <v>656</v>
-      </c>
       <c r="EI1" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="EJ1" s="9" t="s">
         <v>657</v>
       </c>
-      <c r="EJ1" s="9" t="s">
-        <v>659</v>
-      </c>
       <c r="EK1" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="EL1" s="10" t="s">
         <v>660</v>
       </c>
-      <c r="EL1" s="10" t="s">
+      <c r="EM1" s="10" t="s">
         <v>662</v>
       </c>
-      <c r="EM1" s="10" t="s">
+      <c r="EN1" s="10" t="s">
         <v>664</v>
       </c>
-      <c r="EN1" s="10" t="s">
+      <c r="EO1" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="EP1" s="10" t="s">
         <v>666</v>
       </c>
-      <c r="EO1" s="10" t="s">
+      <c r="EQ1" s="10" t="s">
         <v>667</v>
       </c>
-      <c r="EP1" s="10" t="s">
+      <c r="ER1" s="10" t="s">
         <v>668</v>
       </c>
-      <c r="EQ1" s="10" t="s">
+      <c r="ES1" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="ER1" s="10" t="s">
-        <v>670</v>
-      </c>
-      <c r="ES1" s="10" t="s">
+      <c r="ET1" s="10" t="s">
         <v>671</v>
       </c>
-      <c r="ET1" s="10" t="s">
+      <c r="EU1" s="10" t="s">
+        <v>672</v>
+      </c>
+      <c r="EV1" s="10" t="s">
         <v>673</v>
       </c>
-      <c r="EU1" s="10" t="s">
+      <c r="EW1" s="10" t="s">
         <v>674</v>
       </c>
-      <c r="EV1" s="10" t="s">
+      <c r="EX1" s="10" t="s">
         <v>675</v>
       </c>
-      <c r="EW1" s="10" t="s">
+      <c r="EY1" s="10" t="s">
         <v>676</v>
       </c>
-      <c r="EX1" s="10" t="s">
+      <c r="EZ1" s="10" t="s">
         <v>677</v>
       </c>
-      <c r="EY1" s="10" t="s">
-        <v>678</v>
-      </c>
-      <c r="EZ1" s="10" t="s">
+      <c r="FA1" s="10" t="s">
         <v>679</v>
       </c>
-      <c r="FA1" s="10" t="s">
+      <c r="FB1" s="10" t="s">
         <v>681</v>
       </c>
-      <c r="FB1" s="10" t="s">
+      <c r="FC1" s="10" t="s">
         <v>683</v>
       </c>
-      <c r="FC1" s="10" t="s">
+      <c r="FD1" s="10" t="s">
         <v>685</v>
       </c>
-      <c r="FD1" s="10" t="s">
-        <v>687</v>
-      </c>
       <c r="FE1" s="11" t="s">
+        <v>686</v>
+      </c>
+      <c r="FF1" s="11" t="s">
+        <v>686</v>
+      </c>
+      <c r="FG1" s="11" t="s">
         <v>688</v>
       </c>
-      <c r="FF1" s="11" t="s">
-        <v>688</v>
-      </c>
-      <c r="FG1" s="11" t="s">
+      <c r="FH1" s="11" t="s">
         <v>690</v>
       </c>
-      <c r="FH1" s="11" t="s">
+      <c r="FI1" s="11" t="s">
+        <v>691</v>
+      </c>
+      <c r="FJ1" s="11" t="s">
         <v>692</v>
       </c>
-      <c r="FI1" s="11" t="s">
-        <v>693</v>
-      </c>
-      <c r="FJ1" s="11" t="s">
+      <c r="FK1" s="11" t="s">
         <v>694</v>
       </c>
-      <c r="FK1" s="11" t="s">
+      <c r="FL1" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="FM1" s="11" t="s">
         <v>696</v>
       </c>
-      <c r="FL1" s="11" t="s">
-        <v>697</v>
-      </c>
-      <c r="FM1" s="11" t="s">
+      <c r="FN1" s="11" t="s">
         <v>698</v>
       </c>
-      <c r="FN1" s="11" t="s">
+      <c r="FO1" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="FP1" s="11" t="s">
         <v>700</v>
       </c>
-      <c r="FO1" s="11" t="s">
-        <v>701</v>
-      </c>
-      <c r="FP1" s="11" t="s">
+      <c r="FQ1" s="11" t="s">
         <v>702</v>
       </c>
-      <c r="FQ1" s="11" t="s">
+      <c r="FR1" s="11" t="s">
         <v>704</v>
       </c>
-      <c r="FR1" s="11" t="s">
-        <v>706</v>
-      </c>
       <c r="FS1" s="11" t="s">
+        <v>705</v>
+      </c>
+      <c r="FT1" s="11" t="s">
         <v>707</v>
       </c>
-      <c r="FT1" s="11" t="s">
+      <c r="FU1" s="11" t="s">
+        <v>708</v>
+      </c>
+      <c r="FV1" s="11" t="s">
         <v>709</v>
       </c>
-      <c r="FU1" s="11" t="s">
-        <v>710</v>
-      </c>
-      <c r="FV1" s="11" t="s">
+      <c r="FW1" s="11" t="s">
         <v>711</v>
       </c>
-      <c r="FW1" s="11" t="s">
+      <c r="FX1" s="7" t="s">
         <v>713</v>
       </c>
-      <c r="FX1" s="7" t="s">
-        <v>715</v>
-      </c>
       <c r="FY1" s="7" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="FZ1" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="GA1" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="GB1" s="7" t="s">
         <v>718</v>
       </c>
-      <c r="GA1" s="7" t="s">
+      <c r="GC1" s="7" t="s">
         <v>719</v>
       </c>
-      <c r="GB1" s="7" t="s">
+      <c r="GD1" s="7" t="s">
         <v>720</v>
       </c>
-      <c r="GC1" s="7" t="s">
+      <c r="GE1" s="7" t="s">
         <v>721</v>
       </c>
-      <c r="GD1" s="7" t="s">
+      <c r="GF1" s="7" t="s">
         <v>722</v>
       </c>
-      <c r="GE1" s="7" t="s">
-        <v>723</v>
-      </c>
-      <c r="GF1" s="7" t="s">
+      <c r="GG1" s="7" t="s">
         <v>724</v>
       </c>
-      <c r="GG1" s="7" t="s">
+      <c r="GH1" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="GI1" s="7" t="s">
         <v>726</v>
       </c>
-      <c r="GH1" s="7" t="s">
+      <c r="GJ1" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="GI1" s="7" t="s">
+      <c r="GK1" s="7" t="s">
         <v>728</v>
       </c>
-      <c r="GJ1" s="7" t="s">
+      <c r="GL1" s="7" t="s">
         <v>729</v>
       </c>
-      <c r="GK1" s="7" t="s">
+      <c r="GM1" s="7" t="s">
         <v>730</v>
       </c>
-      <c r="GL1" s="7" t="s">
+      <c r="GN1" s="7" t="s">
         <v>731</v>
       </c>
-      <c r="GM1" s="7" t="s">
-        <v>732</v>
-      </c>
-      <c r="GN1" s="7" t="s">
+      <c r="GO1" s="7" t="s">
         <v>733</v>
       </c>
-      <c r="GO1" s="7" t="s">
-        <v>735</v>
-      </c>
       <c r="GP1" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="GQ1" s="12" t="s">
         <v>736</v>
       </c>
-      <c r="GQ1" s="12" t="s">
+      <c r="GR1" s="12" t="s">
         <v>738</v>
       </c>
-      <c r="GR1" s="12" t="s">
+      <c r="GS1" s="12" t="s">
         <v>740</v>
       </c>
-      <c r="GS1" s="12" t="s">
+      <c r="GT1" s="12" t="s">
         <v>742</v>
       </c>
-      <c r="GT1" s="12" t="s">
+      <c r="GU1" s="12" t="s">
         <v>744</v>
       </c>
-      <c r="GU1" s="12" t="s">
+      <c r="GV1" s="12" t="s">
         <v>746</v>
       </c>
-      <c r="GV1" s="12" t="s">
+      <c r="GW1" s="12" t="s">
         <v>748</v>
       </c>
-      <c r="GW1" s="12" t="s">
+      <c r="GX1" s="12" t="s">
         <v>750</v>
       </c>
-      <c r="GX1" s="12" t="s">
-        <v>752</v>
-      </c>
       <c r="GY1" s="12" t="s">
+        <v>751</v>
+      </c>
+      <c r="GZ1" s="12" t="s">
         <v>753</v>
       </c>
-      <c r="GZ1" s="12" t="s">
+      <c r="HA1" s="12" t="s">
         <v>755</v>
       </c>
-      <c r="HA1" s="12" t="s">
+      <c r="HB1" s="12" t="s">
         <v>757</v>
       </c>
-      <c r="HB1" s="12" t="s">
+      <c r="HC1" s="12" t="s">
         <v>759</v>
       </c>
-      <c r="HC1" s="12" t="s">
-        <v>761</v>
-      </c>
       <c r="HD1" s="13" t="s">
+        <v>760</v>
+      </c>
+      <c r="HE1" s="13" t="s">
         <v>762</v>
       </c>
-      <c r="HE1" s="13" t="s">
+      <c r="HF1" s="13" t="s">
+        <v>763</v>
+      </c>
+      <c r="HG1" s="13" t="s">
         <v>764</v>
       </c>
-      <c r="HF1" s="13" t="s">
+      <c r="HH1" s="13" t="s">
         <v>765</v>
       </c>
-      <c r="HG1" s="13" t="s">
+      <c r="HI1" s="13" t="s">
         <v>766</v>
       </c>
-      <c r="HH1" s="13" t="s">
-        <v>767</v>
-      </c>
-      <c r="HI1" s="13" t="s">
+      <c r="HJ1" s="13" t="s">
         <v>768</v>
       </c>
-      <c r="HJ1" s="13" t="s">
+      <c r="HK1" s="13" t="s">
+        <v>769</v>
+      </c>
+      <c r="HL1" s="13" t="s">
         <v>770</v>
       </c>
-      <c r="HK1" s="13" t="s">
+      <c r="HM1" s="13" t="s">
         <v>771</v>
       </c>
-      <c r="HL1" s="13" t="s">
-        <v>772</v>
-      </c>
-      <c r="HM1" s="13" t="s">
+      <c r="HN1" s="13" t="s">
         <v>773</v>
       </c>
-      <c r="HN1" s="13" t="s">
-        <v>775</v>
-      </c>
       <c r="HO1" s="13" t="s">
+        <v>774</v>
+      </c>
+      <c r="HP1" s="13" t="s">
         <v>776</v>
       </c>
-      <c r="HP1" s="13" t="s">
+      <c r="HQ1" s="14" t="s">
         <v>778</v>
       </c>
-      <c r="HQ1" s="14" t="s">
+      <c r="HR1" s="14" t="s">
         <v>780</v>
       </c>
-      <c r="HR1" s="14" t="s">
+      <c r="HS1" s="14" t="s">
         <v>782</v>
       </c>
-      <c r="HS1" s="14" t="s">
+      <c r="HT1" s="14" t="s">
         <v>784</v>
       </c>
-      <c r="HT1" s="14" t="s">
+      <c r="HU1" s="14" t="s">
         <v>786</v>
       </c>
-      <c r="HU1" s="14" t="s">
+      <c r="HV1" s="14" t="s">
         <v>788</v>
       </c>
-      <c r="HV1" s="14" t="s">
-        <v>790</v>
-      </c>
       <c r="HW1" s="14" t="s">
+        <v>789</v>
+      </c>
+      <c r="HX1" s="14" t="s">
         <v>791</v>
       </c>
-      <c r="HX1" s="14" t="s">
+      <c r="HY1" s="14" t="s">
         <v>793</v>
       </c>
-      <c r="HY1" s="14" t="s">
-        <v>795</v>
-      </c>
       <c r="HZ1" s="14" t="s">
+        <v>794</v>
+      </c>
+      <c r="IA1" s="14" t="s">
         <v>796</v>
       </c>
-      <c r="IA1" s="14" t="s">
+      <c r="IB1" s="14" t="s">
         <v>798</v>
       </c>
-      <c r="IB1" s="14" t="s">
+      <c r="IC1" s="14" t="s">
+        <v>799</v>
+      </c>
+      <c r="ID1" s="15" t="s">
         <v>800</v>
       </c>
-      <c r="IC1" s="14" t="s">
-        <v>801</v>
-      </c>
-      <c r="ID1" s="15" t="s">
+      <c r="IE1" s="15" t="s">
         <v>802</v>
       </c>
-      <c r="IE1" s="15" t="s">
+      <c r="IF1" s="15" t="s">
+        <v>803</v>
+      </c>
+      <c r="IG1" s="15" t="s">
         <v>804</v>
       </c>
-      <c r="IF1" s="15" t="s">
+      <c r="IH1" s="15" t="s">
         <v>805</v>
       </c>
-      <c r="IG1" s="15" t="s">
+      <c r="II1" s="15" t="s">
         <v>806</v>
       </c>
-      <c r="IH1" s="15" t="s">
-        <v>807</v>
-      </c>
-      <c r="II1" s="15" t="s">
+      <c r="IJ1" s="15" t="s">
         <v>808</v>
       </c>
-      <c r="IJ1" s="15" t="s">
+      <c r="IK1" s="15" t="s">
         <v>810</v>
       </c>
-      <c r="IK1" s="15" t="s">
-        <v>812</v>
-      </c>
       <c r="IL1" s="15" t="s">
+        <v>811</v>
+      </c>
+      <c r="IM1" s="15" t="s">
         <v>813</v>
       </c>
-      <c r="IM1" s="15" t="s">
+      <c r="IN1" s="15" t="s">
         <v>815</v>
       </c>
-      <c r="IN1" s="15" t="s">
+      <c r="IO1" s="15" t="s">
+        <v>816</v>
+      </c>
+      <c r="IP1" s="15" t="s">
         <v>817</v>
       </c>
-      <c r="IO1" s="15" t="s">
-        <v>818</v>
-      </c>
-      <c r="IP1" s="15" t="s">
+      <c r="IQ1" s="14" t="s">
         <v>819</v>
       </c>
-      <c r="IQ1" s="14" t="s">
+      <c r="IR1" s="14" t="s">
         <v>821</v>
       </c>
-      <c r="IR1" s="14" t="s">
+      <c r="IS1" s="14" t="s">
         <v>823</v>
       </c>
-      <c r="IS1" s="14" t="s">
+      <c r="IT1" s="14" t="s">
         <v>825</v>
       </c>
-      <c r="IT1" s="14" t="s">
+      <c r="IU1" s="14" t="s">
         <v>827</v>
       </c>
-      <c r="IU1" s="14" t="s">
+      <c r="IV1" s="14" t="s">
         <v>829</v>
       </c>
-      <c r="IV1" s="14" t="s">
+      <c r="IW1" s="14" t="s">
         <v>831</v>
       </c>
-      <c r="IW1" s="14" t="s">
+      <c r="IX1" s="14" t="s">
         <v>833</v>
       </c>
-      <c r="IX1" s="14" t="s">
+      <c r="IY1" s="14" t="s">
         <v>835</v>
       </c>
-      <c r="IY1" s="14" t="s">
+      <c r="IZ1" s="14" t="s">
         <v>837</v>
       </c>
-      <c r="IZ1" s="14" t="s">
+      <c r="JA1" s="14" t="s">
         <v>839</v>
       </c>
-      <c r="JA1" s="14" t="s">
+      <c r="JB1" s="14" t="s">
         <v>841</v>
       </c>
-      <c r="JB1" s="14" t="s">
+      <c r="JC1" s="14" t="s">
         <v>843</v>
       </c>
-      <c r="JC1" s="14" t="s">
+      <c r="JD1" s="16" t="s">
         <v>844</v>
       </c>
-      <c r="JD1" s="16" t="s">
+      <c r="JE1" s="16" t="s">
         <v>845</v>
       </c>
-      <c r="JE1" s="16" t="s">
+      <c r="JF1" s="16" t="s">
         <v>846</v>
       </c>
-      <c r="JF1" s="16" t="s">
+      <c r="JG1" s="16" t="s">
         <v>847</v>
       </c>
-      <c r="JG1" s="16" t="s">
+      <c r="JH1" s="16" t="s">
         <v>848</v>
       </c>
-      <c r="JH1" s="16" t="s">
-        <v>849</v>
-      </c>
       <c r="JI1" s="16" t="s">
+        <v>850</v>
+      </c>
+      <c r="JJ1" s="16" t="s">
         <v>851</v>
       </c>
-      <c r="JJ1" s="16" t="s">
-        <v>852</v>
-      </c>
       <c r="JK1" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="JL1" s="16" t="s">
         <v>854</v>
       </c>
-      <c r="JL1" s="16" t="s">
+      <c r="JM1" s="16" t="s">
         <v>855</v>
       </c>
-      <c r="JM1" s="16" t="s">
+      <c r="JN1" s="16" t="s">
         <v>856</v>
       </c>
-      <c r="JN1" s="16" t="s">
+      <c r="JO1" s="16" t="s">
         <v>857</v>
       </c>
-      <c r="JO1" s="16" t="s">
+      <c r="JP1" s="16" t="s">
         <v>858</v>
       </c>
-      <c r="JP1" s="16" t="s">
+      <c r="JQ1" s="16" t="s">
         <v>859</v>
       </c>
-      <c r="JQ1" s="16" t="s">
+      <c r="JR1" s="16" t="s">
         <v>860</v>
       </c>
-      <c r="JR1" s="16" t="s">
+      <c r="JS1" s="16" t="s">
         <v>861</v>
       </c>
-      <c r="JS1" s="16" t="s">
-        <v>862</v>
-      </c>
       <c r="JT1" s="16" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="JU1" s="16" t="s">
+        <v>865</v>
+      </c>
+      <c r="JV1" s="16" t="s">
         <v>866</v>
       </c>
-      <c r="JV1" s="16" t="s">
+      <c r="JW1" s="16" t="s">
         <v>867</v>
       </c>
-      <c r="JW1" s="16" t="s">
+      <c r="JX1" s="16" t="s">
         <v>868</v>
       </c>
-      <c r="JX1" s="16" t="s">
+      <c r="JY1" s="16" t="s">
         <v>869</v>
       </c>
-      <c r="JY1" s="16" t="s">
+      <c r="JZ1" s="16" t="s">
         <v>870</v>
       </c>
-      <c r="JZ1" s="16" t="s">
-        <v>871</v>
-      </c>
       <c r="KA1" s="16" t="s">
+        <v>872</v>
+      </c>
+      <c r="KB1" s="16" t="s">
         <v>873</v>
       </c>
-      <c r="KB1" s="16" t="s">
+      <c r="KC1" s="16" t="s">
         <v>874</v>
       </c>
-      <c r="KC1" s="16" t="s">
-        <v>875</v>
-      </c>
       <c r="KD1" s="17" t="s">
+        <v>876</v>
+      </c>
+      <c r="KE1" s="17" t="s">
         <v>877</v>
       </c>
-      <c r="KE1" s="17" t="s">
+      <c r="KF1" s="17" t="s">
         <v>878</v>
       </c>
-      <c r="KF1" s="17" t="s">
+      <c r="KG1" s="17" t="s">
         <v>879</v>
       </c>
-      <c r="KG1" s="17" t="s">
+      <c r="KH1" s="17" t="s">
         <v>880</v>
       </c>
-      <c r="KH1" s="17" t="s">
+      <c r="KI1" s="17" t="s">
         <v>881</v>
       </c>
-      <c r="KI1" s="17" t="s">
+      <c r="KJ1" s="17" t="s">
         <v>882</v>
       </c>
-      <c r="KJ1" s="17" t="s">
+      <c r="KK1" s="17" t="s">
         <v>883</v>
       </c>
-      <c r="KK1" s="17" t="s">
+      <c r="KL1" s="17" t="s">
         <v>884</v>
       </c>
-      <c r="KL1" s="17" t="s">
+      <c r="KM1" s="17" t="s">
         <v>885</v>
       </c>
-      <c r="KM1" s="17" t="s">
+      <c r="KN1" s="17" t="s">
         <v>886</v>
       </c>
-      <c r="KN1" s="17" t="s">
+      <c r="KO1" s="17" t="s">
         <v>887</v>
       </c>
-      <c r="KO1" s="17" t="s">
+      <c r="KP1" s="17" t="s">
         <v>888</v>
       </c>
-      <c r="KP1" s="17" t="s">
+      <c r="KQ1" s="17" t="s">
         <v>889</v>
       </c>
-      <c r="KQ1" s="17" t="s">
+      <c r="KR1" s="17" t="s">
         <v>890</v>
       </c>
-      <c r="KR1" s="17" t="s">
+      <c r="KS1" s="17" t="s">
         <v>891</v>
       </c>
-      <c r="KS1" s="17" t="s">
+      <c r="KT1" s="17" t="s">
         <v>892</v>
       </c>
-      <c r="KT1" s="17" t="s">
+      <c r="KU1" s="17" t="s">
         <v>893</v>
       </c>
-      <c r="KU1" s="17" t="s">
+      <c r="KV1" s="17" t="s">
         <v>894</v>
       </c>
-      <c r="KV1" s="17" t="s">
+      <c r="KW1" s="17" t="s">
         <v>895</v>
       </c>
-      <c r="KW1" s="17" t="s">
+      <c r="KX1" s="17" t="s">
         <v>896</v>
       </c>
-      <c r="KX1" s="17" t="s">
+      <c r="KY1" s="17" t="s">
         <v>897</v>
       </c>
-      <c r="KY1" s="17" t="s">
+      <c r="KZ1" s="17" t="s">
         <v>898</v>
       </c>
-      <c r="KZ1" s="17" t="s">
-        <v>899</v>
-      </c>
       <c r="LA1" s="17" t="s">
+        <v>900</v>
+      </c>
+      <c r="LB1" s="17" t="s">
         <v>901</v>
       </c>
-      <c r="LB1" s="17" t="s">
+      <c r="LC1" s="17" t="s">
         <v>902</v>
       </c>
-      <c r="LC1" s="17" t="s">
-        <v>903</v>
-      </c>
       <c r="LD1" s="7" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="LE1" s="7" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="LF1" s="7" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="LG1" s="7" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="LH1" s="7" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="LI1" s="7" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="LJ1" s="7" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="LK1" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="LL1" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="LM1" s="7" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="LN1" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="LO1" s="7" t="s">
         <v>925</v>
       </c>
-      <c r="LO1" s="7" t="s">
-        <v>926</v>
-      </c>
       <c r="LP1" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="LQ1" s="7" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="LR1" s="7" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="LS1" s="7" t="s">
+        <v>933</v>
+      </c>
+      <c r="LT1" s="7" t="s">
         <v>934</v>
       </c>
-      <c r="LT1" s="7" t="s">
-        <v>935</v>
-      </c>
       <c r="LU1" s="7" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="LV1" s="7" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="LW1" s="7" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="LX1" s="7" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="LY1" s="8" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="LZ1" s="8" t="s">
+        <v>946</v>
+      </c>
+      <c r="MA1" s="8" t="s">
         <v>947</v>
       </c>
-      <c r="MA1" s="8" t="s">
+      <c r="MB1" s="8" t="s">
         <v>948</v>
       </c>
-      <c r="MB1" s="8" t="s">
+      <c r="MC1" s="8" t="s">
         <v>949</v>
       </c>
-      <c r="MC1" s="8" t="s">
+      <c r="MD1" s="8" t="s">
         <v>950</v>
       </c>
-      <c r="MD1" s="8" t="s">
+      <c r="ME1" s="8" t="s">
         <v>951</v>
       </c>
-      <c r="ME1" s="8" t="s">
+      <c r="MF1" s="8" t="s">
         <v>952</v>
       </c>
-      <c r="MF1" s="8" t="s">
-        <v>953</v>
-      </c>
       <c r="MG1" s="7" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="MH1" s="7" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="MI1" s="7" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="MJ1" s="7" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="MK1" s="7" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="ML1" s="7" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="MM1" s="7" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="MN1" s="7" t="s">
+        <v>968</v>
+      </c>
+      <c r="MO1" s="7" t="s">
         <v>969</v>
       </c>
-      <c r="MO1" s="7" t="s">
+      <c r="MP1" s="7" t="s">
         <v>970</v>
       </c>
-      <c r="MP1" s="7" t="s">
+      <c r="MQ1" s="7" t="s">
         <v>971</v>
       </c>
-      <c r="MQ1" s="7" t="s">
+      <c r="MR1" s="7" t="s">
         <v>972</v>
       </c>
-      <c r="MR1" s="7" t="s">
+      <c r="MS1" s="7" t="s">
         <v>973</v>
       </c>
-      <c r="MS1" s="7" t="s">
+      <c r="MT1" s="7" t="s">
         <v>974</v>
       </c>
-      <c r="MT1" s="7" t="s">
-        <v>975</v>
-      </c>
       <c r="MU1" s="7" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="MV1" s="18" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="MW1" s="18" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="MX1" s="18" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="MY1" s="18" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="MZ1" s="18" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="NA1" s="18" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="NB1" s="18" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="NC1" s="18" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="ND1" s="18" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="NE1" s="18" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="NF1" s="18" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="NG1" s="18" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="NH1" s="18" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="NI1" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="NJ1" s="16" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="NK1" s="16" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="NL1" s="16" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="NM1" s="16" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="NN1" s="16" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="NO1" s="16" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="NP1" s="16" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="NQ1" s="16" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="NR1" s="16" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="NS1" s="16" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="NT1" s="16" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="NU1" s="16" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="NV1" s="18" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="NW1" s="18" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="NX1" s="18" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="NY1" s="18" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="NZ1" s="18" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="OA1" s="18" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="OB1" s="18" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="OC1" s="18" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="OD1" s="18" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="OE1" s="18" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="OF1" s="18" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="OG1" s="18" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="OH1" s="18" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="OI1" s="16" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="OJ1" s="16" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="OK1" s="16" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="OL1" s="16" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="OM1" s="16" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="ON1" s="16" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="OO1" s="16" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="OP1" s="16" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="OQ1" s="16" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="OR1" s="16" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="OS1" s="16" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="OT1" s="16" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="OU1" s="16" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="2">
@@ -19770,7 +19767,7 @@
       <c r="GS2" s="20" t="n">
         <v>12.1329176030977</v>
       </c>
-      <c r="GT2" s="21" t="n">
+      <c r="GT2" s="22" t="n">
         <v>0.415139525250423</v>
       </c>
       <c r="GU2" s="19" t="n">
@@ -19848,7 +19845,7 @@
       <c r="HS2" s="20" t="n">
         <v>7.84643888222791</v>
       </c>
-      <c r="HT2" s="21" t="n">
+      <c r="HT2" s="22" t="n">
         <v>0.191072582883461</v>
       </c>
       <c r="HU2" s="19" t="n">
@@ -19926,7 +19923,7 @@
       <c r="IS2" s="20" t="n">
         <v>8.8776512846367</v>
       </c>
-      <c r="IT2" s="21" t="n">
+      <c r="IT2" s="22" t="n">
         <v>0.263875749283314</v>
       </c>
       <c r="IU2" s="19" t="n">
@@ -19953,7 +19950,7 @@
       <c r="JB2" s="19" t="n">
         <v>13391.5588298248</v>
       </c>
-      <c r="JC2" s="20" t="n">
+      <c r="JC2" s="21" t="n">
         <v>1.52467743503335</v>
       </c>
       <c r="JD2" s="26" t="n">
@@ -21274,26 +21271,26 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>504</v>
+      </c>
+      <c r="B91" t="s">
         <v>570</v>
-      </c>
-      <c r="B91" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>572</v>
+        <v>504</v>
       </c>
       <c r="B92" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B93" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="94">
@@ -21301,7 +21298,7 @@
         <v>554</v>
       </c>
       <c r="B94" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="95">
@@ -21309,7 +21306,7 @@
         <v>488</v>
       </c>
       <c r="B95" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="96">
@@ -21317,87 +21314,87 @@
         <v>504</v>
       </c>
       <c r="B96" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B97" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B98" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B99" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B100" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B101" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B102" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B103" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B104" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B105" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B106" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="107">
@@ -21405,7 +21402,7 @@
         <v>447</v>
       </c>
       <c r="B107" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="108">
@@ -21413,183 +21410,183 @@
         <v>7</v>
       </c>
       <c r="B108" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B109" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B110" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B111" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B112" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B113" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B114" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B115" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B116" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B117" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B118" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B119" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
+        <v>619</v>
+      </c>
+      <c r="B120" t="s">
         <v>621</v>
-      </c>
-      <c r="B120" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B121" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B122" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B123" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B124" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B125" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B126" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B127" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B128" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B129" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B130" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="131">
@@ -21597,87 +21594,87 @@
         <v>558</v>
       </c>
       <c r="B131" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B132" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B133" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B134" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B135" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B136" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B137" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B138" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B139" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B140" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B141" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="142">
@@ -21685,31 +21682,31 @@
         <v>568</v>
       </c>
       <c r="B142" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B143" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B144" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B145" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="146">
@@ -21717,7 +21714,7 @@
         <v>566</v>
       </c>
       <c r="B146" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="147">
@@ -21725,15 +21722,15 @@
         <v>552</v>
       </c>
       <c r="B147" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B148" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="149">
@@ -21741,31 +21738,31 @@
         <v>566</v>
       </c>
       <c r="B149" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B150" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B151" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B152" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="153">
@@ -21773,7 +21770,7 @@
         <v>554</v>
       </c>
       <c r="B153" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="154">
@@ -21781,7 +21778,7 @@
         <v>566</v>
       </c>
       <c r="B154" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="155">
@@ -21789,7 +21786,7 @@
         <v>7</v>
       </c>
       <c r="B155" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="156">
@@ -21797,7 +21794,7 @@
         <v>496</v>
       </c>
       <c r="B156" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="157">
@@ -21805,95 +21802,95 @@
         <v>496</v>
       </c>
       <c r="B157" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B158" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B159" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B160" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B161" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B162" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B163" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B164" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B165" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B166" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B167" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B168" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="169">
@@ -21901,119 +21898,119 @@
         <v>568</v>
       </c>
       <c r="B169" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B170" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B171" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B172" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B173" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B174" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B175" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B176" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B177" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B178" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B179" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B180" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B181" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B182" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B183" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="184">
@@ -22021,7 +22018,7 @@
         <v>447</v>
       </c>
       <c r="B184" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="185">
@@ -22029,7 +22026,7 @@
         <v>552</v>
       </c>
       <c r="B185" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="186">
@@ -22037,7 +22034,7 @@
         <v>554</v>
       </c>
       <c r="B186" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="187">
@@ -22045,7 +22042,7 @@
         <v>566</v>
       </c>
       <c r="B187" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="188">
@@ -22053,23 +22050,23 @@
         <v>550</v>
       </c>
       <c r="B188" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B189" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B190" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="191">
@@ -22077,7 +22074,7 @@
         <v>561</v>
       </c>
       <c r="B191" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="192">
@@ -22085,7 +22082,7 @@
         <v>3</v>
       </c>
       <c r="B192" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="193">
@@ -22093,7 +22090,7 @@
         <v>496</v>
       </c>
       <c r="B193" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="194">
@@ -22101,7 +22098,7 @@
         <v>496</v>
       </c>
       <c r="B194" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="195">
@@ -22109,103 +22106,103 @@
         <v>7</v>
       </c>
       <c r="B195" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B196" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B197" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B198" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B199" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B200" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B201" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B202" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B203" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B204" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B205" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B206" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B207" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="208">
@@ -22213,215 +22210,215 @@
         <v>504</v>
       </c>
       <c r="B208" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B209" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B210" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B211" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B212" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B213" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B214" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B215" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B216" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B217" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B218" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B219" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B220" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B221" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B222" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B223" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B224" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B225" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B226" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B227" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B228" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B229" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B230" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B231" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>665</v>
+        <v>516</v>
       </c>
       <c r="B232" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B233" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B234" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="235">
@@ -22429,23 +22426,23 @@
         <v>490</v>
       </c>
       <c r="B235" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B236" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B237" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="238">
@@ -22453,535 +22450,535 @@
         <v>481</v>
       </c>
       <c r="B238" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B239" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B240" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B241" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B242" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B243" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B244" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B245" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B246" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B247" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B248" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B249" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B250" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B251" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B252" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B253" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B254" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B255" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B256" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B257" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B258" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B259" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B260" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B261" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B262" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B263" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>458</v>
+        <v>842</v>
       </c>
       <c r="B264" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B265" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B266" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B267" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B268" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B269" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
+        <v>849</v>
+      </c>
+      <c r="B270" t="s">
         <v>850</v>
-      </c>
-      <c r="B270" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B271" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
+        <v>852</v>
+      </c>
+      <c r="B272" t="s">
         <v>853</v>
-      </c>
-      <c r="B272" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B273" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B274" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B275" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B276" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B277" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B278" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B279" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B280" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
+        <v>862</v>
+      </c>
+      <c r="B281" t="s">
         <v>863</v>
-      </c>
-      <c r="B281" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
+        <v>864</v>
+      </c>
+      <c r="B282" t="s">
         <v>865</v>
-      </c>
-      <c r="B282" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B283" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B284" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B285" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B286" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B287" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
+        <v>871</v>
+      </c>
+      <c r="B288" t="s">
         <v>872</v>
-      </c>
-      <c r="B288" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B289" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B290" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
+        <v>875</v>
+      </c>
+      <c r="B291" t="s">
         <v>876</v>
-      </c>
-      <c r="B291" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B292" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B293" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B294" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B295" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B296" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B297" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B298" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B299" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B300" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B301" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B302" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B303" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B304" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="305">
@@ -22989,279 +22986,279 @@
         <v>556</v>
       </c>
       <c r="B305" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B306" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B307" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B308" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B309" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B310" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B311" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B312" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B313" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
+        <v>899</v>
+      </c>
+      <c r="B314" t="s">
         <v>900</v>
-      </c>
-      <c r="B314" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B315" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B316" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
+        <v>903</v>
+      </c>
+      <c r="B317" t="s">
         <v>904</v>
-      </c>
-      <c r="B317" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
+        <v>905</v>
+      </c>
+      <c r="B318" t="s">
         <v>906</v>
-      </c>
-      <c r="B318" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
+        <v>907</v>
+      </c>
+      <c r="B319" t="s">
         <v>908</v>
-      </c>
-      <c r="B319" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
+        <v>909</v>
+      </c>
+      <c r="B320" t="s">
         <v>910</v>
-      </c>
-      <c r="B320" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
+        <v>911</v>
+      </c>
+      <c r="B321" t="s">
         <v>912</v>
-      </c>
-      <c r="B321" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
+        <v>913</v>
+      </c>
+      <c r="B322" t="s">
         <v>914</v>
-      </c>
-      <c r="B322" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
+        <v>915</v>
+      </c>
+      <c r="B323" t="s">
         <v>916</v>
-      </c>
-      <c r="B323" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
+        <v>917</v>
+      </c>
+      <c r="B324" t="s">
         <v>918</v>
-      </c>
-      <c r="B324" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
+        <v>919</v>
+      </c>
+      <c r="B325" t="s">
         <v>920</v>
-      </c>
-      <c r="B325" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
+        <v>921</v>
+      </c>
+      <c r="B326" t="s">
         <v>922</v>
-      </c>
-      <c r="B326" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
+        <v>923</v>
+      </c>
+      <c r="B327" t="s">
         <v>924</v>
-      </c>
-      <c r="B327" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B328" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
+        <v>926</v>
+      </c>
+      <c r="B329" t="s">
         <v>927</v>
-      </c>
-      <c r="B329" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s">
+        <v>928</v>
+      </c>
+      <c r="B330" t="s">
         <v>929</v>
-      </c>
-      <c r="B330" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
+        <v>930</v>
+      </c>
+      <c r="B331" t="s">
         <v>931</v>
-      </c>
-      <c r="B331" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
+        <v>932</v>
+      </c>
+      <c r="B332" t="s">
         <v>933</v>
-      </c>
-      <c r="B332" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B333" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s">
+        <v>935</v>
+      </c>
+      <c r="B334" t="s">
         <v>936</v>
-      </c>
-      <c r="B334" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="s">
+        <v>937</v>
+      </c>
+      <c r="B335" t="s">
         <v>938</v>
-      </c>
-      <c r="B335" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s">
+        <v>939</v>
+      </c>
+      <c r="B336" t="s">
         <v>940</v>
-      </c>
-      <c r="B336" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s">
+        <v>941</v>
+      </c>
+      <c r="B337" t="s">
         <v>942</v>
-      </c>
-      <c r="B337" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="s">
+        <v>943</v>
+      </c>
+      <c r="B338" t="s">
         <v>944</v>
-      </c>
-      <c r="B338" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="s">
+        <v>945</v>
+      </c>
+      <c r="B339" t="s">
         <v>946</v>
-      </c>
-      <c r="B339" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="340">
@@ -23269,7 +23266,7 @@
         <v>496</v>
       </c>
       <c r="B340" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="341">
@@ -23277,7 +23274,7 @@
         <v>461</v>
       </c>
       <c r="B341" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="342">
@@ -23285,7 +23282,7 @@
         <v>7</v>
       </c>
       <c r="B342" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="343">
@@ -23293,7 +23290,7 @@
         <v>3</v>
       </c>
       <c r="B343" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="344">
@@ -23301,7 +23298,7 @@
         <v>7</v>
       </c>
       <c r="B344" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="345">
@@ -23309,71 +23306,71 @@
         <v>7</v>
       </c>
       <c r="B345" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="s">
+        <v>953</v>
+      </c>
+      <c r="B346" t="s">
         <v>954</v>
-      </c>
-      <c r="B346" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="s">
+        <v>955</v>
+      </c>
+      <c r="B347" t="s">
         <v>956</v>
-      </c>
-      <c r="B347" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="s">
+        <v>957</v>
+      </c>
+      <c r="B348" t="s">
         <v>958</v>
-      </c>
-      <c r="B348" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="s">
+        <v>959</v>
+      </c>
+      <c r="B349" t="s">
         <v>960</v>
-      </c>
-      <c r="B349" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="s">
+        <v>961</v>
+      </c>
+      <c r="B350" t="s">
         <v>962</v>
-      </c>
-      <c r="B350" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="s">
+        <v>963</v>
+      </c>
+      <c r="B351" t="s">
         <v>964</v>
-      </c>
-      <c r="B351" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="s">
+        <v>965</v>
+      </c>
+      <c r="B352" t="s">
         <v>966</v>
-      </c>
-      <c r="B352" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="s">
+        <v>967</v>
+      </c>
+      <c r="B353" t="s">
         <v>968</v>
-      </c>
-      <c r="B353" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="354">
@@ -23381,7 +23378,7 @@
         <v>554</v>
       </c>
       <c r="B354" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="355">
@@ -23389,7 +23386,7 @@
         <v>561</v>
       </c>
       <c r="B355" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="356">
@@ -23397,7 +23394,7 @@
         <v>7</v>
       </c>
       <c r="B356" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="357">
@@ -23405,15 +23402,15 @@
         <v>496</v>
       </c>
       <c r="B357" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B358" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="359">
@@ -23421,431 +23418,431 @@
         <v>554</v>
       </c>
       <c r="B359" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="s">
+        <v>975</v>
+      </c>
+      <c r="B360" t="s">
         <v>976</v>
-      </c>
-      <c r="B360" t="s">
-        <v>977</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="s">
+        <v>977</v>
+      </c>
+      <c r="B361" t="s">
         <v>978</v>
-      </c>
-      <c r="B361" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="s">
+        <v>979</v>
+      </c>
+      <c r="B362" t="s">
         <v>980</v>
-      </c>
-      <c r="B362" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="s">
+        <v>981</v>
+      </c>
+      <c r="B363" t="s">
         <v>982</v>
-      </c>
-      <c r="B363" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="s">
+        <v>983</v>
+      </c>
+      <c r="B364" t="s">
         <v>984</v>
-      </c>
-      <c r="B364" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="s">
+        <v>985</v>
+      </c>
+      <c r="B365" t="s">
         <v>986</v>
-      </c>
-      <c r="B365" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="s">
+        <v>987</v>
+      </c>
+      <c r="B366" t="s">
         <v>988</v>
-      </c>
-      <c r="B366" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="s">
+        <v>989</v>
+      </c>
+      <c r="B367" t="s">
         <v>990</v>
-      </c>
-      <c r="B367" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="s">
+        <v>991</v>
+      </c>
+      <c r="B368" t="s">
         <v>992</v>
-      </c>
-      <c r="B368" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="s">
+        <v>993</v>
+      </c>
+      <c r="B369" t="s">
         <v>994</v>
-      </c>
-      <c r="B369" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="s">
+        <v>995</v>
+      </c>
+      <c r="B370" t="s">
         <v>996</v>
-      </c>
-      <c r="B370" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="s">
+        <v>997</v>
+      </c>
+      <c r="B371" t="s">
         <v>998</v>
-      </c>
-      <c r="B371" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="s">
+        <v>999</v>
+      </c>
+      <c r="B372" t="s">
         <v>1000</v>
-      </c>
-      <c r="B372" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B373" t="s">
         <v>1002</v>
-      </c>
-      <c r="B373" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B374" t="s">
         <v>1004</v>
-      </c>
-      <c r="B374" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B375" t="s">
         <v>1006</v>
-      </c>
-      <c r="B375" t="s">
-        <v>1007</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B376" t="s">
         <v>1008</v>
-      </c>
-      <c r="B376" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B377" t="s">
         <v>1010</v>
-      </c>
-      <c r="B377" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B378" t="s">
         <v>1012</v>
-      </c>
-      <c r="B378" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B379" t="s">
         <v>1014</v>
-      </c>
-      <c r="B379" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B380" t="s">
         <v>1016</v>
-      </c>
-      <c r="B380" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B381" t="s">
         <v>1018</v>
-      </c>
-      <c r="B381" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B382" t="s">
         <v>1020</v>
-      </c>
-      <c r="B382" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B383" t="s">
         <v>1022</v>
-      </c>
-      <c r="B383" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B384" t="s">
         <v>1024</v>
-      </c>
-      <c r="B384" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B385" t="s">
         <v>1026</v>
-      </c>
-      <c r="B385" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B386" t="s">
         <v>1028</v>
-      </c>
-      <c r="B386" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B387" t="s">
         <v>1030</v>
-      </c>
-      <c r="B387" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B388" t="s">
         <v>1032</v>
-      </c>
-      <c r="B388" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B389" t="s">
         <v>1034</v>
-      </c>
-      <c r="B389" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B390" t="s">
         <v>1036</v>
-      </c>
-      <c r="B390" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B391" t="s">
         <v>1038</v>
-      </c>
-      <c r="B391" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B392" t="s">
         <v>1040</v>
-      </c>
-      <c r="B392" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B393" t="s">
         <v>1042</v>
-      </c>
-      <c r="B393" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B394" t="s">
         <v>1044</v>
-      </c>
-      <c r="B394" t="s">
-        <v>1045</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B395" t="s">
         <v>1046</v>
-      </c>
-      <c r="B395" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B396" t="s">
         <v>1048</v>
-      </c>
-      <c r="B396" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B397" t="s">
         <v>1050</v>
-      </c>
-      <c r="B397" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B398" t="s">
         <v>1052</v>
-      </c>
-      <c r="B398" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B399" t="s">
         <v>1054</v>
-      </c>
-      <c r="B399" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B400" t="s">
         <v>1056</v>
-      </c>
-      <c r="B400" t="s">
-        <v>1057</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B401" t="s">
         <v>1058</v>
-      </c>
-      <c r="B401" t="s">
-        <v>1059</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B402" t="s">
         <v>1060</v>
-      </c>
-      <c r="B402" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B403" t="s">
         <v>1062</v>
-      </c>
-      <c r="B403" t="s">
-        <v>1063</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B404" t="s">
         <v>1064</v>
-      </c>
-      <c r="B404" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B405" t="s">
         <v>1066</v>
-      </c>
-      <c r="B405" t="s">
-        <v>1067</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B406" t="s">
         <v>1068</v>
-      </c>
-      <c r="B406" t="s">
-        <v>1069</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B407" t="s">
         <v>1070</v>
-      </c>
-      <c r="B407" t="s">
-        <v>1071</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B408" t="s">
         <v>1072</v>
-      </c>
-      <c r="B408" t="s">
-        <v>1073</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B409" t="s">
         <v>1074</v>
-      </c>
-      <c r="B409" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B410" t="s">
         <v>1076</v>
-      </c>
-      <c r="B410" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B411" t="s">
         <v>1078</v>
-      </c>
-      <c r="B411" t="s">
-        <v>1079</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B412" t="s">
         <v>1080</v>
-      </c>
-      <c r="B412" t="s">
-        <v>1081</v>
       </c>
     </row>
   </sheetData>

--- a/inst/testdata/examples_of_output/testoutput_doaggregate_10pts_1miles.xlsx
+++ b/inst/testdata/examples_of_output/testoutput_doaggregate_10pts_1miles.xlsx
@@ -2264,7 +2264,7 @@
     <t xml:space="preserve">Traffic Proximity and Volume (daily traffic count/distance to road)</t>
   </si>
   <si>
-    <t xml:space="preserve">27.64</t>
+    <t xml:space="preserve">0.28</t>
   </si>
   <si>
     <t xml:space="preserve">Lead Paint Indicator (% pre-1960s housing)</t>

--- a/inst/testdata/examples_of_output/testoutput_doaggregate_10pts_1miles.xlsx
+++ b/inst/testdata/examples_of_output/testoutput_doaggregate_10pts_1miles.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="1081">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="1084">
   <si>
     <t xml:space="preserve">Analysis Title</t>
   </si>
@@ -2090,516 +2090,522 @@
     <t xml:space="preserve">State percentile for % Low Income</t>
   </si>
   <si>
+    <t xml:space="preserve">71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for % in limited English-speaking Households</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for % Unemployed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for % with Less Than High School Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for % under Age 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for % over Age 64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for % People of Color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for % Hispanic or Latino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for % Black or African American (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for % Asian (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for % American Indian and Alaska Native (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for % Native Hawaiian and Other Pacific Islander (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for % Other race (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for % Two or more races (non-Hispanic)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for % White (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Percentile of Persons with Disabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Low life expectancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average of Supplemental Demographic Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State average for % Low Income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State average for % in limited English-speaking Households</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State average for % Unemployed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State average for % with Less Than High School Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State average for % under Age 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State average for % over Age 64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State average for % People of Color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State avg % Hispanic or Latino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State avg % Black or African American (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State avg % Asian (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State avg % American Indian and Alaska Native (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State avg % Native Hawaiian and Other Pacific Islander (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State avg % Other race (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State avg % Two or more races (non-Hispanic)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State avg % White (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average % with Disabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State average for Low life expectancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Particulate Matter (PM 2.5 in ug/m3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ozone (ppb)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrogen Dioxide (NO2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air Toxics Diesel Particulate Matter (ug/m3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toxic Releases to Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4328185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traffic Proximity and Volume (daily traffic count/distance to road)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lead Paint Indicator (% pre-1960s housing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superfund Proximity (site count/km distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMP Proximity (facility count/km distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hazardous Waste Proximity (facility count/km distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Underground Storage Tanks (UST) indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wastewater Discharge Indicator (toxicity-weighted concentration/distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drinking Water Non-Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Particulate Matter (PM 2.5 in ug/m3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Ozone (ppb)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Nitrogen Dioxide (NO2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Air Toxics Diesel Particulate Matter (ug/m3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Toxic Releases to Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Traffic Proximity and Volume (daily traffic count/distance to road)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Lead Paint Indicator (% pre-1960s housing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Superfund Proximity (site count/km distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for RMP Proximity (facility count/km distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Hazardous Waste Proximity (facility count/km distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Underground Storage Tanks (UST) indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Wastewater Discharge Indicator (toxicity-weighted concentration/distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Drinking Water Non-Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US average for Particulate Matter (PM 2.5 in ug/m3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US average for Ozone (ppb)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US average for Nitrogen Dioxide (NO2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US average for Air Toxics Diesel Particulate Matter (ug/m3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US avg Toxic Releases to Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1687230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US average for Traffic Proximity and Volume (daily traffic count/distance to road)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US average for Lead Paint Indicator (% pre-1960s housing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US average for Superfund Proximity (site count/km distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US average for RMP Proximity (facility count/km distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US average for Hazardous Waste Proximity (facility count/km distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US average for Underground Storage Tanks (UST) indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">701805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US average for Wastewater Discharge Indicator (toxicity-weighted concentration/distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US average for Drinking Water Non-Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Particulate Matter (PM 2.5 in ug/m3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Ozone (ppb)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Nitrogen Dioxide (NO2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Air Toxics Diesel Particulate Matter (ug/m3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Toxic Releases to Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Traffic Proximity and Volume (daily traffic count/distance to road)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Lead Paint Indicator (% pre-1960s housing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Superfund Proximity (site count/km distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for RMP Proximity (facility count/km distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Hazardous Waste Proximity (facility count/km distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Underground Storage Tanks (UST) indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Wastewater Discharge Indicator (toxicity-weighted concentration/distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Drinking Water Non-Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State average for Particulate Matter (PM 2.5 in ug/m3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State average for Ozone (ppb)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State average for Nitrogen Dioxide (NO2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State average for Air Toxics Diesel Particulate Matter (ug/m3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State avg Toxic Releases to Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2603011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State average for Traffic Proximity and Volume (daily traffic count/distance to road)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State average for Lead Paint Indicator (% pre-1960s housing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State average for Superfund Proximity (site count/km distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State average for RMP Proximity (facility count/km distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State average for Hazardous Waste Proximity (facility count/km distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State average for Underground Storage Tanks (UST) indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State average for Wastewater Discharge Indicator (toxicity-weighted concentration/distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State average for Drinking Water Non-Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for Particulate Matter (PM 2.5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for Ozone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for Nitrogen Dioxide (NO2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for Air Toxics Diesel Particulate Matter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for Toxic Releases to Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for Traffic Proximity and Volume</t>
+  </si>
+  <si>
     <t xml:space="preserve">72</t>
   </si>
   <si>
-    <t xml:space="preserve">State percentile for % in limited English-speaking Households</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for % Unemployed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for % with Less Than High School Education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for % under Age 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for % over Age 64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for % People of Color</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for % Hispanic or Latino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for % Black or African American (non-Hispanic, single race)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for % Asian (non-Hispanic, single race)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for % American Indian and Alaska Native (non-Hispanic, single race)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for % Native Hawaiian and Other Pacific Islander (non-Hispanic, single race)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for % Other race (non-Hispanic, single race)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for % Two or more races (non-Hispanic)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for % White (non-Hispanic, single race)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State Percentile of Persons with Disabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for Low life expectancy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State Average of Supplemental Demographic Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for % Low Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for % in limited English-speaking Households</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for % Unemployed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for % with Less Than High School Education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for % under Age 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for % over Age 64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for % People of Color</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State avg % Hispanic or Latino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State avg % Black or African American (non-Hispanic, single race)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State avg % Asian (non-Hispanic, single race)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State avg % American Indian and Alaska Native (non-Hispanic, single race)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State avg % Native Hawaiian and Other Pacific Islander (non-Hispanic, single race)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State avg % Other race (non-Hispanic, single race)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State avg % Two or more races (non-Hispanic)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State avg % White (non-Hispanic, single race)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State Average % with Disabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for Low life expectancy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Particulate Matter (PM 2.5 in ug/m3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ozone (ppb)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nitrogen Dioxide (NO2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Air Toxics Diesel Particulate Matter (ug/m3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toxic Releases to Air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4328185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traffic Proximity and Volume (daily traffic count/distance to road)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lead Paint Indicator (% pre-1960s housing)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Superfund Proximity (site count/km distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMP Proximity (facility count/km distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hazardous Waste Proximity (facility count/km distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Underground Storage Tanks (UST) indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wastewater Discharge Indicator (toxicity-weighted concentration/distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drinking Water Non-Compliance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for Particulate Matter (PM 2.5 in ug/m3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for Ozone (ppb)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for Nitrogen Dioxide (NO2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for Air Toxics Diesel Particulate Matter (ug/m3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for Toxic Releases to Air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for Traffic Proximity and Volume (daily traffic count/distance to road)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for Lead Paint Indicator (% pre-1960s housing)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for Superfund Proximity (site count/km distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for RMP Proximity (facility count/km distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for Hazardous Waste Proximity (facility count/km distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for Underground Storage Tanks (UST) indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for Wastewater Discharge Indicator (toxicity-weighted concentration/distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for Drinking Water Non-Compliance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US average for Particulate Matter (PM 2.5 in ug/m3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US average for Ozone (ppb)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US average for Nitrogen Dioxide (NO2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US average for Air Toxics Diesel Particulate Matter (ug/m3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US avg Toxic Releases to Air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1687230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US average for Traffic Proximity and Volume (daily traffic count/distance to road)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US average for Lead Paint Indicator (% pre-1960s housing)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US average for Superfund Proximity (site count/km distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US average for RMP Proximity (facility count/km distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US average for Hazardous Waste Proximity (facility count/km distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US average for Underground Storage Tanks (UST) indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">701805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US average for Wastewater Discharge Indicator (toxicity-weighted concentration/distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US average for Drinking Water Non-Compliance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for Particulate Matter (PM 2.5 in ug/m3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for Ozone (ppb)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for Nitrogen Dioxide (NO2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for Air Toxics Diesel Particulate Matter (ug/m3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for Toxic Releases to Air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for Traffic Proximity and Volume (daily traffic count/distance to road)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for Lead Paint Indicator (% pre-1960s housing)</t>
+    <t xml:space="preserve">US percentile for EJ Index for Lead Paint Indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for Superfund Proximity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for RMP Proximity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for Hazardous Waste Proximity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for Underground Storage Tanks (UST) indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for Wastewater Discharge Indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for Drinking Water Non-Compliance</t>
   </si>
   <si>
     <t xml:space="preserve">75</t>
   </si>
   <si>
-    <t xml:space="preserve">State percentile for Superfund Proximity (site count/km distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for RMP Proximity (facility count/km distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for Hazardous Waste Proximity (facility count/km distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for Underground Storage Tanks (UST) indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for Wastewater Discharge Indicator (toxicity-weighted concentration/distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for Drinking Water Non-Compliance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for Particulate Matter (PM 2.5 in ug/m3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for Ozone (ppb)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for Nitrogen Dioxide (NO2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for Air Toxics Diesel Particulate Matter (ug/m3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State avg Toxic Releases to Air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2603011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for Traffic Proximity and Volume (daily traffic count/distance to road)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for Lead Paint Indicator (% pre-1960s housing)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for Superfund Proximity (site count/km distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for RMP Proximity (facility count/km distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for Hazardous Waste Proximity (facility count/km distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for Underground Storage Tanks (UST) indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for Wastewater Discharge Indicator (toxicity-weighted concentration/distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for Drinking Water Non-Compliance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Particulate Matter (PM 2.5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Ozone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Nitrogen Dioxide (NO2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Air Toxics Diesel Particulate Matter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Toxic Releases to Air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Traffic Proximity and Volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Lead Paint Indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Superfund Proximity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for RMP Proximity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Hazardous Waste Proximity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Underground Storage Tanks (UST) indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Wastewater Discharge Indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Drinking Water Non-Compliance</t>
-  </si>
-  <si>
     <t xml:space="preserve">US percentile for EJ Supplemental Index for Particulate Matter (PM 2.5)</t>
   </si>
   <si>
@@ -2648,9 +2654,6 @@
     <t xml:space="preserve">US percentile for EJ Supplemental Index for Drinking Water Non-Compliance</t>
   </si>
   <si>
-    <t xml:space="preserve">71</t>
-  </si>
-  <si>
     <t xml:space="preserve">State percentile for EJ Index for Particulate Matter (PM 2.5)</t>
   </si>
   <si>
@@ -2672,15 +2675,24 @@
     <t xml:space="preserve">State percentile for EJ Index for Lead Paint Indicator</t>
   </si>
   <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
     <t xml:space="preserve">State percentile for EJ Index for Superfund Proximity</t>
   </si>
   <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
     <t xml:space="preserve">State percentile for EJ Index for RMP Proximity</t>
   </si>
   <si>
     <t xml:space="preserve">State percentile for EJ Index for Hazardous Waste Proximity</t>
   </si>
   <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
     <t xml:space="preserve">State percentile for EJ Index for Underground Storage Tanks (UST) indicator</t>
   </si>
   <si>
@@ -2718,9 +2730,6 @@
   </si>
   <si>
     <t xml:space="preserve">State percentile for EJ Supplemental Index for Hazardous Waste Proximity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90</t>
   </si>
   <si>
     <t xml:space="preserve">State percentile for EJ Supplemental Index for Underground Storage Tanks (UST) indicator</t>
@@ -3849,131 +3858,23 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10" outlineLevelCol="2"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10" outlineLevelCol="1"/>
   <cols>
-    <col min="100" max="100" width="6.71" hidden="0" customWidth="1"/>
-    <col min="101" max="101" width="6.71" hidden="0" customWidth="1"/>
-    <col min="102" max="102" width="6.71" hidden="0" customWidth="1"/>
-    <col min="103" max="103" width="6.71" hidden="0" customWidth="1"/>
-    <col min="104" max="104" width="6.71" hidden="0" customWidth="1"/>
-    <col min="105" max="105" width="6.71" hidden="0" customWidth="1"/>
-    <col min="106" max="106" width="6.71" hidden="0" customWidth="1"/>
-    <col min="107" max="107" width="6.71" hidden="0" customWidth="1"/>
-    <col min="108" max="108" width="6.71" hidden="0" customWidth="1"/>
-    <col min="109" max="109" width="6.71" hidden="0" customWidth="1"/>
-    <col min="110" max="110" width="6.71" hidden="0" customWidth="1"/>
-    <col min="111" max="111" width="6.71" hidden="0" customWidth="1"/>
-    <col min="112" max="112" width="6.71" hidden="0" customWidth="1"/>
-    <col min="113" max="113" width="6.71" hidden="0" customWidth="1"/>
-    <col min="114" max="114" width="6.71" hidden="0" customWidth="1"/>
-    <col min="115" max="115" width="6.71" hidden="0" customWidth="1"/>
-    <col min="116" max="116" width="6.71" hidden="0" customWidth="1"/>
-    <col min="117" max="117" width="6.71" hidden="0" customWidth="1"/>
-    <col min="118" max="118" width="6.71" hidden="0" customWidth="1"/>
-    <col min="119" max="119" width="6.71" hidden="0" customWidth="1"/>
     <col min="12" max="12" width="6.71" hidden="0" customWidth="1"/>
-    <col min="120" max="120" width="6.71" hidden="0" customWidth="1"/>
-    <col min="121" max="121" width="6.71" hidden="0" customWidth="1"/>
-    <col min="122" max="122" width="6.71" hidden="0" customWidth="1"/>
-    <col min="123" max="123" width="6.71" hidden="0" customWidth="1"/>
-    <col min="124" max="124" width="6.71" hidden="0" customWidth="1"/>
-    <col min="125" max="125" width="6.71" hidden="0" customWidth="1"/>
-    <col min="126" max="126" width="6.71" hidden="0" customWidth="1"/>
-    <col min="127" max="127" width="6.71" hidden="0" customWidth="1"/>
-    <col min="128" max="128" width="6.71" hidden="0" customWidth="1"/>
-    <col min="129" max="129" width="6.71" hidden="0" customWidth="1"/>
     <col min="13" max="13" width="6.71" hidden="0" customWidth="1"/>
-    <col min="130" max="130" width="6.71" hidden="0" customWidth="1"/>
-    <col min="131" max="131" width="6.71" hidden="0" customWidth="1"/>
-    <col min="132" max="132" width="6.71" hidden="0" customWidth="1"/>
-    <col min="133" max="133" width="6.71" hidden="0" customWidth="1"/>
-    <col min="134" max="134" width="6.71" hidden="0" customWidth="1"/>
-    <col min="135" max="135" width="6.71" hidden="0" customWidth="1"/>
-    <col min="136" max="136" width="6.71" hidden="0" customWidth="1"/>
-    <col min="137" max="137" width="6.71" hidden="0" customWidth="1"/>
-    <col min="138" max="138" width="6.71" hidden="0" customWidth="1"/>
-    <col min="139" max="139" width="6.71" hidden="0" customWidth="1"/>
     <col min="14" max="14" width="6.71" hidden="0" customWidth="1"/>
-    <col min="140" max="140" width="6.71" hidden="0" customWidth="1"/>
-    <col min="141" max="141" width="6.71" hidden="0" customWidth="1"/>
-    <col min="142" max="142" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
-    <col min="143" max="143" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
-    <col min="144" max="144" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
-    <col min="145" max="145" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
-    <col min="146" max="146" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
-    <col min="147" max="147" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
-    <col min="148" max="148" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
-    <col min="149" max="149" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
     <col min="15" max="15" width="6.71" hidden="0" customWidth="1"/>
-    <col min="150" max="150" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
-    <col min="151" max="151" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
-    <col min="152" max="152" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
-    <col min="153" max="153" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
-    <col min="154" max="154" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
-    <col min="155" max="155" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
-    <col min="156" max="156" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
-    <col min="157" max="157" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
-    <col min="158" max="158" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
-    <col min="159" max="159" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
     <col min="16" max="16" width="6.71" hidden="0" customWidth="1"/>
-    <col min="160" max="160" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
-    <col min="161" max="161" width="6.71" hidden="0" customWidth="1"/>
-    <col min="162" max="162" width="6.71" hidden="0" customWidth="1"/>
     <col min="17" max="17" width="6.71" hidden="0" customWidth="1"/>
     <col min="18" max="18" width="6.71" hidden="0" customWidth="1"/>
-    <col min="180" max="180" outlineLevel="2" hidden="1"/>
-    <col min="181" max="181" outlineLevel="2" hidden="1"/>
-    <col min="182" max="182" outlineLevel="2" hidden="1"/>
-    <col min="183" max="183" outlineLevel="2" hidden="1"/>
-    <col min="184" max="184" outlineLevel="2" hidden="1"/>
-    <col min="185" max="185" outlineLevel="2" hidden="1"/>
-    <col min="186" max="186" outlineLevel="2" hidden="1"/>
-    <col min="187" max="187" outlineLevel="2" hidden="1"/>
-    <col min="188" max="188" outlineLevel="2" hidden="1"/>
-    <col min="189" max="189" outlineLevel="2" hidden="1"/>
     <col min="19" max="19" width="6.71" hidden="0" customWidth="1"/>
-    <col min="190" max="190" outlineLevel="2" hidden="1"/>
-    <col min="191" max="191" outlineLevel="2" hidden="1"/>
-    <col min="192" max="192" outlineLevel="2" hidden="1"/>
-    <col min="193" max="193" outlineLevel="2" hidden="1"/>
-    <col min="194" max="194" outlineLevel="2" hidden="1"/>
-    <col min="195" max="195" outlineLevel="2" hidden="1"/>
-    <col min="196" max="196" outlineLevel="2" hidden="1"/>
-    <col min="197" max="197" outlineLevel="2" hidden="1"/>
-    <col min="198" max="198" outlineLevel="2" hidden="1"/>
     <col min="20" max="20" width="6.71" hidden="0" customWidth="1"/>
     <col min="21" max="21" width="6.71" hidden="0" customWidth="1"/>
     <col min="22" max="22" width="6.71" hidden="0" customWidth="1"/>
-    <col min="225" max="225" outlineLevel="2" hidden="1"/>
-    <col min="226" max="226" outlineLevel="2" hidden="1"/>
-    <col min="227" max="227" outlineLevel="2" hidden="1"/>
-    <col min="228" max="228" outlineLevel="2" hidden="1"/>
-    <col min="229" max="229" outlineLevel="2" hidden="1"/>
     <col min="23" max="23" width="6.71" hidden="0" customWidth="1"/>
-    <col min="230" max="230" outlineLevel="2" hidden="1"/>
-    <col min="231" max="231" outlineLevel="2" hidden="1"/>
-    <col min="232" max="232" outlineLevel="2" hidden="1"/>
-    <col min="233" max="233" outlineLevel="2" hidden="1"/>
-    <col min="234" max="234" outlineLevel="2" hidden="1"/>
-    <col min="235" max="235" outlineLevel="2" hidden="1"/>
-    <col min="236" max="236" outlineLevel="2" hidden="1"/>
-    <col min="237" max="237" outlineLevel="2" hidden="1"/>
     <col min="24" max="24" width="6.71" hidden="0" customWidth="1"/>
     <col min="25" max="25" width="6.71" hidden="0" customWidth="1"/>
-    <col min="251" max="251" outlineLevel="2" hidden="1"/>
-    <col min="252" max="252" outlineLevel="2" hidden="1"/>
-    <col min="253" max="253" outlineLevel="2" hidden="1"/>
-    <col min="254" max="254" outlineLevel="2" hidden="1"/>
-    <col min="255" max="255" outlineLevel="2" hidden="1"/>
-    <col min="256" max="256" outlineLevel="2" hidden="1"/>
-    <col min="257" max="257" outlineLevel="2" hidden="1"/>
-    <col min="258" max="258" outlineLevel="2" hidden="1"/>
-    <col min="259" max="259" outlineLevel="2" hidden="1"/>
     <col min="26" max="26" width="6.71" hidden="0" customWidth="1"/>
-    <col min="260" max="260" outlineLevel="2" hidden="1"/>
-    <col min="261" max="261" outlineLevel="2" hidden="1"/>
-    <col min="262" max="262" outlineLevel="2" hidden="1"/>
-    <col min="263" max="263" outlineLevel="2" hidden="1"/>
     <col min="27" max="27" width="6.71" hidden="0" customWidth="1"/>
     <col min="28" max="28" width="6.71" hidden="0" customWidth="1"/>
     <col min="29" max="29" width="6.71" hidden="0" customWidth="1"/>
@@ -4047,6 +3948,114 @@
     <col min="97" max="97" width="6.71" hidden="0" customWidth="1"/>
     <col min="98" max="98" width="6.71" hidden="0" customWidth="1"/>
     <col min="99" max="99" width="6.71" hidden="0" customWidth="1"/>
+    <col min="100" max="100" width="6.71" hidden="0" customWidth="1"/>
+    <col min="101" max="101" width="6.71" hidden="0" customWidth="1"/>
+    <col min="102" max="102" width="6.71" hidden="0" customWidth="1"/>
+    <col min="103" max="103" width="6.71" hidden="0" customWidth="1"/>
+    <col min="104" max="104" width="6.71" hidden="0" customWidth="1"/>
+    <col min="105" max="105" width="6.71" hidden="0" customWidth="1"/>
+    <col min="106" max="106" width="6.71" hidden="0" customWidth="1"/>
+    <col min="107" max="107" width="6.71" hidden="0" customWidth="1"/>
+    <col min="108" max="108" width="6.71" hidden="0" customWidth="1"/>
+    <col min="109" max="109" width="6.71" hidden="0" customWidth="1"/>
+    <col min="110" max="110" width="6.71" hidden="0" customWidth="1"/>
+    <col min="111" max="111" width="6.71" hidden="0" customWidth="1"/>
+    <col min="112" max="112" width="6.71" hidden="0" customWidth="1"/>
+    <col min="113" max="113" width="6.71" hidden="0" customWidth="1"/>
+    <col min="114" max="114" width="6.71" hidden="0" customWidth="1"/>
+    <col min="115" max="115" width="6.71" hidden="0" customWidth="1"/>
+    <col min="116" max="116" width="6.71" hidden="0" customWidth="1"/>
+    <col min="117" max="117" width="6.71" hidden="0" customWidth="1"/>
+    <col min="118" max="118" width="6.71" hidden="0" customWidth="1"/>
+    <col min="119" max="119" width="6.71" hidden="0" customWidth="1"/>
+    <col min="120" max="120" width="6.71" hidden="0" customWidth="1"/>
+    <col min="121" max="121" width="6.71" hidden="0" customWidth="1"/>
+    <col min="122" max="122" width="6.71" hidden="0" customWidth="1"/>
+    <col min="123" max="123" width="6.71" hidden="0" customWidth="1"/>
+    <col min="124" max="124" width="6.71" hidden="0" customWidth="1"/>
+    <col min="125" max="125" width="6.71" hidden="0" customWidth="1"/>
+    <col min="126" max="126" width="6.71" hidden="0" customWidth="1"/>
+    <col min="127" max="127" width="6.71" hidden="0" customWidth="1"/>
+    <col min="128" max="128" width="6.71" hidden="0" customWidth="1"/>
+    <col min="129" max="129" width="6.71" hidden="0" customWidth="1"/>
+    <col min="130" max="130" width="6.71" hidden="0" customWidth="1"/>
+    <col min="131" max="131" width="6.71" hidden="0" customWidth="1"/>
+    <col min="132" max="132" width="6.71" hidden="0" customWidth="1"/>
+    <col min="133" max="133" width="6.71" hidden="0" customWidth="1"/>
+    <col min="134" max="134" width="6.71" hidden="0" customWidth="1"/>
+    <col min="135" max="135" width="6.71" hidden="0" customWidth="1"/>
+    <col min="136" max="136" width="6.71" hidden="0" customWidth="1"/>
+    <col min="137" max="137" width="6.71" hidden="0" customWidth="1"/>
+    <col min="138" max="138" width="6.71" hidden="0" customWidth="1"/>
+    <col min="139" max="139" width="6.71" hidden="0" customWidth="1"/>
+    <col min="140" max="140" width="6.71" hidden="0" customWidth="1"/>
+    <col min="141" max="141" width="6.71" hidden="0" customWidth="1"/>
+    <col min="142" max="142" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
+    <col min="143" max="143" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
+    <col min="144" max="144" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
+    <col min="145" max="145" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
+    <col min="146" max="146" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
+    <col min="147" max="147" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
+    <col min="148" max="148" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
+    <col min="149" max="149" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
+    <col min="150" max="150" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
+    <col min="151" max="151" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
+    <col min="152" max="152" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
+    <col min="153" max="153" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
+    <col min="154" max="154" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
+    <col min="155" max="155" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
+    <col min="156" max="156" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
+    <col min="157" max="157" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
+    <col min="158" max="158" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
+    <col min="159" max="159" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
+    <col min="160" max="160" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
+    <col min="161" max="161" width="6.71" hidden="0" customWidth="1"/>
+    <col min="162" max="162" width="6.71" hidden="0" customWidth="1"/>
+    <col min="180" max="180" outlineLevel="1" hidden="1"/>
+    <col min="181" max="181" outlineLevel="1" hidden="1"/>
+    <col min="182" max="182" outlineLevel="1" hidden="1"/>
+    <col min="183" max="183" outlineLevel="1" hidden="1"/>
+    <col min="184" max="184" outlineLevel="1" hidden="1"/>
+    <col min="185" max="185" outlineLevel="1" hidden="1"/>
+    <col min="186" max="186" outlineLevel="1" hidden="1"/>
+    <col min="187" max="187" outlineLevel="1" hidden="1"/>
+    <col min="188" max="188" outlineLevel="1" hidden="1"/>
+    <col min="189" max="189" outlineLevel="1" hidden="1"/>
+    <col min="190" max="190" outlineLevel="1" hidden="1"/>
+    <col min="191" max="191" outlineLevel="1" hidden="1"/>
+    <col min="192" max="192" outlineLevel="1" hidden="1"/>
+    <col min="193" max="193" outlineLevel="1" hidden="1"/>
+    <col min="194" max="194" outlineLevel="1" hidden="1"/>
+    <col min="195" max="195" outlineLevel="1" hidden="1"/>
+    <col min="196" max="196" outlineLevel="1" hidden="1"/>
+    <col min="197" max="197" outlineLevel="1" hidden="1"/>
+    <col min="198" max="198" outlineLevel="1" hidden="1"/>
+    <col min="225" max="225" outlineLevel="1" hidden="1"/>
+    <col min="226" max="226" outlineLevel="1" hidden="1"/>
+    <col min="227" max="227" outlineLevel="1" hidden="1"/>
+    <col min="228" max="228" outlineLevel="1" hidden="1"/>
+    <col min="229" max="229" outlineLevel="1" hidden="1"/>
+    <col min="230" max="230" outlineLevel="1" hidden="1"/>
+    <col min="231" max="231" outlineLevel="1" hidden="1"/>
+    <col min="232" max="232" outlineLevel="1" hidden="1"/>
+    <col min="233" max="233" outlineLevel="1" hidden="1"/>
+    <col min="234" max="234" outlineLevel="1" hidden="1"/>
+    <col min="235" max="235" outlineLevel="1" hidden="1"/>
+    <col min="236" max="236" outlineLevel="1" hidden="1"/>
+    <col min="237" max="237" outlineLevel="1" hidden="1"/>
+    <col min="251" max="251" outlineLevel="1" hidden="1"/>
+    <col min="252" max="252" outlineLevel="1" hidden="1"/>
+    <col min="253" max="253" outlineLevel="1" hidden="1"/>
+    <col min="254" max="254" outlineLevel="1" hidden="1"/>
+    <col min="255" max="255" outlineLevel="1" hidden="1"/>
+    <col min="256" max="256" outlineLevel="1" hidden="1"/>
+    <col min="257" max="257" outlineLevel="1" hidden="1"/>
+    <col min="258" max="258" outlineLevel="1" hidden="1"/>
+    <col min="259" max="259" outlineLevel="1" hidden="1"/>
+    <col min="260" max="260" outlineLevel="1" hidden="1"/>
+    <col min="261" max="261" outlineLevel="1" hidden="1"/>
+    <col min="262" max="262" outlineLevel="1" hidden="1"/>
+    <col min="263" max="263" outlineLevel="1" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="175" customHeight="1">
@@ -4567,226 +4576,226 @@
         <v>700</v>
       </c>
       <c r="FQ1" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="FR1" s="11" t="s">
         <v>702</v>
       </c>
-      <c r="FR1" s="11" t="s">
+      <c r="FS1" s="11" t="s">
         <v>704</v>
       </c>
-      <c r="FS1" s="11" t="s">
-        <v>705</v>
-      </c>
       <c r="FT1" s="11" t="s">
+        <v>706</v>
+      </c>
+      <c r="FU1" s="11" t="s">
         <v>707</v>
       </c>
-      <c r="FU1" s="11" t="s">
+      <c r="FV1" s="11" t="s">
         <v>708</v>
       </c>
-      <c r="FV1" s="11" t="s">
-        <v>709</v>
-      </c>
       <c r="FW1" s="11" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="FX1" s="7" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="FY1" s="7" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="FZ1" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="GA1" s="7" t="s">
         <v>716</v>
       </c>
-      <c r="GA1" s="7" t="s">
+      <c r="GB1" s="7" t="s">
         <v>717</v>
       </c>
-      <c r="GB1" s="7" t="s">
+      <c r="GC1" s="7" t="s">
         <v>718</v>
       </c>
-      <c r="GC1" s="7" t="s">
+      <c r="GD1" s="7" t="s">
         <v>719</v>
       </c>
-      <c r="GD1" s="7" t="s">
+      <c r="GE1" s="7" t="s">
         <v>720</v>
       </c>
-      <c r="GE1" s="7" t="s">
+      <c r="GF1" s="7" t="s">
         <v>721</v>
       </c>
-      <c r="GF1" s="7" t="s">
-        <v>722</v>
-      </c>
       <c r="GG1" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="GH1" s="7" t="s">
         <v>724</v>
       </c>
-      <c r="GH1" s="7" t="s">
+      <c r="GI1" s="7" t="s">
         <v>725</v>
       </c>
-      <c r="GI1" s="7" t="s">
+      <c r="GJ1" s="7" t="s">
         <v>726</v>
       </c>
-      <c r="GJ1" s="7" t="s">
+      <c r="GK1" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="GK1" s="7" t="s">
+      <c r="GL1" s="7" t="s">
         <v>728</v>
       </c>
-      <c r="GL1" s="7" t="s">
+      <c r="GM1" s="7" t="s">
         <v>729</v>
       </c>
-      <c r="GM1" s="7" t="s">
+      <c r="GN1" s="7" t="s">
         <v>730</v>
       </c>
-      <c r="GN1" s="7" t="s">
-        <v>731</v>
-      </c>
       <c r="GO1" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="GP1" s="7" t="s">
         <v>733</v>
       </c>
-      <c r="GP1" s="7" t="s">
-        <v>734</v>
-      </c>
       <c r="GQ1" s="12" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="GR1" s="12" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="GS1" s="12" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="GT1" s="12" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="GU1" s="12" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="GV1" s="12" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="GW1" s="12" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="GX1" s="12" t="s">
+        <v>749</v>
+      </c>
+      <c r="GY1" s="12" t="s">
         <v>750</v>
       </c>
-      <c r="GY1" s="12" t="s">
-        <v>751</v>
-      </c>
       <c r="GZ1" s="12" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="HA1" s="12" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="HB1" s="12" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="HC1" s="12" t="s">
+        <v>758</v>
+      </c>
+      <c r="HD1" s="13" t="s">
         <v>759</v>
       </c>
-      <c r="HD1" s="13" t="s">
-        <v>760</v>
-      </c>
       <c r="HE1" s="13" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="HF1" s="13" t="s">
         <v>763</v>
       </c>
       <c r="HG1" s="13" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="HH1" s="13" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="HI1" s="13" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="HJ1" s="13" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="HK1" s="13" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="HL1" s="13" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="HM1" s="13" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="HN1" s="13" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="HO1" s="13" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="HP1" s="13" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="HQ1" s="14" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="HR1" s="14" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="HS1" s="14" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="HT1" s="14" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="HU1" s="14" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="HV1" s="14" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="HW1" s="14" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="HX1" s="14" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="HY1" s="14" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="HZ1" s="14" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="IA1" s="14" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="IB1" s="14" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="IC1" s="14" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="ID1" s="15" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="IE1" s="15" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="IF1" s="15" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="IG1" s="15" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="IH1" s="15" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="II1" s="15" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="IJ1" s="15" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="IK1" s="15" t="s">
         <v>810</v>
       </c>
       <c r="IL1" s="15" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="IM1" s="15" t="s">
         <v>813</v>
@@ -4798,490 +4807,490 @@
         <v>816</v>
       </c>
       <c r="IP1" s="15" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="IQ1" s="14" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="IR1" s="14" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="IS1" s="14" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="IT1" s="14" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="IU1" s="14" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="IV1" s="14" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="IW1" s="14" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="IX1" s="14" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="IY1" s="14" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="IZ1" s="14" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="JA1" s="14" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="JB1" s="14" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="JC1" s="14" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="JD1" s="16" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="JE1" s="16" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="JF1" s="16" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="JG1" s="16" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="JH1" s="16" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="JI1" s="16" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="JJ1" s="16" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="JK1" s="16" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="JL1" s="16" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="JM1" s="16" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="JN1" s="16" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="JO1" s="16" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="JP1" s="16" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="JQ1" s="16" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="JR1" s="16" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="JS1" s="16" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="JT1" s="16" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="JU1" s="16" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="JV1" s="16" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="JW1" s="16" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="JX1" s="16" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="JY1" s="16" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="JZ1" s="16" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="KA1" s="16" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="KB1" s="16" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="KC1" s="16" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="KD1" s="17" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="KE1" s="17" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="KF1" s="17" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="KG1" s="17" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="KH1" s="17" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="KI1" s="17" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="KJ1" s="17" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="KK1" s="17" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="KL1" s="17" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="KM1" s="17" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="KN1" s="17" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="KO1" s="17" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="KP1" s="17" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="KQ1" s="17" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="KR1" s="17" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="KS1" s="17" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="KT1" s="17" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="KU1" s="17" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="KV1" s="17" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="KW1" s="17" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="KX1" s="17" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="KY1" s="17" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="KZ1" s="17" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="LA1" s="17" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="LB1" s="17" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="LC1" s="17" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="LD1" s="7" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="LE1" s="7" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="LF1" s="7" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="LG1" s="7" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="LH1" s="7" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="LI1" s="7" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="LJ1" s="7" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="LK1" s="7" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="LL1" s="7" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="LM1" s="7" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="LN1" s="7" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="LO1" s="7" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="LP1" s="7" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="LQ1" s="7" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="LR1" s="7" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="LS1" s="7" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="LT1" s="7" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="LU1" s="7" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="LV1" s="7" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="LW1" s="7" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="LX1" s="7" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="LY1" s="8" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="LZ1" s="8" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="MA1" s="8" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="MB1" s="8" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="MC1" s="8" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="MD1" s="8" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="ME1" s="8" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="MF1" s="8" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="MG1" s="7" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="MH1" s="7" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="MI1" s="7" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="MJ1" s="7" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="MK1" s="7" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="ML1" s="7" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="MM1" s="7" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="MN1" s="7" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="MO1" s="7" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="MP1" s="7" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="MQ1" s="7" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="MR1" s="7" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="MS1" s="7" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="MT1" s="7" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="MU1" s="7" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="MV1" s="18" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="MW1" s="18" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="MX1" s="18" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="MY1" s="18" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="MZ1" s="18" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="NA1" s="18" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="NB1" s="18" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="NC1" s="18" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="ND1" s="18" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="NE1" s="18" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="NF1" s="18" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="NG1" s="18" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="NH1" s="18" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="NI1" s="16" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="NJ1" s="16" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="NK1" s="16" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="NL1" s="16" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="NM1" s="16" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="NN1" s="16" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="NO1" s="16" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="NP1" s="16" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="NQ1" s="16" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="NR1" s="16" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="NS1" s="16" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="NT1" s="16" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="NU1" s="16" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="NV1" s="18" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="NW1" s="18" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="NX1" s="18" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="NY1" s="18" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="NZ1" s="18" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="OA1" s="18" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="OB1" s="18" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="OC1" s="18" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="OD1" s="18" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="OE1" s="18" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="OF1" s="18" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="OG1" s="18" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="OH1" s="18" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="OI1" s="16" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="OJ1" s="16" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="OK1" s="16" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="OL1" s="16" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="OM1" s="16" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="ON1" s="16" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="OO1" s="16" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="OP1" s="16" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="OQ1" s="16" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="OR1" s="16" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="OS1" s="16" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="OT1" s="16" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="OU1" s="16" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="2">
@@ -5653,7 +5662,7 @@
         <v>59</v>
       </c>
       <c r="DV2" s="26" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="DW2" s="26" t="n">
         <v>67</v>
@@ -5677,16 +5686,16 @@
         <v>77</v>
       </c>
       <c r="ED2" s="26" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="EE2" s="26" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="EF2" s="26" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="EG2" s="26" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="EH2" s="26" t="n">
         <v>77</v>
@@ -5767,7 +5776,7 @@
         <v>52</v>
       </c>
       <c r="FH2" s="26" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="FI2" s="26" t="n">
         <v>68</v>
@@ -5791,16 +5800,16 @@
         <v>41</v>
       </c>
       <c r="FP2" s="26" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="FQ2" s="26" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="FR2" s="26" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="FS2" s="26" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="FT2" s="26" t="n">
         <v>80</v>
@@ -5932,13 +5941,13 @@
         <v>20</v>
       </c>
       <c r="HK2" s="26" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="HL2" s="26" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="HM2" s="26" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="HN2" s="26" t="n">
         <v>59</v>
@@ -6010,10 +6019,10 @@
         <v>38</v>
       </c>
       <c r="IK2" s="26" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="IL2" s="26" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="IM2" s="26" t="n">
         <v>20</v>
@@ -6088,13 +6097,13 @@
         <v>29</v>
       </c>
       <c r="JK2" s="26" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="JL2" s="26" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="JM2" s="26" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="JN2" s="26" t="n">
         <v>64</v>
@@ -6127,13 +6136,13 @@
         <v>21</v>
       </c>
       <c r="JX2" s="26" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="JY2" s="26" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="JZ2" s="26" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="KA2" s="26" t="n">
         <v>56</v>
@@ -6145,25 +6154,25 @@
         <v>86</v>
       </c>
       <c r="KD2" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="KE2" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="KF2" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="KG2" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="KH2" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="KI2" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="KJ2" s="26" t="n">
         <v>30</v>
-      </c>
-      <c r="KE2" s="26" t="n">
-        <v>45</v>
-      </c>
-      <c r="KF2" s="26" t="n">
-        <v>52</v>
-      </c>
-      <c r="KG2" s="26" t="n">
-        <v>32</v>
-      </c>
-      <c r="KH2" s="26" t="n">
-        <v>15</v>
-      </c>
-      <c r="KI2" s="26" t="n">
-        <v>37</v>
-      </c>
-      <c r="KJ2" s="26" t="n">
-        <v>43</v>
       </c>
       <c r="KK2" s="26" t="n">
         <v>84</v>
@@ -6175,34 +6184,34 @@
         <v>20</v>
       </c>
       <c r="KN2" s="26" t="n">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="KO2" s="26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="KP2" s="26" t="n">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="KQ2" s="26" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="KR2" s="26" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="KS2" s="26" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="KT2" s="26" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="KU2" s="26" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="KV2" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="KW2" s="26" t="n">
         <v>30</v>
-      </c>
-      <c r="KW2" s="26" t="n">
-        <v>37</v>
       </c>
       <c r="KX2" s="26" t="n">
         <v>84</v>
@@ -6214,13 +6223,13 @@
         <v>20</v>
       </c>
       <c r="LA2" s="26" t="n">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="LB2" s="26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="LC2" s="26" t="n">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="LD2" s="19" t="n">
         <v>693</v>
@@ -6918,10 +6927,10 @@
         <v>87</v>
       </c>
       <c r="EF3" s="26" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="EG3" s="26" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="EH3" s="26" t="n">
         <v>51</v>
@@ -7032,7 +7041,7 @@
         <v>88</v>
       </c>
       <c r="FR3" s="26" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="FS3" s="26" t="n">
         <v>90</v>
@@ -7167,13 +7176,13 @@
         <v>16</v>
       </c>
       <c r="HK3" s="26" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="HL3" s="26" t="n">
         <v>29</v>
       </c>
       <c r="HM3" s="26" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="HN3" s="26" t="n">
         <v>51</v>
@@ -7245,13 +7254,13 @@
         <v>14</v>
       </c>
       <c r="IK3" s="26" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="IL3" s="26" t="n">
         <v>38</v>
       </c>
       <c r="IM3" s="26" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="IN3" s="26" t="n">
         <v>56</v>
@@ -7323,13 +7332,13 @@
         <v>16</v>
       </c>
       <c r="JK3" s="26" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="JL3" s="26" t="n">
         <v>45</v>
       </c>
       <c r="JM3" s="26" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="JN3" s="26" t="n">
         <v>68</v>
@@ -7362,13 +7371,13 @@
         <v>15</v>
       </c>
       <c r="JX3" s="26" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="JY3" s="26" t="n">
         <v>36</v>
       </c>
       <c r="JZ3" s="26" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="KA3" s="26" t="n">
         <v>64</v>
@@ -7380,61 +7389,61 @@
         <v>93</v>
       </c>
       <c r="KD3" s="26" t="n">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="KE3" s="26" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="KF3" s="26" t="n">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="KG3" s="26" t="n">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="KH3" s="26" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="KI3" s="26" t="n">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="KJ3" s="26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="KK3" s="26" t="n">
         <v>79</v>
       </c>
       <c r="KL3" s="26" t="n">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="KM3" s="26" t="n">
         <v>28</v>
       </c>
       <c r="KN3" s="26" t="n">
+        <v>8</v>
+      </c>
+      <c r="KO3" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="KP3" s="26" t="n">
         <v>65</v>
       </c>
-      <c r="KO3" s="26" t="n">
-        <v>70</v>
-      </c>
-      <c r="KP3" s="26" t="n">
-        <v>87</v>
-      </c>
       <c r="KQ3" s="26" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="KR3" s="26" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="KS3" s="26" t="n">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="KT3" s="26" t="n">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="KU3" s="26" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="KV3" s="26" t="n">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="KW3" s="26" t="n">
         <v>13</v>
@@ -7443,19 +7452,19 @@
         <v>79</v>
       </c>
       <c r="KY3" s="26" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="KZ3" s="26" t="n">
         <v>28</v>
       </c>
       <c r="LA3" s="26" t="n">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="LB3" s="26" t="n">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="LC3" s="26" t="n">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="LD3" s="19" t="n">
         <v>1779.8</v>
@@ -8150,10 +8159,10 @@
         <v>66</v>
       </c>
       <c r="EE4" s="26" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="EF4" s="26" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="EG4" s="26" t="n">
         <v>87</v>
@@ -8267,7 +8276,7 @@
         <v>92</v>
       </c>
       <c r="FR4" s="26" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="FS4" s="26" t="n">
         <v>90</v>
@@ -8402,7 +8411,7 @@
         <v>53</v>
       </c>
       <c r="HK4" s="26" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="HL4" s="26" t="n">
         <v>40</v>
@@ -8417,7 +8426,7 @@
         <v>65</v>
       </c>
       <c r="HP4" s="26" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="HQ4" s="21" t="n">
         <v>8.4472588489961</v>
@@ -8558,7 +8567,7 @@
         <v>38</v>
       </c>
       <c r="JK4" s="26" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="JL4" s="26" t="n">
         <v>39</v>
@@ -8573,7 +8582,7 @@
         <v>46</v>
       </c>
       <c r="JP4" s="26" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="JQ4" s="26" t="n">
         <v>55</v>
@@ -8597,7 +8606,7 @@
         <v>38</v>
       </c>
       <c r="JX4" s="26" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="JY4" s="26" t="n">
         <v>36</v>
@@ -8612,82 +8621,82 @@
         <v>52</v>
       </c>
       <c r="KC4" s="26" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="KD4" s="26" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="KE4" s="26" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="KF4" s="26" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="KG4" s="26" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="KH4" s="26" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="KI4" s="26" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="KJ4" s="26" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="KK4" s="26" t="n">
         <v>48</v>
       </c>
       <c r="KL4" s="26" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="KM4" s="26" t="n">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="KN4" s="26" t="n">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="KO4" s="26" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="KP4" s="26" t="n">
         <v>86</v>
       </c>
       <c r="KQ4" s="26" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="KR4" s="26" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="KS4" s="26" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="KT4" s="26" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="KU4" s="26" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="KV4" s="26" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="KW4" s="26" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="KX4" s="26" t="n">
         <v>48</v>
       </c>
       <c r="KY4" s="26" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="KZ4" s="26" t="n">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="LA4" s="26" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="LB4" s="26" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="LC4" s="26" t="n">
         <v>86</v>
@@ -9388,7 +9397,7 @@
         <v>85</v>
       </c>
       <c r="EF5" s="26" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="EG5" s="26" t="n">
         <v>88</v>
@@ -9502,7 +9511,7 @@
         <v>85</v>
       </c>
       <c r="FR5" s="26" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="FS5" s="26" t="n">
         <v>85</v>
@@ -9646,13 +9655,13 @@
         <v>97</v>
       </c>
       <c r="HN5" s="26" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="HO5" s="26" t="n">
         <v>66</v>
       </c>
       <c r="HP5" s="26" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="HQ5" s="21" t="n">
         <v>8.4472588489961</v>
@@ -9724,13 +9733,13 @@
         <v>89</v>
       </c>
       <c r="IN5" s="26" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="IO5" s="26" t="n">
         <v>47</v>
       </c>
       <c r="IP5" s="26" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="IQ5" s="21" t="n">
         <v>12.3057217864917</v>
@@ -9802,13 +9811,13 @@
         <v>69</v>
       </c>
       <c r="JN5" s="26" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="JO5" s="26" t="n">
         <v>37</v>
       </c>
       <c r="JP5" s="26" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="JQ5" s="26" t="n">
         <v>56</v>
@@ -9841,88 +9850,88 @@
         <v>60</v>
       </c>
       <c r="KA5" s="26" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="KB5" s="26" t="n">
         <v>20</v>
       </c>
       <c r="KC5" s="26" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="KD5" s="26" t="n">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="KE5" s="26" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="KF5" s="26" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="KG5" s="26" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="KH5" s="26" t="n">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="KI5" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="KJ5" s="26" t="n">
+        <v>15</v>
+      </c>
+      <c r="KK5" s="26" t="n">
         <v>45</v>
       </c>
-      <c r="KJ5" s="26" t="n">
-        <v>39</v>
-      </c>
-      <c r="KK5" s="26" t="n">
-        <v>53</v>
-      </c>
       <c r="KL5" s="26" t="n">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="KM5" s="26" t="n">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="KN5" s="26" t="n">
         <v>99</v>
       </c>
       <c r="KO5" s="26" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="KP5" s="26" t="n">
         <v>95</v>
       </c>
       <c r="KQ5" s="26" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="KR5" s="26" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="KS5" s="26" t="n">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="KT5" s="26" t="n">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="KU5" s="26" t="n">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="KV5" s="26" t="n">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="KW5" s="26" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="KX5" s="26" t="n">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="KY5" s="26" t="n">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="KZ5" s="26" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="LA5" s="26" t="n">
         <v>99</v>
       </c>
       <c r="LB5" s="26" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="LC5" s="26" t="n">
         <v>95</v>
@@ -10620,10 +10629,10 @@
         <v>51</v>
       </c>
       <c r="EE6" s="26" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="EF6" s="26" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="EG6" s="26" t="n">
         <v>87</v>
@@ -10737,7 +10746,7 @@
         <v>84</v>
       </c>
       <c r="FR6" s="26" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="FS6" s="26" t="n">
         <v>83</v>
@@ -10881,13 +10890,13 @@
         <v>99</v>
       </c>
       <c r="HN6" s="26" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="HO6" s="26" t="n">
         <v>86</v>
       </c>
       <c r="HP6" s="26" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="HQ6" s="21" t="n">
         <v>8.4472588489961</v>
@@ -10959,13 +10968,13 @@
         <v>99</v>
       </c>
       <c r="IN6" s="26" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="IO6" s="26" t="n">
         <v>75</v>
       </c>
       <c r="IP6" s="26" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="IQ6" s="21" t="n">
         <v>12.3057217864917</v>
@@ -11037,13 +11046,13 @@
         <v>99</v>
       </c>
       <c r="JN6" s="26" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="JO6" s="26" t="n">
         <v>97</v>
       </c>
       <c r="JP6" s="26" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="JQ6" s="26" t="n">
         <v>98</v>
@@ -11076,88 +11085,88 @@
         <v>98</v>
       </c>
       <c r="KA6" s="26" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="KB6" s="26" t="n">
         <v>96</v>
       </c>
       <c r="KC6" s="26" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="KD6" s="26" t="n">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="KE6" s="26" t="n">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="KF6" s="26" t="n">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="KG6" s="26" t="n">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="KH6" s="26" t="n">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="KI6" s="26" t="n">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="KJ6" s="26" t="n">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="KK6" s="26" t="n">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="KL6" s="26" t="n">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="KM6" s="26" t="n">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="KN6" s="26" t="n">
         <v>99</v>
       </c>
       <c r="KO6" s="26" t="n">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="KP6" s="26" t="n">
         <v>95</v>
       </c>
       <c r="KQ6" s="26" t="n">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="KR6" s="26" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="KS6" s="26" t="n">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="KT6" s="26" t="n">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="KU6" s="26" t="n">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="KV6" s="26" t="n">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="KW6" s="26" t="n">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="KX6" s="26" t="n">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="KY6" s="26" t="n">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="KZ6" s="26" t="n">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="LA6" s="26" t="n">
         <v>99</v>
       </c>
       <c r="LB6" s="26" t="n">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="LC6" s="26" t="n">
         <v>95</v>
@@ -11858,7 +11867,7 @@
         <v>86</v>
       </c>
       <c r="EF7" s="26" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="EG7" s="26" t="n">
         <v>98</v>
@@ -11972,7 +11981,7 @@
         <v>95</v>
       </c>
       <c r="FR7" s="26" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="FS7" s="26" t="n">
         <v>96</v>
@@ -12122,7 +12131,7 @@
         <v>65</v>
       </c>
       <c r="HP7" s="26" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="HQ7" s="21" t="n">
         <v>8.4472588489961</v>
@@ -12200,7 +12209,7 @@
         <v>64</v>
       </c>
       <c r="IP7" s="26" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="IQ7" s="21" t="n">
         <v>7.63995881566755</v>
@@ -12278,7 +12287,7 @@
         <v>86</v>
       </c>
       <c r="JP7" s="26" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="JQ7" s="26" t="n">
         <v>79</v>
@@ -12317,82 +12326,82 @@
         <v>87</v>
       </c>
       <c r="KC7" s="26" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="KD7" s="26" t="n">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="KE7" s="26" t="n">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="KF7" s="26" t="n">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="KG7" s="26" t="n">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="KH7" s="26" t="n">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="KI7" s="26" t="n">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="KJ7" s="26" t="n">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="KK7" s="26" t="n">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="KL7" s="26" t="n">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="KM7" s="26" t="n">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="KN7" s="26" t="n">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="KO7" s="26" t="n">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="KP7" s="26" t="n">
         <v>54</v>
       </c>
       <c r="KQ7" s="26" t="n">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="KR7" s="26" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="KS7" s="26" t="n">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="KT7" s="26" t="n">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="KU7" s="26" t="n">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="KV7" s="26" t="n">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="KW7" s="26" t="n">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="KX7" s="26" t="n">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="KY7" s="26" t="n">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="KZ7" s="26" t="n">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="LA7" s="26" t="n">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="LB7" s="26" t="n">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="LC7" s="26" t="n">
         <v>54</v>
@@ -13093,7 +13102,7 @@
         <v>87</v>
       </c>
       <c r="EF8" s="26" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="EG8" s="26" t="n">
         <v>85</v>
@@ -13207,7 +13216,7 @@
         <v>87</v>
       </c>
       <c r="FR8" s="26" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="FS8" s="26" t="n">
         <v>81</v>
@@ -13351,13 +13360,13 @@
         <v>80</v>
       </c>
       <c r="HN8" s="26" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="HO8" s="26" t="n">
         <v>73</v>
       </c>
       <c r="HP8" s="26" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="HQ8" s="21" t="n">
         <v>8.4472588489961</v>
@@ -13429,13 +13438,13 @@
         <v>35</v>
       </c>
       <c r="IN8" s="26" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="IO8" s="26" t="n">
         <v>53</v>
       </c>
       <c r="IP8" s="26" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="IQ8" s="21" t="n">
         <v>12.3057217864917</v>
@@ -13507,13 +13516,13 @@
         <v>85</v>
       </c>
       <c r="JN8" s="26" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="JO8" s="26" t="n">
         <v>85</v>
       </c>
       <c r="JP8" s="26" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="JQ8" s="26" t="n">
         <v>90</v>
@@ -13546,88 +13555,88 @@
         <v>82</v>
       </c>
       <c r="KA8" s="26" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="KB8" s="26" t="n">
         <v>77</v>
       </c>
       <c r="KC8" s="26" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="KD8" s="26" t="n">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="KE8" s="26" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="KF8" s="26" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="KG8" s="26" t="n">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="KH8" s="26" t="n">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="KI8" s="26" t="n">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="KJ8" s="26" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="KK8" s="26" t="n">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="KL8" s="26" t="n">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="KM8" s="26" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="KN8" s="26" t="n">
         <v>99</v>
       </c>
       <c r="KO8" s="26" t="n">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="KP8" s="26" t="n">
         <v>95</v>
       </c>
       <c r="KQ8" s="26" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="KR8" s="26" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="KS8" s="26" t="n">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="KT8" s="26" t="n">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="KU8" s="26" t="n">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="KV8" s="26" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="KW8" s="26" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="KX8" s="26" t="n">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="KY8" s="26" t="n">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="KZ8" s="26" t="n">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="LA8" s="26" t="n">
         <v>99</v>
       </c>
       <c r="LB8" s="26" t="n">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="LC8" s="26" t="n">
         <v>95</v>
@@ -14325,10 +14334,10 @@
         <v>67</v>
       </c>
       <c r="EE9" s="26" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="EF9" s="26" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="EG9" s="26" t="n">
         <v>85</v>
@@ -14442,7 +14451,7 @@
         <v>70</v>
       </c>
       <c r="FR9" s="26" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="FS9" s="26" t="n">
         <v>84</v>
@@ -14577,7 +14586,7 @@
         <v>40</v>
       </c>
       <c r="HK9" s="26" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="HL9" s="26" t="n">
         <v>96</v>
@@ -14655,7 +14664,7 @@
         <v>34</v>
       </c>
       <c r="IK9" s="26" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="IL9" s="26" t="n">
         <v>98</v>
@@ -14733,7 +14742,7 @@
         <v>31</v>
       </c>
       <c r="JK9" s="26" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="JL9" s="26" t="n">
         <v>59</v>
@@ -14772,7 +14781,7 @@
         <v>35</v>
       </c>
       <c r="JX9" s="26" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="JY9" s="26" t="n">
         <v>75</v>
@@ -14790,82 +14799,82 @@
         <v>80</v>
       </c>
       <c r="KD9" s="26" t="n">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="KE9" s="26" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="KF9" s="26" t="n">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="KG9" s="26" t="n">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="KH9" s="26" t="n">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="KI9" s="26" t="n">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="KJ9" s="26" t="n">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="KK9" s="26" t="n">
         <v>51</v>
       </c>
       <c r="KL9" s="26" t="n">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="KM9" s="26" t="n">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="KN9" s="26" t="n">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="KO9" s="26" t="n">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="KP9" s="26" t="n">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="KQ9" s="26" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="KR9" s="26" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="KS9" s="26" t="n">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="KT9" s="26" t="n">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="KU9" s="26" t="n">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="KV9" s="26" t="n">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="KW9" s="26" t="n">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="KX9" s="26" t="n">
         <v>50</v>
       </c>
       <c r="KY9" s="26" t="n">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="KZ9" s="26" t="n">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="LA9" s="26" t="n">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="LB9" s="26" t="n">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="LC9" s="26" t="n">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="LD9" s="19" t="n">
         <v>1169.1</v>
@@ -15563,7 +15572,7 @@
         <v>89</v>
       </c>
       <c r="EF10" s="26" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="EG10" s="26" t="n">
         <v>87</v>
@@ -16022,85 +16031,85 @@
         <v>74</v>
       </c>
       <c r="KC10" s="26" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="KD10" s="26" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="KE10" s="26" t="n">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="KF10" s="26" t="n">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="KG10" s="26" t="n">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="KH10" s="26" t="n">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="KI10" s="26" t="n">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="KJ10" s="26" t="n">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="KK10" s="26" t="n">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="KL10" s="26" t="n">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="KM10" s="26" t="n">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="KN10" s="26" t="n">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="KO10" s="26" t="n">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="KP10" s="26" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="KQ10" s="26" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="KR10" s="26" t="n">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="KS10" s="26" t="n">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="KT10" s="26" t="n">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="KU10" s="26" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="KV10" s="26" t="n">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="KW10" s="26" t="n">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="KX10" s="26" t="n">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="KY10" s="26" t="n">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="KZ10" s="26" t="n">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="LA10" s="26" t="n">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="LB10" s="26" t="n">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="LC10" s="26" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="LD10" s="19" t="n">
         <v>2901.1</v>
@@ -16795,13 +16804,13 @@
         <v>65</v>
       </c>
       <c r="EE11" s="26" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="EF11" s="26" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="EG11" s="26" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="EH11" s="26" t="n">
         <v>27</v>
@@ -16909,13 +16918,13 @@
         <v>46</v>
       </c>
       <c r="FQ11" s="26" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="FR11" s="26" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="FS11" s="26" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="FT11" s="26" t="n">
         <v>36</v>
@@ -17047,10 +17056,10 @@
         <v>69</v>
       </c>
       <c r="HK11" s="26" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="HL11" s="26" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="HM11" s="26" t="n">
         <v>30</v>
@@ -17062,7 +17071,7 @@
         <v>74</v>
       </c>
       <c r="HP11" s="26" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="HQ11" s="21" t="n">
         <v>8.4472588489961</v>
@@ -17128,7 +17137,7 @@
         <v>8</v>
       </c>
       <c r="IL11" s="26" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="IM11" s="26" t="n">
         <v>13</v>
@@ -17140,7 +17149,7 @@
         <v>76</v>
       </c>
       <c r="IP11" s="26" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="IQ11" s="21" t="n">
         <v>7.63995881566755</v>
@@ -17206,7 +17215,7 @@
         <v>57</v>
       </c>
       <c r="JL11" s="26" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="JM11" s="26" t="n">
         <v>22</v>
@@ -17218,7 +17227,7 @@
         <v>39</v>
       </c>
       <c r="JP11" s="26" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="JQ11" s="26" t="n">
         <v>16</v>
@@ -17242,10 +17251,10 @@
         <v>40</v>
       </c>
       <c r="JX11" s="26" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="JY11" s="26" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="JZ11" s="26" t="n">
         <v>19</v>
@@ -17257,28 +17266,28 @@
         <v>46</v>
       </c>
       <c r="KC11" s="26" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="KD11" s="26" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="KE11" s="26" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="KF11" s="26" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="KG11" s="26" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="KH11" s="26" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="KI11" s="26" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="KJ11" s="26" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="KK11" s="26" t="n">
         <v>9</v>
@@ -17287,37 +17296,37 @@
         <v>31</v>
       </c>
       <c r="KM11" s="26" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="KN11" s="26" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="KO11" s="26" t="n">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="KP11" s="26" t="n">
         <v>54</v>
       </c>
       <c r="KQ11" s="26" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="KR11" s="26" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="KS11" s="26" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="KT11" s="26" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="KU11" s="26" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="KV11" s="26" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="KW11" s="26" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="KX11" s="26" t="n">
         <v>8</v>
@@ -17326,13 +17335,13 @@
         <v>30</v>
       </c>
       <c r="KZ11" s="26" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="LA11" s="26" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="LB11" s="26" t="n">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="LC11" s="26" t="n">
         <v>54</v>
@@ -18458,226 +18467,226 @@
         <v>700</v>
       </c>
       <c r="FQ1" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="FR1" s="11" t="s">
         <v>702</v>
       </c>
-      <c r="FR1" s="11" t="s">
+      <c r="FS1" s="11" t="s">
         <v>704</v>
       </c>
-      <c r="FS1" s="11" t="s">
-        <v>705</v>
-      </c>
       <c r="FT1" s="11" t="s">
+        <v>706</v>
+      </c>
+      <c r="FU1" s="11" t="s">
         <v>707</v>
       </c>
-      <c r="FU1" s="11" t="s">
+      <c r="FV1" s="11" t="s">
         <v>708</v>
       </c>
-      <c r="FV1" s="11" t="s">
-        <v>709</v>
-      </c>
       <c r="FW1" s="11" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="FX1" s="7" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="FY1" s="7" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="FZ1" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="GA1" s="7" t="s">
         <v>716</v>
       </c>
-      <c r="GA1" s="7" t="s">
+      <c r="GB1" s="7" t="s">
         <v>717</v>
       </c>
-      <c r="GB1" s="7" t="s">
+      <c r="GC1" s="7" t="s">
         <v>718</v>
       </c>
-      <c r="GC1" s="7" t="s">
+      <c r="GD1" s="7" t="s">
         <v>719</v>
       </c>
-      <c r="GD1" s="7" t="s">
+      <c r="GE1" s="7" t="s">
         <v>720</v>
       </c>
-      <c r="GE1" s="7" t="s">
+      <c r="GF1" s="7" t="s">
         <v>721</v>
       </c>
-      <c r="GF1" s="7" t="s">
-        <v>722</v>
-      </c>
       <c r="GG1" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="GH1" s="7" t="s">
         <v>724</v>
       </c>
-      <c r="GH1" s="7" t="s">
+      <c r="GI1" s="7" t="s">
         <v>725</v>
       </c>
-      <c r="GI1" s="7" t="s">
+      <c r="GJ1" s="7" t="s">
         <v>726</v>
       </c>
-      <c r="GJ1" s="7" t="s">
+      <c r="GK1" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="GK1" s="7" t="s">
+      <c r="GL1" s="7" t="s">
         <v>728</v>
       </c>
-      <c r="GL1" s="7" t="s">
+      <c r="GM1" s="7" t="s">
         <v>729</v>
       </c>
-      <c r="GM1" s="7" t="s">
+      <c r="GN1" s="7" t="s">
         <v>730</v>
       </c>
-      <c r="GN1" s="7" t="s">
-        <v>731</v>
-      </c>
       <c r="GO1" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="GP1" s="7" t="s">
         <v>733</v>
       </c>
-      <c r="GP1" s="7" t="s">
-        <v>734</v>
-      </c>
       <c r="GQ1" s="12" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="GR1" s="12" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="GS1" s="12" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="GT1" s="12" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="GU1" s="12" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="GV1" s="12" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="GW1" s="12" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="GX1" s="12" t="s">
+        <v>749</v>
+      </c>
+      <c r="GY1" s="12" t="s">
         <v>750</v>
       </c>
-      <c r="GY1" s="12" t="s">
-        <v>751</v>
-      </c>
       <c r="GZ1" s="12" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="HA1" s="12" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="HB1" s="12" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="HC1" s="12" t="s">
+        <v>758</v>
+      </c>
+      <c r="HD1" s="13" t="s">
         <v>759</v>
       </c>
-      <c r="HD1" s="13" t="s">
-        <v>760</v>
-      </c>
       <c r="HE1" s="13" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="HF1" s="13" t="s">
         <v>763</v>
       </c>
       <c r="HG1" s="13" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="HH1" s="13" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="HI1" s="13" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="HJ1" s="13" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="HK1" s="13" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="HL1" s="13" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="HM1" s="13" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="HN1" s="13" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="HO1" s="13" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="HP1" s="13" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="HQ1" s="14" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="HR1" s="14" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="HS1" s="14" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="HT1" s="14" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="HU1" s="14" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="HV1" s="14" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="HW1" s="14" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="HX1" s="14" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="HY1" s="14" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="HZ1" s="14" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="IA1" s="14" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="IB1" s="14" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="IC1" s="14" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="ID1" s="15" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="IE1" s="15" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="IF1" s="15" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="IG1" s="15" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="IH1" s="15" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="II1" s="15" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="IJ1" s="15" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="IK1" s="15" t="s">
         <v>810</v>
       </c>
       <c r="IL1" s="15" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="IM1" s="15" t="s">
         <v>813</v>
@@ -18689,490 +18698,490 @@
         <v>816</v>
       </c>
       <c r="IP1" s="15" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="IQ1" s="14" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="IR1" s="14" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="IS1" s="14" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="IT1" s="14" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="IU1" s="14" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="IV1" s="14" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="IW1" s="14" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="IX1" s="14" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="IY1" s="14" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="IZ1" s="14" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="JA1" s="14" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="JB1" s="14" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="JC1" s="14" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="JD1" s="16" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="JE1" s="16" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="JF1" s="16" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="JG1" s="16" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="JH1" s="16" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="JI1" s="16" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="JJ1" s="16" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="JK1" s="16" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="JL1" s="16" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="JM1" s="16" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="JN1" s="16" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="JO1" s="16" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="JP1" s="16" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="JQ1" s="16" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="JR1" s="16" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="JS1" s="16" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="JT1" s="16" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="JU1" s="16" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="JV1" s="16" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="JW1" s="16" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="JX1" s="16" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="JY1" s="16" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="JZ1" s="16" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="KA1" s="16" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="KB1" s="16" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="KC1" s="16" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="KD1" s="17" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="KE1" s="17" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="KF1" s="17" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="KG1" s="17" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="KH1" s="17" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="KI1" s="17" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="KJ1" s="17" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="KK1" s="17" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="KL1" s="17" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="KM1" s="17" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="KN1" s="17" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="KO1" s="17" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="KP1" s="17" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="KQ1" s="17" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="KR1" s="17" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="KS1" s="17" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="KT1" s="17" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="KU1" s="17" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="KV1" s="17" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="KW1" s="17" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="KX1" s="17" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="KY1" s="17" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="KZ1" s="17" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="LA1" s="17" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="LB1" s="17" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="LC1" s="17" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="LD1" s="7" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="LE1" s="7" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="LF1" s="7" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="LG1" s="7" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="LH1" s="7" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="LI1" s="7" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="LJ1" s="7" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="LK1" s="7" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="LL1" s="7" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="LM1" s="7" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="LN1" s="7" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="LO1" s="7" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="LP1" s="7" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="LQ1" s="7" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="LR1" s="7" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="LS1" s="7" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="LT1" s="7" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="LU1" s="7" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="LV1" s="7" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="LW1" s="7" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="LX1" s="7" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="LY1" s="8" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="LZ1" s="8" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="MA1" s="8" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="MB1" s="8" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="MC1" s="8" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="MD1" s="8" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="ME1" s="8" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="MF1" s="8" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="MG1" s="7" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="MH1" s="7" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="MI1" s="7" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="MJ1" s="7" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="MK1" s="7" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="ML1" s="7" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="MM1" s="7" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="MN1" s="7" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="MO1" s="7" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="MP1" s="7" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="MQ1" s="7" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="MR1" s="7" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="MS1" s="7" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="MT1" s="7" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="MU1" s="7" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="MV1" s="18" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="MW1" s="18" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="MX1" s="18" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="MY1" s="18" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="MZ1" s="18" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="NA1" s="18" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="NB1" s="18" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="NC1" s="18" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="ND1" s="18" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="NE1" s="18" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="NF1" s="18" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="NG1" s="18" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="NH1" s="18" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="NI1" s="16" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="NJ1" s="16" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="NK1" s="16" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="NL1" s="16" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="NM1" s="16" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="NN1" s="16" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="NO1" s="16" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="NP1" s="16" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="NQ1" s="16" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="NR1" s="16" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="NS1" s="16" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="NT1" s="16" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="NU1" s="16" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="NV1" s="18" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="NW1" s="18" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="NX1" s="18" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="NY1" s="18" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="NZ1" s="18" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="OA1" s="18" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="OB1" s="18" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="OC1" s="18" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="OD1" s="18" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="OE1" s="18" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="OF1" s="18" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="OG1" s="18" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="OH1" s="18" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="OI1" s="16" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="OJ1" s="16" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="OK1" s="16" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="OL1" s="16" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="OM1" s="16" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="ON1" s="16" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="OO1" s="16" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="OP1" s="16" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="OQ1" s="16" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="OR1" s="16" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="OS1" s="16" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="OT1" s="16" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="OU1" s="16" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="2">
@@ -19654,7 +19663,7 @@
         <v>59.0205099811308</v>
       </c>
       <c r="FH2" s="26" t="n">
-        <v>71.5754327222794</v>
+        <v>70.7095185193573</v>
       </c>
       <c r="FI2" s="26" t="n">
         <v>63.7973759525493</v>
@@ -19678,16 +19687,16 @@
         <v>67.1678185266285</v>
       </c>
       <c r="FP2" s="26" t="n">
-        <v>58.2837747472087</v>
+        <v>57.6216050626212</v>
       </c>
       <c r="FQ2" s="26" t="n">
-        <v>88.3891025862614</v>
+        <v>84.9423601169581</v>
       </c>
       <c r="FR2" s="26" t="n">
-        <v>92.0203633663237</v>
+        <v>5.02618445096331</v>
       </c>
       <c r="FS2" s="26" t="n">
-        <v>88.6790017796415</v>
+        <v>85.612347469941</v>
       </c>
       <c r="FT2" s="26" t="n">
         <v>68.8657580521925</v>
@@ -19897,22 +19906,22 @@
         <v>46.4249874543021</v>
       </c>
       <c r="IK2" s="26" t="n">
-        <v>75.101598697393</v>
+        <v>69.7121730817598</v>
       </c>
       <c r="IL2" s="26" t="n">
-        <v>83.3927393486727</v>
+        <v>82.3314591272486</v>
       </c>
       <c r="IM2" s="26" t="n">
-        <v>79.9056378757302</v>
+        <v>79.1870584420925</v>
       </c>
       <c r="IN2" s="26" t="n">
-        <v>91.1580370542105</v>
+        <v>47.1976415279885</v>
       </c>
       <c r="IO2" s="26" t="n">
         <v>60.1564576670604</v>
       </c>
       <c r="IP2" s="26" t="n">
-        <v>78.4337783827791</v>
+        <v>15.7249929374575</v>
       </c>
       <c r="IQ2" s="21" t="n">
         <v>9.73839662456579</v>
@@ -20032,82 +20041,82 @@
         <v>73</v>
       </c>
       <c r="KD2" s="26" t="n">
-        <v>71.1230247230709</v>
+        <v>1.42593151062123</v>
       </c>
       <c r="KE2" s="26" t="n">
-        <v>61.6424815807699</v>
+        <v>1.49206551655496</v>
       </c>
       <c r="KF2" s="26" t="n">
-        <v>71.3853758285823</v>
+        <v>1.49206551655496</v>
       </c>
       <c r="KG2" s="26" t="n">
-        <v>73.0174096143554</v>
+        <v>1.0458469269894</v>
       </c>
       <c r="KH2" s="26" t="n">
-        <v>73.4761464860722</v>
+        <v>1.42593151062123</v>
       </c>
       <c r="KI2" s="26" t="n">
-        <v>68.6509012042678</v>
+        <v>1.0458469269894</v>
       </c>
       <c r="KJ2" s="26" t="n">
-        <v>55.6357390876268</v>
+        <v>11.5160179656778</v>
       </c>
       <c r="KK2" s="26" t="n">
-        <v>75.3313530401117</v>
+        <v>32.9054340453886</v>
       </c>
       <c r="KL2" s="26" t="n">
-        <v>75.4898800023363</v>
+        <v>24.1027108243447</v>
       </c>
       <c r="KM2" s="26" t="n">
-        <v>72.3067444003276</v>
+        <v>6.33292765930056</v>
       </c>
       <c r="KN2" s="26" t="n">
-        <v>88.3597539970415</v>
+        <v>53.513294863833</v>
       </c>
       <c r="KO2" s="26" t="n">
-        <v>63.2454635829083</v>
+        <v>10.6716400475366</v>
       </c>
       <c r="KP2" s="26" t="n">
-        <v>77.7321776590026</v>
+        <v>76.6049577260639</v>
       </c>
       <c r="KQ2" s="26" t="n">
-        <v>70.1662462914202</v>
+        <v>0.954153073010598</v>
       </c>
       <c r="KR2" s="26" t="n">
-        <v>60.6906481208869</v>
+        <v>0.124714965319042</v>
       </c>
       <c r="KS2" s="26" t="n">
-        <v>70.998886681058</v>
+        <v>1</v>
       </c>
       <c r="KT2" s="26" t="n">
-        <v>73.3809738083971</v>
+        <v>1</v>
       </c>
       <c r="KU2" s="26" t="n">
-        <v>72.7033267257337</v>
+        <v>1</v>
       </c>
       <c r="KV2" s="26" t="n">
-        <v>68.4859035226889</v>
+        <v>1</v>
       </c>
       <c r="KW2" s="26" t="n">
-        <v>53.3864718636649</v>
+        <v>11.5160179656778</v>
       </c>
       <c r="KX2" s="26" t="n">
-        <v>74.687762908361</v>
+        <v>32.0354581355126</v>
       </c>
       <c r="KY2" s="26" t="n">
-        <v>75.0958372122684</v>
+        <v>23.2072424138757</v>
       </c>
       <c r="KZ2" s="26" t="n">
-        <v>72.8775444522983</v>
+        <v>5.39681774349084</v>
       </c>
       <c r="LA2" s="26" t="n">
-        <v>89.743682153402</v>
+        <v>53.0415164262224</v>
       </c>
       <c r="LB2" s="26" t="n">
-        <v>63.2102134497034</v>
+        <v>10.2457085369153</v>
       </c>
       <c r="LC2" s="26" t="n">
-        <v>77.6277378527248</v>
+        <v>76.6049577260639</v>
       </c>
       <c r="LD2" s="19" t="n">
         <v>52030.1</v>
@@ -21935,34 +21944,34 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
+        <v>647</v>
+      </c>
+      <c r="B174" t="s">
         <v>701</v>
-      </c>
-      <c r="B174" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>703</v>
+        <v>566</v>
       </c>
       <c r="B175" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>633</v>
+        <v>703</v>
       </c>
       <c r="B176" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
+        <v>705</v>
+      </c>
+      <c r="B177" t="s">
         <v>706</v>
-      </c>
-      <c r="B177" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="178">
@@ -21970,7 +21979,7 @@
         <v>656</v>
       </c>
       <c r="B178" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="179">
@@ -21978,39 +21987,39 @@
         <v>619</v>
       </c>
       <c r="B179" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
+        <v>709</v>
+      </c>
+      <c r="B180" t="s">
         <v>710</v>
-      </c>
-      <c r="B180" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
+        <v>711</v>
+      </c>
+      <c r="B181" t="s">
         <v>712</v>
-      </c>
-      <c r="B181" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B182" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
+        <v>714</v>
+      </c>
+      <c r="B183" t="s">
         <v>715</v>
-      </c>
-      <c r="B183" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="184">
@@ -22018,7 +22027,7 @@
         <v>447</v>
       </c>
       <c r="B184" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="185">
@@ -22026,7 +22035,7 @@
         <v>552</v>
       </c>
       <c r="B185" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="186">
@@ -22034,7 +22043,7 @@
         <v>554</v>
       </c>
       <c r="B186" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="187">
@@ -22042,7 +22051,7 @@
         <v>566</v>
       </c>
       <c r="B187" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="188">
@@ -22050,7 +22059,7 @@
         <v>550</v>
       </c>
       <c r="B188" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="189">
@@ -22058,15 +22067,15 @@
         <v>619</v>
       </c>
       <c r="B189" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
+        <v>722</v>
+      </c>
+      <c r="B190" t="s">
         <v>723</v>
-      </c>
-      <c r="B190" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="191">
@@ -22074,7 +22083,7 @@
         <v>561</v>
       </c>
       <c r="B191" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="192">
@@ -22082,7 +22091,7 @@
         <v>3</v>
       </c>
       <c r="B192" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="193">
@@ -22090,7 +22099,7 @@
         <v>496</v>
       </c>
       <c r="B193" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="194">
@@ -22098,7 +22107,7 @@
         <v>496</v>
       </c>
       <c r="B194" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="195">
@@ -22106,7 +22115,7 @@
         <v>7</v>
       </c>
       <c r="B195" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="196">
@@ -22114,7 +22123,7 @@
         <v>678</v>
       </c>
       <c r="B196" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="197">
@@ -22122,15 +22131,15 @@
         <v>619</v>
       </c>
       <c r="B197" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
+        <v>731</v>
+      </c>
+      <c r="B198" t="s">
         <v>732</v>
-      </c>
-      <c r="B198" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="199">
@@ -22138,71 +22147,71 @@
         <v>611</v>
       </c>
       <c r="B199" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
+        <v>734</v>
+      </c>
+      <c r="B200" t="s">
         <v>735</v>
-      </c>
-      <c r="B200" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
+        <v>736</v>
+      </c>
+      <c r="B201" t="s">
         <v>737</v>
-      </c>
-      <c r="B201" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
+        <v>738</v>
+      </c>
+      <c r="B202" t="s">
         <v>739</v>
-      </c>
-      <c r="B202" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
+        <v>740</v>
+      </c>
+      <c r="B203" t="s">
         <v>741</v>
-      </c>
-      <c r="B203" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
+        <v>742</v>
+      </c>
+      <c r="B204" t="s">
         <v>743</v>
-      </c>
-      <c r="B204" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
+        <v>744</v>
+      </c>
+      <c r="B205" t="s">
         <v>745</v>
-      </c>
-      <c r="B205" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
+        <v>746</v>
+      </c>
+      <c r="B206" t="s">
         <v>747</v>
-      </c>
-      <c r="B206" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
+        <v>748</v>
+      </c>
+      <c r="B207" t="s">
         <v>749</v>
-      </c>
-      <c r="B207" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="208">
@@ -22210,39 +22219,39 @@
         <v>504</v>
       </c>
       <c r="B208" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
+        <v>751</v>
+      </c>
+      <c r="B209" t="s">
         <v>752</v>
-      </c>
-      <c r="B209" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
+        <v>753</v>
+      </c>
+      <c r="B210" t="s">
         <v>754</v>
-      </c>
-      <c r="B210" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
+        <v>755</v>
+      </c>
+      <c r="B211" t="s">
         <v>756</v>
-      </c>
-      <c r="B211" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
+        <v>757</v>
+      </c>
+      <c r="B212" t="s">
         <v>758</v>
-      </c>
-      <c r="B212" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="213">
@@ -22250,20 +22259,20 @@
         <v>633</v>
       </c>
       <c r="B213" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
+        <v>760</v>
+      </c>
+      <c r="B214" t="s">
         <v>761</v>
-      </c>
-      <c r="B214" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>701</v>
+        <v>762</v>
       </c>
       <c r="B215" t="s">
         <v>763</v>
@@ -22271,10 +22280,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>703</v>
+        <v>764</v>
       </c>
       <c r="B216" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="217">
@@ -22282,7 +22291,7 @@
         <v>628</v>
       </c>
       <c r="B217" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="218">
@@ -22290,15 +22299,15 @@
         <v>633</v>
       </c>
       <c r="B218" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B219" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="220">
@@ -22306,7 +22315,7 @@
         <v>651</v>
       </c>
       <c r="B220" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="221">
@@ -22314,7 +22323,7 @@
         <v>651</v>
       </c>
       <c r="B221" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="222">
@@ -22322,15 +22331,15 @@
         <v>649</v>
       </c>
       <c r="B222" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B223" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="224">
@@ -22338,63 +22347,63 @@
         <v>622</v>
       </c>
       <c r="B224" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B225" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B226" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B227" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B228" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B229" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B230" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B231" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="232">
@@ -22402,23 +22411,23 @@
         <v>516</v>
       </c>
       <c r="B232" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B233" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B234" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="235">
@@ -22426,23 +22435,23 @@
         <v>490</v>
       </c>
       <c r="B235" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B236" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B237" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="238">
@@ -22450,7 +22459,7 @@
         <v>481</v>
       </c>
       <c r="B238" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="239">
@@ -22458,15 +22467,15 @@
         <v>628</v>
       </c>
       <c r="B239" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B240" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="241">
@@ -22474,15 +22483,15 @@
         <v>615</v>
       </c>
       <c r="B241" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B242" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="243">
@@ -22490,7 +22499,7 @@
         <v>615</v>
       </c>
       <c r="B243" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="244">
@@ -22498,20 +22507,20 @@
         <v>628</v>
       </c>
       <c r="B244" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B245" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>809</v>
+        <v>628</v>
       </c>
       <c r="B246" t="s">
         <v>810</v>
@@ -22519,15 +22528,15 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>645</v>
+        <v>811</v>
       </c>
       <c r="B247" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>812</v>
+        <v>760</v>
       </c>
       <c r="B248" t="s">
         <v>813</v>
@@ -22551,114 +22560,114 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>622</v>
+        <v>817</v>
       </c>
       <c r="B251" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B252" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B253" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B254" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B255" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B256" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B257" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B258" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B259" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B260" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B261" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B262" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B263" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B264" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="265">
@@ -22666,7 +22675,7 @@
         <v>622</v>
       </c>
       <c r="B265" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="266">
@@ -22674,7 +22683,7 @@
         <v>642</v>
       </c>
       <c r="B266" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="267">
@@ -22682,7 +22691,7 @@
         <v>645</v>
       </c>
       <c r="B267" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="268">
@@ -22690,39 +22699,39 @@
         <v>647</v>
       </c>
       <c r="B268" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>812</v>
+        <v>849</v>
       </c>
       <c r="B269" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>849</v>
+        <v>811</v>
       </c>
       <c r="B270" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>689</v>
+        <v>852</v>
       </c>
       <c r="B271" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>852</v>
+        <v>703</v>
       </c>
       <c r="B272" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="273">
@@ -22730,7 +22739,7 @@
         <v>645</v>
       </c>
       <c r="B273" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="274">
@@ -22738,15 +22747,15 @@
         <v>647</v>
       </c>
       <c r="B274" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>689</v>
+        <v>852</v>
       </c>
       <c r="B275" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="276">
@@ -22754,7 +22763,7 @@
         <v>615</v>
       </c>
       <c r="B276" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="277">
@@ -22762,23 +22771,23 @@
         <v>640</v>
       </c>
       <c r="B277" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>809</v>
+        <v>860</v>
       </c>
       <c r="B278" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B279" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
     </row>
     <row r="280">
@@ -22786,31 +22795,31 @@
         <v>647</v>
       </c>
       <c r="B280" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="B281" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="B282" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B283" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
     </row>
     <row r="284">
@@ -22818,39 +22827,39 @@
         <v>693</v>
       </c>
       <c r="B284" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>852</v>
+        <v>703</v>
       </c>
       <c r="B285" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>849</v>
+        <v>811</v>
       </c>
       <c r="B286" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>852</v>
+        <v>703</v>
       </c>
       <c r="B287" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="B288" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
     </row>
     <row r="289">
@@ -22858,7 +22867,7 @@
         <v>653</v>
       </c>
       <c r="B289" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
     </row>
     <row r="290">
@@ -22866,343 +22875,343 @@
         <v>640</v>
       </c>
       <c r="B290" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>875</v>
+        <v>7</v>
       </c>
       <c r="B291" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>693</v>
+        <v>7</v>
       </c>
       <c r="B292" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>875</v>
+        <v>7</v>
       </c>
       <c r="B293" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>640</v>
+        <v>7</v>
       </c>
       <c r="B294" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>640</v>
+        <v>7</v>
       </c>
       <c r="B295" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>706</v>
+        <v>7</v>
       </c>
       <c r="B296" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>767</v>
+        <v>554</v>
       </c>
       <c r="B297" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>809</v>
+        <v>884</v>
       </c>
       <c r="B298" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>809</v>
+        <v>886</v>
       </c>
       <c r="B299" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>689</v>
+        <v>552</v>
       </c>
       <c r="B300" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>701</v>
+        <v>889</v>
       </c>
       <c r="B301" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>630</v>
+        <v>609</v>
       </c>
       <c r="B302" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="B303" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>628</v>
+        <v>7</v>
       </c>
       <c r="B304" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>556</v>
+        <v>496</v>
       </c>
       <c r="B305" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>875</v>
+        <v>7</v>
       </c>
       <c r="B306" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>640</v>
+        <v>7</v>
       </c>
       <c r="B307" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>640</v>
+        <v>7</v>
       </c>
       <c r="B308" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>871</v>
+        <v>7</v>
       </c>
       <c r="B309" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>710</v>
+        <v>554</v>
       </c>
       <c r="B310" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>809</v>
+        <v>545</v>
       </c>
       <c r="B311" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>809</v>
+        <v>613</v>
       </c>
       <c r="B312" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>640</v>
+        <v>566</v>
       </c>
       <c r="B313" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>899</v>
+        <v>709</v>
       </c>
       <c r="B314" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>630</v>
+        <v>3</v>
       </c>
       <c r="B315" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="B316" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="B317" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="B318" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="B319" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="B320" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="B321" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="B322" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="B323" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="B324" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="B325" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="B326" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="B327" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B328" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="B329" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="B330" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="B331" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="B332" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
     </row>
     <row r="333">
@@ -23210,55 +23219,55 @@
         <v>617</v>
       </c>
       <c r="B333" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="B334" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="B335" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="B336" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="B337" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="B338" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="B339" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
     </row>
     <row r="340">
@@ -23266,7 +23275,7 @@
         <v>496</v>
       </c>
       <c r="B340" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
     </row>
     <row r="341">
@@ -23274,7 +23283,7 @@
         <v>461</v>
       </c>
       <c r="B341" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
     </row>
     <row r="342">
@@ -23282,7 +23291,7 @@
         <v>7</v>
       </c>
       <c r="B342" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
     </row>
     <row r="343">
@@ -23290,7 +23299,7 @@
         <v>3</v>
       </c>
       <c r="B343" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
     </row>
     <row r="344">
@@ -23298,7 +23307,7 @@
         <v>7</v>
       </c>
       <c r="B344" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
     </row>
     <row r="345">
@@ -23306,71 +23315,71 @@
         <v>7</v>
       </c>
       <c r="B345" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="B346" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="B347" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="B348" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="B349" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="B350" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="B351" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="B352" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="B353" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
     </row>
     <row r="354">
@@ -23378,7 +23387,7 @@
         <v>554</v>
       </c>
       <c r="B354" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
     </row>
     <row r="355">
@@ -23386,7 +23395,7 @@
         <v>561</v>
       </c>
       <c r="B355" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
     </row>
     <row r="356">
@@ -23394,7 +23403,7 @@
         <v>7</v>
       </c>
       <c r="B356" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
     </row>
     <row r="357">
@@ -23402,7 +23411,7 @@
         <v>496</v>
       </c>
       <c r="B357" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
     </row>
     <row r="358">
@@ -23410,7 +23419,7 @@
         <v>611</v>
       </c>
       <c r="B358" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
     </row>
     <row r="359">
@@ -23418,431 +23427,431 @@
         <v>554</v>
       </c>
       <c r="B359" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="B360" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="B361" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="B362" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="B363" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="B364" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="B365" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="B366" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="B367" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="B368" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="B369" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="B370" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="B371" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="B372" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="B373" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="B374" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="B375" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="B376" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="B377" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="B378" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="B379" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="B380" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="B381" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="B382" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="B383" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="B384" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="B385" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="B386" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="B387" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="B388" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="B389" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="B390" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="B391" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="B392" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="B393" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="B394" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="B395" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="B396" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="B397" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="B398" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="B399" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="B400" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="B401" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="B402" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="B403" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="B404" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="B405" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="B406" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="B407" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="B408" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="B409" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="B410" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="B411" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="B412" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
     </row>
   </sheetData>

--- a/inst/testdata/examples_of_output/testoutput_doaggregate_10pts_1miles.xlsx
+++ b/inst/testdata/examples_of_output/testoutput_doaggregate_10pts_1miles.xlsx
@@ -1373,22 +1373,22 @@
     <t xml:space="preserve">1.3</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to US avg Demog Index</t>
+    <t xml:space="preserve">Ratio to US avg Demographic Index</t>
   </si>
   <si>
     <t xml:space="preserve">1.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to US avg Suppl Demog Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio to US avg % Low-inc.</t>
+    <t xml:space="preserve">Ratio to US avg Supplemental EJ Index for Supplemental Demographic Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio to US avg % Low Income</t>
   </si>
   <si>
     <t xml:space="preserve">2.8</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to US avg % Limited English</t>
+    <t xml:space="preserve">Ratio to US avg % in limited English-speaking Households</t>
   </si>
   <si>
     <t xml:space="preserve">1.2</t>
@@ -1400,16 +1400,16 @@
     <t xml:space="preserve">1.5</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to US avg % &lt; High School</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio to US avg % &lt; age 5</t>
+    <t xml:space="preserve">Ratio to US avg % with Less Than High School Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio to US avg % under Age 5</t>
   </si>
   <si>
     <t xml:space="preserve">0.7</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to US avg % &gt; age 64</t>
+    <t xml:space="preserve">Ratio to US avg % over Age 64</t>
   </si>
   <si>
     <t xml:space="preserve">1.6</t>
@@ -1421,43 +1421,43 @@
     <t xml:space="preserve">1.9</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to US avg % Hispanic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio to US avg % Black (NHA)</t>
+    <t xml:space="preserve">Ratio to US avg % Hispanic or Latino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio to US avg % Black or African American (non-Hispanic, single race)</t>
   </si>
   <si>
     <t xml:space="preserve">1.7</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to US avg % Asian (NHA)</t>
+    <t xml:space="preserve">Ratio to US avg % Asian (non-Hispanic, single race)</t>
   </si>
   <si>
     <t xml:space="preserve">0.4</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to US avg % American Indian Alaska Native (NHA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio to US avg % Native Hawaiian Pacific Islander (NHA)</t>
+    <t xml:space="preserve">Ratio to US avg % American Indian and Alaska Native (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio to US avg % Native Hawaiian and Other Pacific Islander (non-Hispanic, single race)</t>
   </si>
   <si>
     <t xml:space="preserve">5.6</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to US avg % Other single race (NHA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio to US avg % Two or more race (NH)</t>
+    <t xml:space="preserve">Ratio to US avg % Other race (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio to US avg % Two or more races (non-Hispanic)</t>
   </si>
   <si>
     <t xml:space="preserve">0.6</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to US avg % White nonHispanic single race (NHA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio to US avg PM2.5</t>
+    <t xml:space="preserve">Ratio to US avg % White (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio to US avg Particulate Matter</t>
   </si>
   <si>
     <t xml:space="preserve">Ratio to US avg Ozone</t>
@@ -1469,7 +1469,7 @@
     <t xml:space="preserve">2.2</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to US avg Diesel PM</t>
+    <t xml:space="preserve">Ratio to US avg Diesel Particulate Matter</t>
   </si>
   <si>
     <t xml:space="preserve">Ratio to US avg Toxic Releases to Air</t>
@@ -1478,67 +1478,70 @@
     <t xml:space="preserve">2.6</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to US avg Traffic</t>
+    <t xml:space="preserve">Ratio to US avg Traffic Proximity and Volume</t>
   </si>
   <si>
     <t xml:space="preserve">0.9</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to US avg % built pre-1960</t>
+    <t xml:space="preserve">Ratio to US avg Lead Paint Indicator</t>
   </si>
   <si>
     <t xml:space="preserve">4</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to US avg NPL</t>
+    <t xml:space="preserve">Ratio to US avg Superfund Proximity</t>
   </si>
   <si>
     <t xml:space="preserve">3.5</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to US avg RMP</t>
+    <t xml:space="preserve">Ratio to US avg RMP Proximity</t>
   </si>
   <si>
     <t xml:space="preserve">4.8</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to US avg TSDF</t>
+    <t xml:space="preserve">Ratio to US avg Hazardous Waste Proximity</t>
   </si>
   <si>
     <t xml:space="preserve">6.5</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to US avg UST</t>
+    <t xml:space="preserve">Ratio to US avg Underground Storage Tanks indicator</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to US avg NPDES</t>
+    <t xml:space="preserve">Ratio to US avg Wastewater Discharge Indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio to US avg Drinking Water Non-Compliance</t>
   </si>
   <si>
     <t xml:space="preserve">0.8</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to US avg Drinking Water Non-Compliance</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ratio to US avg % with Disabilities</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to US avg Low life expectancy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio to State avg Suppl Demog Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio to State avg % Low-inc.</t>
+    <t xml:space="preserve">Ratio to US avg %Low life expectancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio to State avg Demographic Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio to State avg Supplemental EJ Index for Supplemental Demographic Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio to State avg % Low Income</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to State avg % Limited English</t>
+    <t xml:space="preserve">Ratio to State avg % in limited English-speaking Households</t>
   </si>
   <si>
     <t xml:space="preserve">Ratio to State avg % Unemployed</t>
@@ -1547,49 +1550,49 @@
     <t xml:space="preserve">1.4</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to State avg % &lt; High School</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio to State avg % &lt; age 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio to State avg % &gt; age 64</t>
+    <t xml:space="preserve">Ratio to State avg % with Less Than High School Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio to State avg % under Age 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio to State avg % over Age 64</t>
   </si>
   <si>
     <t xml:space="preserve">Ratio to State avg % People of Color</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to State avg % Hispanic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio to State avg % Black (NHA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio to State avg % Asian (NHA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio to State avg % American Indian Alaska Native (NHA)</t>
+    <t xml:space="preserve">Ratio to State avg % Hispanic or Latino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio to State avg % Black or African American (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio to State avg % Asian (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio to State avg % American Indian and Alaska Native (non-Hispanic, single race)</t>
   </si>
   <si>
     <t xml:space="preserve">0.3</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to State avg % Native Hawaiian Pacific Islander (NHA)</t>
+    <t xml:space="preserve">Ratio to State avg % Native Hawaiian and Other Pacific Islander (non-Hispanic, single race)</t>
   </si>
   <si>
     <t xml:space="preserve">4.5</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to State avg % Other single race (NHA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio to State avg % Two or more race (NH)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio to State avg % White nonHispanic single race</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio to State avg PM2.5</t>
+    <t xml:space="preserve">Ratio to State avg % Other race (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio to State avg % Two or more races (non-Hispanic)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio to State avg % White (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio to State avg Particulate Matter</t>
   </si>
   <si>
     <t xml:space="preserve">Ratio to State avg Ozone</t>
@@ -1598,43 +1601,43 @@
     <t xml:space="preserve">Ratio to State avg Nitrogen Dioxide (NO2)</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to State avg Diesel PM</t>
+    <t xml:space="preserve">Ratio to State avg Diesel Particulate Matter</t>
   </si>
   <si>
     <t xml:space="preserve">Ratio to State avg Toxic Releases to Air</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to State avg Traffic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio to State avg % built pre-1960</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio to State avg NPL</t>
+    <t xml:space="preserve">Ratio to State avg Traffic Proximity and Volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio to State avg Lead Paint Indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio to State avg Superfund Proximity</t>
   </si>
   <si>
     <t xml:space="preserve">3.2</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to State avg RMP</t>
+    <t xml:space="preserve">Ratio to State avg RMP Proximity</t>
   </si>
   <si>
     <t xml:space="preserve">2.3</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to State avg TSDF</t>
+    <t xml:space="preserve">Ratio to State avg Hazardous Waste Proximity</t>
   </si>
   <si>
     <t xml:space="preserve">3.9</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to State avg UST</t>
+    <t xml:space="preserve">Ratio to State avg Underground Storage Tanks indicator</t>
   </si>
   <si>
     <t xml:space="preserve">0.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to State avg NPDES</t>
+    <t xml:space="preserve">Ratio to State avg Wastewater Discharge Indicator</t>
   </si>
   <si>
     <t xml:space="preserve">Ratio to State avg Drinking Water Non-Compliance</t>
@@ -1643,7 +1646,7 @@
     <t xml:space="preserve">Ratio to State avg % with Disabilities</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio to State avg Low life expectancy</t>
+    <t xml:space="preserve">Ratio to State avg %Low life expectancy</t>
   </si>
   <si>
     <t xml:space="preserve">1.71</t>
@@ -1853,13 +1856,13 @@
     <t xml:space="preserve">11</t>
   </si>
   <si>
-    <t xml:space="preserve">Percent of population with Disabilities (as shown near top of EJScreen report)</t>
+    <t xml:space="preserve">% with Disabilities</t>
   </si>
   <si>
     <t xml:space="preserve">18</t>
   </si>
   <si>
-    <t xml:space="preserve">Low life expectancy</t>
+    <t xml:space="preserve">%Low life expectancy</t>
   </si>
   <si>
     <t xml:space="preserve">23</t>
@@ -1901,9 +1904,6 @@
     <t xml:space="preserve">Per Capita Income</t>
   </si>
   <si>
-    <t xml:space="preserve">41</t>
-  </si>
-  <si>
     <t xml:space="preserve">Percent Owner Occupied households</t>
   </si>
   <si>
@@ -1916,7 +1916,7 @@
     <t xml:space="preserve">63</t>
   </si>
   <si>
-    <t xml:space="preserve">US percentile for Supplemental Demographic Index</t>
+    <t xml:space="preserve">US percentile for Supplemental EJ Index for Supplemental Demographic Index</t>
   </si>
   <si>
     <t xml:space="preserve">US percentile for % Low Income</t>
@@ -1994,94 +1994,97 @@
     <t xml:space="preserve">38</t>
   </si>
   <si>
-    <t xml:space="preserve">National Percentile of Persons with Disabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Percentile of Low Life Expectancy</t>
+    <t xml:space="preserve">US percentile for % with Disabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for %Low life expectancy</t>
   </si>
   <si>
     <t xml:space="preserve">1.34</t>
   </si>
   <si>
-    <t xml:space="preserve">US Average of Demographic Index</t>
+    <t xml:space="preserve">US Average for Demographic Index</t>
   </si>
   <si>
     <t xml:space="preserve">1.64</t>
   </si>
   <si>
-    <t xml:space="preserve">US Average of Supplemental Demographic Index</t>
+    <t xml:space="preserve">US Average for Supplemental EJ Index for Supplemental Demographic Index</t>
   </si>
   <si>
     <t xml:space="preserve">30</t>
   </si>
   <si>
-    <t xml:space="preserve">US average for % Low Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US average for % in limited English-speaking Households</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US average for % Unemployed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US average for % with Less Than High School Education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US average for % under Age 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US average for % over Age 64</t>
+    <t xml:space="preserve">US Average for % Low Income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Average for % in limited English-speaking Households</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Average for % Unemployed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Average for % with Less Than High School Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Average for % under Age 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Average for % over Age 64</t>
   </si>
   <si>
     <t xml:space="preserve">40</t>
   </si>
   <si>
-    <t xml:space="preserve">US average for % People of Color</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US avg % Hispanic or Latino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US avg % Black or African American (non-Hispanic, single race)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US avg % Asian (non-Hispanic, single race)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US avg % American Indian and Alaska Native (non-Hispanic, single race)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US avg % Native Hawaiian and Other Pacific Islander (non-Hispanic, single race)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US avg % Other race (non-Hispanic, single race)</t>
+    <t xml:space="preserve">US Average for % People of Color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Average for % Hispanic or Latino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Average for % Black or African American (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Average for % Asian (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Average for % American Indian and Alaska Native (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Average for % Native Hawaiian and Other Pacific Islander (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Average for % Other race (non-Hispanic, single race)</t>
   </si>
   <si>
     <t xml:space="preserve">3</t>
   </si>
   <si>
-    <t xml:space="preserve">US avg % Two or more races (non-Hispanic)</t>
+    <t xml:space="preserve">US Average for % Two or more races (non-Hispanic)</t>
   </si>
   <si>
     <t xml:space="preserve">60</t>
   </si>
   <si>
-    <t xml:space="preserve">US avg % White (non-Hispanic, single race)</t>
+    <t xml:space="preserve">US Average for % White (non-Hispanic, single race)</t>
   </si>
   <si>
     <t xml:space="preserve">13.6</t>
   </si>
   <si>
-    <t xml:space="preserve">National Average % with Disabilities</t>
+    <t xml:space="preserve">US Average for % with Disabilities</t>
   </si>
   <si>
     <t xml:space="preserve">20</t>
   </si>
   <si>
-    <t xml:space="preserve">National Average of Low Life Expectancy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for Supplemental Demographic Index</t>
+    <t xml:space="preserve">US Average for %Low life expectancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Demographic Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Supplemental EJ Index for Supplemental Demographic Index</t>
   </si>
   <si>
     <t xml:space="preserve">59</t>
@@ -2126,535 +2129,532 @@
     <t xml:space="preserve">State percentile for % Asian (non-Hispanic, single race)</t>
   </si>
   <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
     <t xml:space="preserve">State percentile for % American Indian and Alaska Native (non-Hispanic, single race)</t>
   </si>
   <si>
     <t xml:space="preserve">State percentile for % Native Hawaiian and Other Pacific Islander (non-Hispanic, single race)</t>
   </si>
   <si>
+    <t xml:space="preserve">State percentile for % Other race (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for % Two or more races (non-Hispanic)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for % White (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for % with Disabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for %Low life expectancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for Demographic Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for Supplemental EJ Index for Supplemental Demographic Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for % Low Income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for % in limited English-speaking Households</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for % Unemployed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for % with Less Than High School Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for % under Age 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for % over Age 64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for % People of Color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for % Hispanic or Latino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for % Black or African American (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for % Asian (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for % American Indian and Alaska Native (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for % Native Hawaiian and Other Pacific Islander (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for % Other race (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for % Two or more races (non-Hispanic)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for % White (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for % with Disabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for %Low life expectancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Particulate Matter (PM 2.5 in ug/m3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ozone (ppb)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrogen Dioxide (NO2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diesel Particulate Matter (ug/m3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toxic Releases to Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4328185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traffic Proximity and Volume (daily traffic count/distance to road)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lead Paint Indicator (% pre-1960s housing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superfund Proximity (site count/km distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMP Proximity (facility count/km distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hazardous Waste Proximity (facility count/km distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Underground Storage Tanks (UST) indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wastewater Discharge Indicator (toxicity-weighted concentration/distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drinking Water Non-Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Particulate Matter (PM 2.5 in ug/m3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Ozone (ppb)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Nitrogen Dioxide (NO2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Diesel Particulate Matter (ug/m3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Toxic Releases to Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Traffic Proximity and Volume (daily traffic count/distance to road)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Lead Paint Indicator (% pre-1960s housing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Superfund Proximity (site count/km distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for RMP Proximity (facility count/km distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Hazardous Waste Proximity (facility count/km distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Underground Storage Tanks (UST) indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Wastewater Discharge Indicator (toxicity-weighted concentration/distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Drinking Water Non-Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Average for Particulate Matter (PM 2.5 in ug/m3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Average for Ozone (ppb)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Average for Nitrogen Dioxide (NO2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Average for Diesel Particulate Matter (ug/m3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Average for Toxic Releases to Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1687230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Average for Traffic Proximity and Volume (daily traffic count/distance to road)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Average for Lead Paint Indicator (% pre-1960s housing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Average for Superfund Proximity (site count/km distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Average for RMP Proximity (facility count/km distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Average for Hazardous Waste Proximity (facility count/km distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Average for Underground Storage Tanks (UST) indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">701805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Average for Wastewater Discharge Indicator (toxicity-weighted concentration/distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Average for Drinking Water Non-Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Particulate Matter (PM 2.5 in ug/m3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Ozone (ppb)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Nitrogen Dioxide (NO2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Diesel Particulate Matter (ug/m3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Toxic Releases to Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Traffic Proximity and Volume (daily traffic count/distance to road)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Lead Paint Indicator (% pre-1960s housing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Superfund Proximity (site count/km distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for RMP Proximity (facility count/km distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Hazardous Waste Proximity (facility count/km distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Underground Storage Tanks (UST) indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Wastewater Discharge Indicator (toxicity-weighted concentration/distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Drinking Water Non-Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for Particulate Matter (PM 2.5 in ug/m3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for Ozone (ppb)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for Nitrogen Dioxide (NO2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for Diesel Particulate Matter (ug/m3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for Toxic Releases to Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2603011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for Traffic Proximity and Volume (daily traffic count/distance to road)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for Lead Paint Indicator (% pre-1960s housing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for Superfund Proximity (site count/km distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for RMP Proximity (facility count/km distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for Hazardous Waste Proximity (facility count/km distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for Underground Storage Tanks (UST) indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for Wastewater Discharge Indicator (toxicity-weighted concentration/distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for Drinking Water Non-Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for Particulate Matter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for Ozone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for Nitrogen Dioxide (NO2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for Diesel Particulate Matter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for Toxic Releases to Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for Traffic Proximity and Volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for Lead Paint Indicator</t>
+  </si>
+  <si>
     <t xml:space="preserve">86</t>
   </si>
   <si>
-    <t xml:space="preserve">State percentile for % Other race (non-Hispanic, single race)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for % Two or more races (non-Hispanic)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for % White (non-Hispanic, single race)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State Percentile of Persons with Disabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for Low life expectancy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State Average of Supplemental Demographic Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for % Low Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for % in limited English-speaking Households</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for % Unemployed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for % with Less Than High School Education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for % under Age 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for % over Age 64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for % People of Color</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State avg % Hispanic or Latino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State avg % Black or African American (non-Hispanic, single race)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State avg % Asian (non-Hispanic, single race)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State avg % American Indian and Alaska Native (non-Hispanic, single race)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State avg % Native Hawaiian and Other Pacific Islander (non-Hispanic, single race)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State avg % Other race (non-Hispanic, single race)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State avg % Two or more races (non-Hispanic)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State avg % White (non-Hispanic, single race)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State Average % with Disabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for Low life expectancy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Particulate Matter (PM 2.5 in ug/m3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ozone (ppb)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nitrogen Dioxide (NO2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Air Toxics Diesel Particulate Matter (ug/m3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toxic Releases to Air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4328185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traffic Proximity and Volume (daily traffic count/distance to road)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lead Paint Indicator (% pre-1960s housing)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Superfund Proximity (site count/km distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMP Proximity (facility count/km distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hazardous Waste Proximity (facility count/km distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Underground Storage Tanks (UST) indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wastewater Discharge Indicator (toxicity-weighted concentration/distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drinking Water Non-Compliance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for Particulate Matter (PM 2.5 in ug/m3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for Ozone (ppb)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for Nitrogen Dioxide (NO2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for Air Toxics Diesel Particulate Matter (ug/m3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for Toxic Releases to Air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for Traffic Proximity and Volume (daily traffic count/distance to road)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for Lead Paint Indicator (% pre-1960s housing)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for Superfund Proximity (site count/km distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for RMP Proximity (facility count/km distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for Hazardous Waste Proximity (facility count/km distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for Underground Storage Tanks (UST) indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for Wastewater Discharge Indicator (toxicity-weighted concentration/distance)</t>
+    <t xml:space="preserve">US percentile for EJ Index for Superfund Proximity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for RMP Proximity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for Hazardous Waste Proximity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for Underground Storage Tanks (UST) indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for Wastewater Discharge Indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for EJ Index for Drinking Water Non-Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Supplemental EJ Index for Particulate Matter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Supplemental EJ Index for Ozone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Supplemental EJ Index for Nitrogen Dioxide (NO2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Supplemental EJ Index for Diesel Particulate Matter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Supplemental EJ Index for Toxic Releases to Air</t>
   </si>
   <si>
     <t xml:space="preserve">84</t>
   </si>
   <si>
-    <t xml:space="preserve">US percentile for Drinking Water Non-Compliance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US average for Particulate Matter (PM 2.5 in ug/m3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US average for Ozone (ppb)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US average for Nitrogen Dioxide (NO2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US average for Air Toxics Diesel Particulate Matter (ug/m3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US avg Toxic Releases to Air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1687230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US average for Traffic Proximity and Volume (daily traffic count/distance to road)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US average for Lead Paint Indicator (% pre-1960s housing)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US average for Superfund Proximity (site count/km distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US average for RMP Proximity (facility count/km distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US average for Hazardous Waste Proximity (facility count/km distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US average for Underground Storage Tanks (UST) indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">701805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US average for Wastewater Discharge Indicator (toxicity-weighted concentration/distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US average for Drinking Water Non-Compliance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for Particulate Matter (PM 2.5 in ug/m3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for Ozone (ppb)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for Nitrogen Dioxide (NO2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for Air Toxics Diesel Particulate Matter (ug/m3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for Toxic Releases to Air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for Traffic Proximity and Volume (daily traffic count/distance to road)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for Lead Paint Indicator (% pre-1960s housing)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for Superfund Proximity (site count/km distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for RMP Proximity (facility count/km distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for Hazardous Waste Proximity (facility count/km distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for Underground Storage Tanks (UST) indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for Wastewater Discharge Indicator (toxicity-weighted concentration/distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for Drinking Water Non-Compliance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for Particulate Matter (PM 2.5 in ug/m3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for Ozone (ppb)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for Nitrogen Dioxide (NO2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for Air Toxics Diesel Particulate Matter (ug/m3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State avg Toxic Releases to Air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2603011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for Traffic Proximity and Volume (daily traffic count/distance to road)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for Lead Paint Indicator (% pre-1960s housing)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for Superfund Proximity (site count/km distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for RMP Proximity (facility count/km distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for Hazardous Waste Proximity (facility count/km distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for Underground Storage Tanks (UST) indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for Wastewater Discharge Indicator (toxicity-weighted concentration/distance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State average for Drinking Water Non-Compliance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Particulate Matter (PM 2.5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Ozone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Nitrogen Dioxide (NO2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Air Toxics Diesel Particulate Matter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Toxic Releases to Air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Traffic Proximity and Volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Lead Paint Indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Superfund Proximity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for RMP Proximity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Hazardous Waste Proximity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Underground Storage Tanks (UST) indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Wastewater Discharge Indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Index for Drinking Water Non-Compliance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Supplemental Index for Particulate Matter (PM 2.5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Supplemental Index for Ozone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Supplemental Index for Nitrogen Dioxide (NO2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Supplemental Index for Air Toxics Diesel Particulate Matter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US Percentile for Toxic Releases to Air Supplemental Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Supplemental Index for Traffic Proximity and Volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Supplemental Index for Lead Paint Indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Supplemental Index for Superfund Proximity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Supplemental Index for RMP Proximity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Supplemental Index for Hazardous Waste Proximity</t>
+    <t xml:space="preserve">US percentile for Supplemental EJ Index for Traffic Proximity and Volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Supplemental EJ Index for Lead Paint Indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Supplemental EJ Index for Superfund Proximity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Supplemental EJ Index for RMP Proximity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Supplemental EJ Index for Hazardous Waste Proximity</t>
   </si>
   <si>
     <t xml:space="preserve">68</t>
   </si>
   <si>
-    <t xml:space="preserve">US percentile for EJ Supplemental Index for Underground Storage Tanks (UST) indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Supplemental Index for Wastewater Discharge Indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US percentile for EJ Supplemental Index for Drinking Water Non-Compliance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for EJ Index for Particulate Matter (PM 2.5)</t>
+    <t xml:space="preserve">US percentile for Supplemental EJ Index for Underground Storage Tanks (UST) indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Supplemental EJ Index for Wastewater Discharge Indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US percentile for Supplemental EJ Index for Drinking Water Non-Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for EJ Index for Particulate Matter</t>
   </si>
   <si>
     <t xml:space="preserve">State percentile for EJ Index for Ozone</t>
@@ -2663,7 +2663,7 @@
     <t xml:space="preserve">State percentile for EJ Index for Nitrogen Dioxide (NO2)</t>
   </si>
   <si>
-    <t xml:space="preserve">State percentile for EJ Index for Air Toxics Diesel Particulate Matter</t>
+    <t xml:space="preserve">State percentile for EJ Index for Diesel Particulate Matter</t>
   </si>
   <si>
     <t xml:space="preserve">State percentile for EJ Index for Toxic Releases to Air</t>
@@ -2702,43 +2702,43 @@
     <t xml:space="preserve">State percentile for EJ Index for Drinking Water Non-Compliance</t>
   </si>
   <si>
-    <t xml:space="preserve">State percentile for EJ Supplemental Index for Particulate Matter (PM 2.5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for EJ Supplemental Index for Ozone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for EJ Supplemental Index for Nitrogen Dioxide (NO2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for EJ Supplemental Index for Air Toxics Diesel Particulate Matter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State Percentile for Toxic Releases to Air Supplemental Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for EJ Supplemental Index for Traffic Proximity and Volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for EJ Supplemental Index for Lead Paint Indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for EJ Supplemental Index for Superfund Proximity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for EJ Supplemental Index for RMP Proximity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for EJ Supplemental Index for Hazardous Waste Proximity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for EJ Supplemental Index for Underground Storage Tanks (UST) indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for EJ Supplemental Index for Wastewater Discharge Indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for EJ Supplemental Index for Drinking Water Non-Compliance</t>
+    <t xml:space="preserve">State percentile for Supplemental EJ Index for Particulate Matter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Supplemental EJ Index for Ozone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Supplemental EJ Index for Nitrogen Dioxide (NO2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Supplemental EJ Index for Diesel Particulate Matter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Supplemental EJ Index for Toxic Releases to Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Supplemental EJ Index for Traffic Proximity and Volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Supplemental EJ Index for Lead Paint Indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Supplemental EJ Index for Superfund Proximity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Supplemental EJ Index for RMP Proximity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Supplemental EJ Index for Hazardous Waste Proximity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Supplemental EJ Index for Underground Storage Tanks (UST) indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Supplemental EJ Index for Wastewater Discharge Indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for Supplemental EJ Index for Drinking Water Non-Compliance</t>
   </si>
   <si>
     <t xml:space="preserve">52030</t>
@@ -2966,313 +2966,313 @@
     <t xml:space="preserve">117.312</t>
   </si>
   <si>
-    <t xml:space="preserve">Particulate Matter 2.5 EJ Index</t>
+    <t xml:space="preserve">US type of raw score for Particulate Matter EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">121.441</t>
   </si>
   <si>
-    <t xml:space="preserve">Ozone EJ Index</t>
+    <t xml:space="preserve">US type of raw score for Ozone EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">147.75</t>
   </si>
   <si>
-    <t xml:space="preserve">Nitrogen Dioxide (NO2) EJ Index</t>
+    <t xml:space="preserve">US type of raw score for Nitrogen Dioxide (NO2) EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">153.513</t>
   </si>
   <si>
-    <t xml:space="preserve">Diesel particulate matter EJ Index</t>
+    <t xml:space="preserve">US type of raw score for Diesel Particulate Matter EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">114.724</t>
   </si>
   <si>
-    <t xml:space="preserve">Toxic Releases to Air EJ Index</t>
+    <t xml:space="preserve">US type of raw score for Toxic Releases to Air EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">141.447</t>
   </si>
   <si>
-    <t xml:space="preserve">US raw Traffic proximity EJ Index</t>
+    <t xml:space="preserve">US type of raw score for Traffic Proximity and Volume EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">91.88</t>
   </si>
   <si>
-    <t xml:space="preserve">Lead paint EJ Index</t>
+    <t xml:space="preserve">US type of raw score for Lead Paint EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">145.606</t>
   </si>
   <si>
-    <t xml:space="preserve">US raw Superfund Proximity EJ Index</t>
+    <t xml:space="preserve">US type of raw score for Superfund Proximity EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">139.698</t>
   </si>
   <si>
-    <t xml:space="preserve">RMP Facility Proximity EJ Index</t>
+    <t xml:space="preserve">US type of raw score for RMP Proximity EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">152.021</t>
   </si>
   <si>
-    <t xml:space="preserve">Hazardous waste proximity EJ Index</t>
+    <t xml:space="preserve">US type of raw score for Hazardous Waste Proximity EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">92.452</t>
   </si>
   <si>
-    <t xml:space="preserve">US raw Underground storage tanks EJ Index</t>
+    <t xml:space="preserve">US type of raw score for Underground Storage Tanks EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">109.501</t>
   </si>
   <si>
-    <t xml:space="preserve">US raw Wastewater discharge EJ Index</t>
+    <t xml:space="preserve">US type of raw score for Wastewater Discharge EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">10.825</t>
   </si>
   <si>
-    <t xml:space="preserve">Drinking Water Non-Compliance EJ Index</t>
+    <t xml:space="preserve">US type of raw score for Drinking Water Non-Compliance EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">142.892</t>
   </si>
   <si>
-    <t xml:space="preserve">State raw Particulate Matter 2.5 EJ Index</t>
+    <t xml:space="preserve">State type of raw score for Particulate Matter EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">110.472</t>
   </si>
   <si>
-    <t xml:space="preserve">State raw Ozone EJ Index</t>
+    <t xml:space="preserve">State type of raw score for Ozone EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">154.348</t>
   </si>
   <si>
-    <t xml:space="preserve">State raw Nitrogen Dioxide (NO2) EJ Index</t>
+    <t xml:space="preserve">State type of raw score for Nitrogen Dioxide (NO2) EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">158.451</t>
   </si>
   <si>
-    <t xml:space="preserve">State Diesel particulate matter EJ Index</t>
+    <t xml:space="preserve">State type of raw score for Diesel Particulate Matter EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">149.919</t>
   </si>
   <si>
-    <t xml:space="preserve">State Toxic Releases to Air EJ Index</t>
+    <t xml:space="preserve">State type of raw score for Toxic Releases to Air EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">146.261</t>
   </si>
   <si>
-    <t xml:space="preserve">State raw Traffic proximity EJ Index</t>
+    <t xml:space="preserve">State type of raw score for Traffic Proximity and Volume EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">85.508</t>
   </si>
   <si>
-    <t xml:space="preserve">State Lead paint EJ Index</t>
+    <t xml:space="preserve">State type of raw score for Lead Paint EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">143.983</t>
   </si>
   <si>
-    <t xml:space="preserve">State raw Superfund Proximity EJ Index</t>
+    <t xml:space="preserve">State type of raw score for Superfund Proximity EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">162.213</t>
   </si>
   <si>
-    <t xml:space="preserve">State raw RMP Facility Proximity EJ Index</t>
+    <t xml:space="preserve">State type of raw score for RMP Proximity EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">156.911</t>
   </si>
   <si>
-    <t xml:space="preserve">State Hazardous waste proximity EJ Index</t>
+    <t xml:space="preserve">State type of raw score for Hazardous Waste Proximity EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">94.797</t>
   </si>
   <si>
-    <t xml:space="preserve">State raw Underground storage tanks EJ Index</t>
+    <t xml:space="preserve">State type of raw score for Underground Storage Tanks EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">108.36</t>
   </si>
   <si>
-    <t xml:space="preserve">State raw Wastewater discharge EJ Index</t>
+    <t xml:space="preserve">State type of raw score for Wastewater Discharge EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">12.691</t>
   </si>
   <si>
-    <t xml:space="preserve">State raw Drinking Water Non-Compliance EJ Index</t>
+    <t xml:space="preserve">State type of raw score for Drinking Water Non-Compliance EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">117.153</t>
   </si>
   <si>
-    <t xml:space="preserve">Particulate Matter 2.5 Supplemental Index</t>
+    <t xml:space="preserve">US type of raw score for Particulate Matter Supplemental EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">122.523</t>
   </si>
   <si>
-    <t xml:space="preserve">Ozone Supplemental Index</t>
+    <t xml:space="preserve">US type of raw score for Ozone Supplemental EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">152.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Nitrogen Dioxide (NO2) Supplemental Index</t>
+    <t xml:space="preserve">US type of raw score for Nitrogen Dioxide (NO2) Supplemental EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">157.202</t>
   </si>
   <si>
-    <t xml:space="preserve">Diesel Particulate Matter Supplemental Index</t>
+    <t xml:space="preserve">US type of raw score for Diesel Particulate Matter Supplemental EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">119.338</t>
   </si>
   <si>
-    <t xml:space="preserve">EJ Supp: Toxic Releases to Air (raw)</t>
+    <t xml:space="preserve">US type of raw score for Toxic Releases to Air Supplemental EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">144.478</t>
   </si>
   <si>
-    <t xml:space="preserve">Traffic Proximity Supplemental Index</t>
+    <t xml:space="preserve">US type of raw score for Traffic Proximity and Volume Supplemental EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">95.278</t>
   </si>
   <si>
-    <t xml:space="preserve">Lead Paint Supplemental Index</t>
+    <t xml:space="preserve">US type of raw score for Lead Paint Supplemental EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">147.302</t>
   </si>
   <si>
-    <t xml:space="preserve">Superfund Proximity Supplemental Index</t>
+    <t xml:space="preserve">US type of raw score for Superfund Proximity Supplemental EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">142.706</t>
   </si>
   <si>
-    <t xml:space="preserve">RMP Facility Proximity Supplemental Index</t>
+    <t xml:space="preserve">US type of raw score for RMP Proximity Supplemental EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">155.08</t>
   </si>
   <si>
-    <t xml:space="preserve">Hazardous Waste Proximity Supplemental Index</t>
+    <t xml:space="preserve">US type of raw score for Hazardous Waste Proximity Supplemental EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">103.231</t>
   </si>
   <si>
-    <t xml:space="preserve">Underground Storage Tanks Supplemental Index</t>
+    <t xml:space="preserve">US type of raw score for Underground Storage Tanks Supplemental EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">114.04</t>
   </si>
   <si>
-    <t xml:space="preserve">Wastewater Discharge Supplemental Index</t>
+    <t xml:space="preserve">US type of raw score for Wastewater Discharge Supplemental EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">14.414</t>
   </si>
   <si>
-    <t xml:space="preserve">Drinking Water Non-Compliance Supplemental Index</t>
+    <t xml:space="preserve">US type of raw score for Drinking Water Non-Compliance Supplemental EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">131.09</t>
   </si>
   <si>
-    <t xml:space="preserve">State raw Particulate Matter 2.5 Supplemental Index</t>
+    <t xml:space="preserve">State type of raw score for Particulate Matter Supplemental EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">100.312</t>
   </si>
   <si>
-    <t xml:space="preserve">State raw Ozone Supplemental Index</t>
+    <t xml:space="preserve">State type of raw score for Ozone Supplemental EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">139.762</t>
   </si>
   <si>
-    <t xml:space="preserve">State raw Nitrogen Dioxide (NO2) Supplemental Index</t>
+    <t xml:space="preserve">State type of raw score for Nitrogen Dioxide (NO2) Supplemental EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">143.106</t>
   </si>
   <si>
-    <t xml:space="preserve">State Diesel particulate matter Supplemental Index</t>
+    <t xml:space="preserve">State type of raw score for Diesel Particulate Matter Supplemental EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">135.386</t>
   </si>
   <si>
-    <t xml:space="preserve">State Toxic Releases to Air Supplemental Index</t>
+    <t xml:space="preserve">State type of raw score for Toxic Releases to Air Supplemental EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">133.632</t>
   </si>
   <si>
-    <t xml:space="preserve">State raw Traffic proximity Supplemental Index</t>
+    <t xml:space="preserve">State type of raw score for Traffic Proximity and Volume Supplemental EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">74.151</t>
   </si>
   <si>
-    <t xml:space="preserve">State Lead paint Supplemental Index</t>
+    <t xml:space="preserve">State type of raw score for Lead Paint Supplemental EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">128.183</t>
   </si>
   <si>
-    <t xml:space="preserve">State raw Superfund Proximity Supplemental Index</t>
+    <t xml:space="preserve">State type of raw score for Superfund Proximity Supplemental EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">144.944</t>
   </si>
   <si>
-    <t xml:space="preserve">State raw RMP Facility Proximity Supplemental Index</t>
+    <t xml:space="preserve">State type of raw score for RMP Proximity Supplemental EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">141.488</t>
   </si>
   <si>
-    <t xml:space="preserve">State Hazardous waste proximity Supplemental Index</t>
+    <t xml:space="preserve">State type of raw score for Hazardous Waste Proximity Supplemental EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">98.275</t>
   </si>
   <si>
-    <t xml:space="preserve">State raw Underground storage tanks Supplemental Index</t>
+    <t xml:space="preserve">State type of raw score for Underground Storage Tanks Supplemental EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">100.185</t>
   </si>
   <si>
-    <t xml:space="preserve">State raw Wastewater discharge Supplemental Index</t>
+    <t xml:space="preserve">State type of raw score for Wastewater Discharge Supplemental EJ Index</t>
   </si>
   <si>
     <t xml:space="preserve">14.286</t>
   </si>
   <si>
-    <t xml:space="preserve">State raw Drinking Water Non-Compliance Supplemental Index</t>
+    <t xml:space="preserve">State type of raw score for Drinking Water Non-Compliance Supplemental EJ Index</t>
   </si>
 </sst>
 </file>
@@ -3858,23 +3858,131 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10" outlineLevelCol="2"/>
   <cols>
+    <col min="100" max="100" width="6.71" hidden="0" customWidth="1"/>
+    <col min="101" max="101" width="6.71" hidden="0" customWidth="1"/>
+    <col min="102" max="102" width="6.71" hidden="0" customWidth="1"/>
+    <col min="103" max="103" width="6.71" hidden="0" customWidth="1"/>
+    <col min="104" max="104" width="6.71" hidden="0" customWidth="1"/>
+    <col min="105" max="105" width="6.71" hidden="0" customWidth="1"/>
+    <col min="106" max="106" width="6.71" hidden="0" customWidth="1"/>
+    <col min="107" max="107" width="6.71" hidden="0" customWidth="1"/>
+    <col min="108" max="108" width="6.71" hidden="0" customWidth="1"/>
+    <col min="109" max="109" width="6.71" hidden="0" customWidth="1"/>
+    <col min="110" max="110" width="6.71" hidden="0" customWidth="1"/>
+    <col min="111" max="111" width="6.71" hidden="0" customWidth="1"/>
+    <col min="112" max="112" width="6.71" hidden="0" customWidth="1"/>
+    <col min="113" max="113" width="6.71" hidden="0" customWidth="1"/>
+    <col min="114" max="114" width="6.71" hidden="0" customWidth="1"/>
+    <col min="115" max="115" width="6.71" hidden="0" customWidth="1"/>
+    <col min="116" max="116" width="6.71" hidden="0" customWidth="1"/>
+    <col min="117" max="117" width="6.71" hidden="0" customWidth="1"/>
+    <col min="118" max="118" width="6.71" hidden="0" customWidth="1"/>
+    <col min="119" max="119" width="6.71" hidden="0" customWidth="1"/>
     <col min="12" max="12" width="6.71" hidden="0" customWidth="1"/>
+    <col min="120" max="120" width="6.71" hidden="0" customWidth="1"/>
+    <col min="121" max="121" width="6.71" hidden="0" customWidth="1"/>
+    <col min="122" max="122" width="6.71" hidden="0" customWidth="1"/>
+    <col min="123" max="123" width="6.71" hidden="0" customWidth="1"/>
+    <col min="124" max="124" width="6.71" hidden="0" customWidth="1"/>
+    <col min="125" max="125" width="6.71" hidden="0" customWidth="1"/>
+    <col min="126" max="126" width="6.71" hidden="0" customWidth="1"/>
+    <col min="127" max="127" width="6.71" hidden="0" customWidth="1"/>
+    <col min="128" max="128" width="6.71" hidden="0" customWidth="1"/>
+    <col min="129" max="129" width="6.71" hidden="0" customWidth="1"/>
     <col min="13" max="13" width="6.71" hidden="0" customWidth="1"/>
+    <col min="130" max="130" width="6.71" hidden="0" customWidth="1"/>
+    <col min="131" max="131" width="6.71" hidden="0" customWidth="1"/>
+    <col min="132" max="132" width="6.71" hidden="0" customWidth="1"/>
+    <col min="133" max="133" width="6.71" hidden="0" customWidth="1"/>
+    <col min="134" max="134" width="6.71" hidden="0" customWidth="1"/>
+    <col min="135" max="135" width="6.71" hidden="0" customWidth="1"/>
+    <col min="136" max="136" width="6.71" hidden="0" customWidth="1"/>
+    <col min="137" max="137" width="6.71" hidden="0" customWidth="1"/>
+    <col min="138" max="138" width="6.71" hidden="0" customWidth="1"/>
+    <col min="139" max="139" width="6.71" hidden="0" customWidth="1"/>
     <col min="14" max="14" width="6.71" hidden="0" customWidth="1"/>
+    <col min="140" max="140" width="6.71" hidden="0" customWidth="1"/>
+    <col min="141" max="141" width="6.71" hidden="0" customWidth="1"/>
+    <col min="142" max="142" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
+    <col min="143" max="143" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
+    <col min="144" max="144" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
+    <col min="145" max="145" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
+    <col min="146" max="146" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
+    <col min="147" max="147" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
+    <col min="148" max="148" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
+    <col min="149" max="149" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
     <col min="15" max="15" width="6.71" hidden="0" customWidth="1"/>
+    <col min="150" max="150" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
+    <col min="151" max="151" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
+    <col min="152" max="152" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
+    <col min="153" max="153" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
+    <col min="154" max="154" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
+    <col min="155" max="155" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
+    <col min="156" max="156" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
+    <col min="157" max="157" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
+    <col min="158" max="158" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
+    <col min="159" max="159" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
     <col min="16" max="16" width="6.71" hidden="0" customWidth="1"/>
+    <col min="160" max="160" width="6.71" hidden="1" outlineLevel="2" customWidth="1"/>
+    <col min="161" max="161" width="6.71" hidden="0" customWidth="1"/>
+    <col min="162" max="162" width="6.71" hidden="0" customWidth="1"/>
     <col min="17" max="17" width="6.71" hidden="0" customWidth="1"/>
     <col min="18" max="18" width="6.71" hidden="0" customWidth="1"/>
+    <col min="180" max="180" outlineLevel="2" hidden="1"/>
+    <col min="181" max="181" outlineLevel="2" hidden="1"/>
+    <col min="182" max="182" outlineLevel="2" hidden="1"/>
+    <col min="183" max="183" outlineLevel="2" hidden="1"/>
+    <col min="184" max="184" outlineLevel="2" hidden="1"/>
+    <col min="185" max="185" outlineLevel="2" hidden="1"/>
+    <col min="186" max="186" outlineLevel="2" hidden="1"/>
+    <col min="187" max="187" outlineLevel="2" hidden="1"/>
+    <col min="188" max="188" outlineLevel="2" hidden="1"/>
+    <col min="189" max="189" outlineLevel="2" hidden="1"/>
     <col min="19" max="19" width="6.71" hidden="0" customWidth="1"/>
+    <col min="190" max="190" outlineLevel="2" hidden="1"/>
+    <col min="191" max="191" outlineLevel="2" hidden="1"/>
+    <col min="192" max="192" outlineLevel="2" hidden="1"/>
+    <col min="193" max="193" outlineLevel="2" hidden="1"/>
+    <col min="194" max="194" outlineLevel="2" hidden="1"/>
+    <col min="195" max="195" outlineLevel="2" hidden="1"/>
+    <col min="196" max="196" outlineLevel="2" hidden="1"/>
+    <col min="197" max="197" outlineLevel="2" hidden="1"/>
+    <col min="198" max="198" outlineLevel="2" hidden="1"/>
     <col min="20" max="20" width="6.71" hidden="0" customWidth="1"/>
     <col min="21" max="21" width="6.71" hidden="0" customWidth="1"/>
     <col min="22" max="22" width="6.71" hidden="0" customWidth="1"/>
+    <col min="225" max="225" outlineLevel="2" hidden="1"/>
+    <col min="226" max="226" outlineLevel="2" hidden="1"/>
+    <col min="227" max="227" outlineLevel="2" hidden="1"/>
+    <col min="228" max="228" outlineLevel="2" hidden="1"/>
+    <col min="229" max="229" outlineLevel="2" hidden="1"/>
     <col min="23" max="23" width="6.71" hidden="0" customWidth="1"/>
+    <col min="230" max="230" outlineLevel="2" hidden="1"/>
+    <col min="231" max="231" outlineLevel="2" hidden="1"/>
+    <col min="232" max="232" outlineLevel="2" hidden="1"/>
+    <col min="233" max="233" outlineLevel="2" hidden="1"/>
+    <col min="234" max="234" outlineLevel="2" hidden="1"/>
+    <col min="235" max="235" outlineLevel="2" hidden="1"/>
+    <col min="236" max="236" outlineLevel="2" hidden="1"/>
+    <col min="237" max="237" outlineLevel="2" hidden="1"/>
     <col min="24" max="24" width="6.71" hidden="0" customWidth="1"/>
     <col min="25" max="25" width="6.71" hidden="0" customWidth="1"/>
+    <col min="251" max="251" outlineLevel="2" hidden="1"/>
+    <col min="252" max="252" outlineLevel="2" hidden="1"/>
+    <col min="253" max="253" outlineLevel="2" hidden="1"/>
+    <col min="254" max="254" outlineLevel="2" hidden="1"/>
+    <col min="255" max="255" outlineLevel="2" hidden="1"/>
+    <col min="256" max="256" outlineLevel="2" hidden="1"/>
+    <col min="257" max="257" outlineLevel="2" hidden="1"/>
+    <col min="258" max="258" outlineLevel="2" hidden="1"/>
+    <col min="259" max="259" outlineLevel="2" hidden="1"/>
     <col min="26" max="26" width="6.71" hidden="0" customWidth="1"/>
+    <col min="260" max="260" outlineLevel="2" hidden="1"/>
+    <col min="261" max="261" outlineLevel="2" hidden="1"/>
+    <col min="262" max="262" outlineLevel="2" hidden="1"/>
+    <col min="263" max="263" outlineLevel="2" hidden="1"/>
     <col min="27" max="27" width="6.71" hidden="0" customWidth="1"/>
     <col min="28" max="28" width="6.71" hidden="0" customWidth="1"/>
     <col min="29" max="29" width="6.71" hidden="0" customWidth="1"/>
@@ -3948,114 +4056,6 @@
     <col min="97" max="97" width="6.71" hidden="0" customWidth="1"/>
     <col min="98" max="98" width="6.71" hidden="0" customWidth="1"/>
     <col min="99" max="99" width="6.71" hidden="0" customWidth="1"/>
-    <col min="100" max="100" width="6.71" hidden="0" customWidth="1"/>
-    <col min="101" max="101" width="6.71" hidden="0" customWidth="1"/>
-    <col min="102" max="102" width="6.71" hidden="0" customWidth="1"/>
-    <col min="103" max="103" width="6.71" hidden="0" customWidth="1"/>
-    <col min="104" max="104" width="6.71" hidden="0" customWidth="1"/>
-    <col min="105" max="105" width="6.71" hidden="0" customWidth="1"/>
-    <col min="106" max="106" width="6.71" hidden="0" customWidth="1"/>
-    <col min="107" max="107" width="6.71" hidden="0" customWidth="1"/>
-    <col min="108" max="108" width="6.71" hidden="0" customWidth="1"/>
-    <col min="109" max="109" width="6.71" hidden="0" customWidth="1"/>
-    <col min="110" max="110" width="6.71" hidden="0" customWidth="1"/>
-    <col min="111" max="111" width="6.71" hidden="0" customWidth="1"/>
-    <col min="112" max="112" width="6.71" hidden="0" customWidth="1"/>
-    <col min="113" max="113" width="6.71" hidden="0" customWidth="1"/>
-    <col min="114" max="114" width="6.71" hidden="0" customWidth="1"/>
-    <col min="115" max="115" width="6.71" hidden="0" customWidth="1"/>
-    <col min="116" max="116" width="6.71" hidden="0" customWidth="1"/>
-    <col min="117" max="117" width="6.71" hidden="0" customWidth="1"/>
-    <col min="118" max="118" width="6.71" hidden="0" customWidth="1"/>
-    <col min="119" max="119" width="6.71" hidden="0" customWidth="1"/>
-    <col min="120" max="120" width="6.71" hidden="0" customWidth="1"/>
-    <col min="121" max="121" width="6.71" hidden="0" customWidth="1"/>
-    <col min="122" max="122" width="6.71" hidden="0" customWidth="1"/>
-    <col min="123" max="123" width="6.71" hidden="0" customWidth="1"/>
-    <col min="124" max="124" width="6.71" hidden="0" customWidth="1"/>
-    <col min="125" max="125" width="6.71" hidden="0" customWidth="1"/>
-    <col min="126" max="126" width="6.71" hidden="0" customWidth="1"/>
-    <col min="127" max="127" width="6.71" hidden="0" customWidth="1"/>
-    <col min="128" max="128" width="6.71" hidden="0" customWidth="1"/>
-    <col min="129" max="129" width="6.71" hidden="0" customWidth="1"/>
-    <col min="130" max="130" width="6.71" hidden="0" customWidth="1"/>
-    <col min="131" max="131" width="6.71" hidden="0" customWidth="1"/>
-    <col min="132" max="132" width="6.71" hidden="0" customWidth="1"/>
-    <col min="133" max="133" width="6.71" hidden="0" customWidth="1"/>
-    <col min="134" max="134" width="6.71" hidden="0" customWidth="1"/>
-    <col min="135" max="135" width="6.71" hidden="0" customWidth="1"/>
-    <col min="136" max="136" width="6.71" hidden="0" customWidth="1"/>
-    <col min="137" max="137" width="6.71" hidden="0" customWidth="1"/>
-    <col min="138" max="138" width="6.71" hidden="0" customWidth="1"/>
-    <col min="139" max="139" width="6.71" hidden="0" customWidth="1"/>
-    <col min="140" max="140" width="6.71" hidden="0" customWidth="1"/>
-    <col min="141" max="141" width="6.71" hidden="0" customWidth="1"/>
-    <col min="142" max="142" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
-    <col min="143" max="143" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
-    <col min="144" max="144" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
-    <col min="145" max="145" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
-    <col min="146" max="146" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
-    <col min="147" max="147" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
-    <col min="148" max="148" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
-    <col min="149" max="149" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
-    <col min="150" max="150" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
-    <col min="151" max="151" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
-    <col min="152" max="152" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
-    <col min="153" max="153" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
-    <col min="154" max="154" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
-    <col min="155" max="155" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
-    <col min="156" max="156" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
-    <col min="157" max="157" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
-    <col min="158" max="158" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
-    <col min="159" max="159" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
-    <col min="160" max="160" width="6.71" hidden="1" outlineLevel="1" customWidth="1"/>
-    <col min="161" max="161" width="6.71" hidden="0" customWidth="1"/>
-    <col min="162" max="162" width="6.71" hidden="0" customWidth="1"/>
-    <col min="180" max="180" outlineLevel="1" hidden="1"/>
-    <col min="181" max="181" outlineLevel="1" hidden="1"/>
-    <col min="182" max="182" outlineLevel="1" hidden="1"/>
-    <col min="183" max="183" outlineLevel="1" hidden="1"/>
-    <col min="184" max="184" outlineLevel="1" hidden="1"/>
-    <col min="185" max="185" outlineLevel="1" hidden="1"/>
-    <col min="186" max="186" outlineLevel="1" hidden="1"/>
-    <col min="187" max="187" outlineLevel="1" hidden="1"/>
-    <col min="188" max="188" outlineLevel="1" hidden="1"/>
-    <col min="189" max="189" outlineLevel="1" hidden="1"/>
-    <col min="190" max="190" outlineLevel="1" hidden="1"/>
-    <col min="191" max="191" outlineLevel="1" hidden="1"/>
-    <col min="192" max="192" outlineLevel="1" hidden="1"/>
-    <col min="193" max="193" outlineLevel="1" hidden="1"/>
-    <col min="194" max="194" outlineLevel="1" hidden="1"/>
-    <col min="195" max="195" outlineLevel="1" hidden="1"/>
-    <col min="196" max="196" outlineLevel="1" hidden="1"/>
-    <col min="197" max="197" outlineLevel="1" hidden="1"/>
-    <col min="198" max="198" outlineLevel="1" hidden="1"/>
-    <col min="225" max="225" outlineLevel="1" hidden="1"/>
-    <col min="226" max="226" outlineLevel="1" hidden="1"/>
-    <col min="227" max="227" outlineLevel="1" hidden="1"/>
-    <col min="228" max="228" outlineLevel="1" hidden="1"/>
-    <col min="229" max="229" outlineLevel="1" hidden="1"/>
-    <col min="230" max="230" outlineLevel="1" hidden="1"/>
-    <col min="231" max="231" outlineLevel="1" hidden="1"/>
-    <col min="232" max="232" outlineLevel="1" hidden="1"/>
-    <col min="233" max="233" outlineLevel="1" hidden="1"/>
-    <col min="234" max="234" outlineLevel="1" hidden="1"/>
-    <col min="235" max="235" outlineLevel="1" hidden="1"/>
-    <col min="236" max="236" outlineLevel="1" hidden="1"/>
-    <col min="237" max="237" outlineLevel="1" hidden="1"/>
-    <col min="251" max="251" outlineLevel="1" hidden="1"/>
-    <col min="252" max="252" outlineLevel="1" hidden="1"/>
-    <col min="253" max="253" outlineLevel="1" hidden="1"/>
-    <col min="254" max="254" outlineLevel="1" hidden="1"/>
-    <col min="255" max="255" outlineLevel="1" hidden="1"/>
-    <col min="256" max="256" outlineLevel="1" hidden="1"/>
-    <col min="257" max="257" outlineLevel="1" hidden="1"/>
-    <col min="258" max="258" outlineLevel="1" hidden="1"/>
-    <col min="259" max="259" outlineLevel="1" hidden="1"/>
-    <col min="260" max="260" outlineLevel="1" hidden="1"/>
-    <col min="261" max="261" outlineLevel="1" hidden="1"/>
-    <col min="262" max="262" outlineLevel="1" hidden="1"/>
-    <col min="263" max="263" outlineLevel="1" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="175" customHeight="1">
@@ -4171,7 +4171,7 @@
         <v>497</v>
       </c>
       <c r="AL1" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AM1" s="3" t="s">
         <v>500</v>
@@ -4183,244 +4183,244 @@
         <v>502</v>
       </c>
       <c r="AP1" s="5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AQ1" s="5" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AR1" s="5" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AS1" s="5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AT1" s="5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AU1" s="5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AV1" s="5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AW1" s="5" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AX1" s="5" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AY1" s="5" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AZ1" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="BA1" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="BB1" s="5" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="BC1" s="5" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="BD1" s="5" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="BE1" s="5" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="BF1" s="6" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="BG1" s="6" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="BH1" s="6" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="BI1" s="6" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="BJ1" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="BK1" s="6" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="BL1" s="6" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="BM1" s="6" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="BN1" s="6" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="BO1" s="6" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="BP1" s="6" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="BQ1" s="6" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="BR1" s="6" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="BS1" s="5" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="BT1" s="5" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="BU1" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="BV1" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="BW1" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="BX1" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="BY1" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="BZ1" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="CA1" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="CB1" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="CC1" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="CD1" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="CE1" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="CF1" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="CG1" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="CH1" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="CI1" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="CJ1" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="CK1" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="CL1" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="CM1" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="CN1" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="CO1" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CP1" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="CQ1" s="8" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="CR1" s="8" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="CS1" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="CT1" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="CU1" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="CV1" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="CW1" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="CX1" s="7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="CY1" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="CZ1" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="DA1" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="DB1" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="DC1" s="7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="DD1" s="7" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="DE1" s="7" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="DF1" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="DG1" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="DH1" s="7" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="DI1" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="DJ1" s="7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="DK1" s="8" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="DL1" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="DM1" s="7" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="DN1" s="8" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="DO1" s="8" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="DP1" s="8" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="DQ1" s="8" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="DR1" s="7" t="s">
         <v>627</v>
@@ -4543,151 +4543,151 @@
         <v>686</v>
       </c>
       <c r="FF1" s="11" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="FG1" s="11" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="FH1" s="11" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="FI1" s="11" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="FJ1" s="11" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="FK1" s="11" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="FL1" s="11" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="FM1" s="11" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="FN1" s="11" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="FO1" s="11" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="FP1" s="11" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="FQ1" s="11" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="FR1" s="11" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="FS1" s="11" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="FT1" s="11" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="FU1" s="11" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="FV1" s="11" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="FW1" s="11" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="FX1" s="7" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="FY1" s="7" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="FZ1" s="7" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="GA1" s="7" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="GB1" s="7" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="GC1" s="7" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="GD1" s="7" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="GE1" s="7" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="GF1" s="7" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="GG1" s="7" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="GH1" s="7" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="GI1" s="7" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="GJ1" s="7" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="GK1" s="7" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="GL1" s="7" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="GM1" s="7" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="GN1" s="7" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="GO1" s="7" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="GP1" s="7" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="GQ1" s="12" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="GR1" s="12" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="GS1" s="12" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="GT1" s="12" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="GU1" s="12" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="GV1" s="12" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="GW1" s="12" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="GX1" s="12" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="GY1" s="12" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="GZ1" s="12" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="HA1" s="12" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="HB1" s="12" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="HC1" s="12" t="s">
         <v>758</v>
@@ -4729,178 +4729,178 @@
         <v>775</v>
       </c>
       <c r="HP1" s="13" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="HQ1" s="14" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="HR1" s="14" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="HS1" s="14" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="HT1" s="14" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="HU1" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="HV1" s="14" t="s">
+        <v>788</v>
+      </c>
+      <c r="HW1" s="14" t="s">
         <v>789</v>
       </c>
-      <c r="HW1" s="14" t="s">
-        <v>790</v>
-      </c>
       <c r="HX1" s="14" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="HY1" s="14" t="s">
+        <v>793</v>
+      </c>
+      <c r="HZ1" s="14" t="s">
         <v>794</v>
       </c>
-      <c r="HZ1" s="14" t="s">
-        <v>795</v>
-      </c>
       <c r="IA1" s="14" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="IB1" s="14" t="s">
+        <v>798</v>
+      </c>
+      <c r="IC1" s="14" t="s">
         <v>799</v>
       </c>
-      <c r="IC1" s="14" t="s">
+      <c r="ID1" s="15" t="s">
         <v>800</v>
       </c>
-      <c r="ID1" s="15" t="s">
-        <v>801</v>
-      </c>
       <c r="IE1" s="15" t="s">
+        <v>802</v>
+      </c>
+      <c r="IF1" s="15" t="s">
         <v>803</v>
       </c>
-      <c r="IF1" s="15" t="s">
+      <c r="IG1" s="15" t="s">
         <v>804</v>
       </c>
-      <c r="IG1" s="15" t="s">
+      <c r="IH1" s="15" t="s">
         <v>805</v>
       </c>
-      <c r="IH1" s="15" t="s">
+      <c r="II1" s="15" t="s">
         <v>806</v>
       </c>
-      <c r="II1" s="15" t="s">
-        <v>807</v>
-      </c>
       <c r="IJ1" s="15" t="s">
+        <v>808</v>
+      </c>
+      <c r="IK1" s="15" t="s">
         <v>809</v>
       </c>
-      <c r="IK1" s="15" t="s">
+      <c r="IL1" s="15" t="s">
         <v>810</v>
       </c>
-      <c r="IL1" s="15" t="s">
-        <v>812</v>
-      </c>
       <c r="IM1" s="15" t="s">
+        <v>811</v>
+      </c>
+      <c r="IN1" s="15" t="s">
         <v>813</v>
       </c>
-      <c r="IN1" s="15" t="s">
+      <c r="IO1" s="15" t="s">
+        <v>814</v>
+      </c>
+      <c r="IP1" s="15" t="s">
         <v>815</v>
       </c>
-      <c r="IO1" s="15" t="s">
-        <v>816</v>
-      </c>
-      <c r="IP1" s="15" t="s">
-        <v>818</v>
-      </c>
       <c r="IQ1" s="14" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="IR1" s="14" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="IS1" s="14" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="IT1" s="14" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="IU1" s="14" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="IV1" s="14" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="IW1" s="14" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="IX1" s="14" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="IY1" s="14" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="IZ1" s="14" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="JA1" s="14" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="JB1" s="14" t="s">
+        <v>839</v>
+      </c>
+      <c r="JC1" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="JD1" s="16" t="s">
         <v>842</v>
       </c>
-      <c r="JC1" s="14" t="s">
+      <c r="JE1" s="16" t="s">
+        <v>843</v>
+      </c>
+      <c r="JF1" s="16" t="s">
         <v>844</v>
       </c>
-      <c r="JD1" s="16" t="s">
+      <c r="JG1" s="16" t="s">
         <v>845</v>
       </c>
-      <c r="JE1" s="16" t="s">
-        <v>846</v>
-      </c>
-      <c r="JF1" s="16" t="s">
+      <c r="JH1" s="16" t="s">
         <v>847</v>
       </c>
-      <c r="JG1" s="16" t="s">
-        <v>848</v>
-      </c>
-      <c r="JH1" s="16" t="s">
-        <v>850</v>
-      </c>
       <c r="JI1" s="16" t="s">
+        <v>849</v>
+      </c>
+      <c r="JJ1" s="16" t="s">
         <v>851</v>
       </c>
-      <c r="JJ1" s="16" t="s">
+      <c r="JK1" s="16" t="s">
         <v>853</v>
       </c>
-      <c r="JK1" s="16" t="s">
+      <c r="JL1" s="16" t="s">
         <v>854</v>
       </c>
-      <c r="JL1" s="16" t="s">
+      <c r="JM1" s="16" t="s">
         <v>855</v>
       </c>
-      <c r="JM1" s="16" t="s">
+      <c r="JN1" s="16" t="s">
         <v>856</v>
       </c>
-      <c r="JN1" s="16" t="s">
+      <c r="JO1" s="16" t="s">
         <v>857</v>
       </c>
-      <c r="JO1" s="16" t="s">
+      <c r="JP1" s="16" t="s">
         <v>858</v>
       </c>
-      <c r="JP1" s="16" t="s">
-        <v>859</v>
-      </c>
       <c r="JQ1" s="16" t="s">
+        <v>860</v>
+      </c>
+      <c r="JR1" s="16" t="s">
         <v>861</v>
       </c>
-      <c r="JR1" s="16" t="s">
+      <c r="JS1" s="16" t="s">
         <v>862</v>
       </c>
-      <c r="JS1" s="16" t="s">
-        <v>863</v>
-      </c>
       <c r="JT1" s="16" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="JU1" s="16" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="JV1" s="16" t="s">
         <v>868</v>
@@ -5405,9 +5405,7 @@
       <c r="AK2" s="25" t="n">
         <v>0.0000000385911116568389</v>
       </c>
-      <c r="AL2" s="25" t="n">
-        <v>29.1014502371242</v>
-      </c>
+      <c r="AL2" s="25"/>
       <c r="AM2" s="25" t="n">
         <v>0.787973355829243</v>
       </c>
@@ -5501,9 +5499,7 @@
       <c r="BQ2" s="25" t="n">
         <v>0.0000203630217217608</v>
       </c>
-      <c r="BR2" s="25" t="n">
-        <v>107.514166160269</v>
-      </c>
+      <c r="BR2" s="25"/>
       <c r="BS2" s="25" t="n">
         <v>0.803123256198129</v>
       </c>
@@ -5649,9 +5645,7 @@
       <c r="DQ2" s="19" t="n">
         <v>26469.8518813813</v>
       </c>
-      <c r="DR2" s="27" t="n">
-        <v>0.851452134064213</v>
-      </c>
+      <c r="DR2" s="27"/>
       <c r="DS2" s="26" t="n">
         <v>51</v>
       </c>
@@ -5916,9 +5910,7 @@
       <c r="HB2" s="19" t="n">
         <v>0.0270834514570844</v>
       </c>
-      <c r="HC2" s="20" t="n">
-        <v>64.4506595202897</v>
-      </c>
+      <c r="HC2" s="20"/>
       <c r="HD2" s="26" t="n">
         <v>65</v>
       </c>
@@ -5947,7 +5939,7 @@
         <v>0</v>
       </c>
       <c r="HM2" s="26" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="HN2" s="26" t="n">
         <v>59</v>
@@ -5955,9 +5947,7 @@
       <c r="HO2" s="26" t="n">
         <v>12</v>
       </c>
-      <c r="HP2" s="26" t="n">
-        <v>99</v>
-      </c>
+      <c r="HP2" s="26"/>
       <c r="HQ2" s="21" t="n">
         <v>8.4472588489961</v>
       </c>
@@ -6025,17 +6015,15 @@
         <v>0</v>
       </c>
       <c r="IM2" s="26" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="IN2" s="26" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="IO2" s="26" t="n">
         <v>10</v>
       </c>
-      <c r="IP2" s="26" t="n">
-        <v>99</v>
-      </c>
+      <c r="IP2" s="26"/>
       <c r="IQ2" s="21" t="n">
         <v>8.91010390906329</v>
       </c>
@@ -6103,7 +6091,7 @@
         <v>0</v>
       </c>
       <c r="JM2" s="26" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="JN2" s="26" t="n">
         <v>64</v>
@@ -6142,7 +6130,7 @@
         <v>0</v>
       </c>
       <c r="JZ2" s="26" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="KA2" s="26" t="n">
         <v>56</v>
@@ -6632,9 +6620,7 @@
       <c r="AK3" s="25" t="n">
         <v>0.000390029270835048</v>
       </c>
-      <c r="AL3" s="25" t="n">
-        <v>12.5901919620964</v>
-      </c>
+      <c r="AL3" s="25"/>
       <c r="AM3" s="25" t="n">
         <v>1.05767187036324</v>
       </c>
@@ -6728,9 +6714,7 @@
       <c r="BQ3" s="25" t="n">
         <v>0.0119443517218195</v>
       </c>
-      <c r="BR3" s="25" t="n">
-        <v>6.78840087937214</v>
-      </c>
+      <c r="BR3" s="25"/>
       <c r="BS3" s="25" t="n">
         <v>0.838980319108742</v>
       </c>
@@ -6884,9 +6868,7 @@
       <c r="DQ3" s="19" t="n">
         <v>27717.8793913183</v>
       </c>
-      <c r="DR3" s="27" t="n">
-        <v>0.513078130242561</v>
-      </c>
+      <c r="DR3" s="27"/>
       <c r="DS3" s="26" t="n">
         <v>65</v>
       </c>
@@ -6930,7 +6912,7 @@
         <v>0</v>
       </c>
       <c r="EG3" s="26" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="EH3" s="26" t="n">
         <v>51</v>
@@ -7038,13 +7020,13 @@
         <v>82</v>
       </c>
       <c r="FQ3" s="26" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="FR3" s="26" t="n">
         <v>0</v>
       </c>
       <c r="FS3" s="26" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="FT3" s="26" t="n">
         <v>61</v>
@@ -7151,9 +7133,7 @@
       <c r="HB3" s="19" t="n">
         <v>273.72465756972</v>
       </c>
-      <c r="HC3" s="20" t="n">
-        <v>27.8833586928604</v>
-      </c>
+      <c r="HC3" s="20"/>
       <c r="HD3" s="26" t="n">
         <v>74</v>
       </c>
@@ -7190,9 +7170,7 @@
       <c r="HO3" s="26" t="n">
         <v>64</v>
       </c>
-      <c r="HP3" s="26" t="n">
-        <v>98</v>
-      </c>
+      <c r="HP3" s="26"/>
       <c r="HQ3" s="21" t="n">
         <v>8.4472588489961</v>
       </c>
@@ -7257,20 +7235,18 @@
         <v>0</v>
       </c>
       <c r="IL3" s="26" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="IM3" s="26" t="n">
         <v>0</v>
       </c>
       <c r="IN3" s="26" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="IO3" s="26" t="n">
         <v>65</v>
       </c>
-      <c r="IP3" s="26" t="n">
-        <v>94</v>
-      </c>
+      <c r="IP3" s="26"/>
       <c r="IQ3" s="21" t="n">
         <v>8.73939602199018</v>
       </c>
@@ -7867,9 +7843,7 @@
       <c r="AK4" s="25" t="n">
         <v>0.000419949699299063</v>
       </c>
-      <c r="AL4" s="25" t="n">
-        <v>0.00203563747305418</v>
-      </c>
+      <c r="AL4" s="25"/>
       <c r="AM4" s="25" t="n">
         <v>0.626257698191656</v>
       </c>
@@ -7963,9 +7937,7 @@
       <c r="BQ4" s="25" t="n">
         <v>0.00963517488913335</v>
       </c>
-      <c r="BR4" s="25" t="n">
-        <v>0.0121480413324904</v>
-      </c>
+      <c r="BR4" s="25"/>
       <c r="BS4" s="25" t="n">
         <v>0.686093643330078</v>
       </c>
@@ -8119,9 +8091,7 @@
       <c r="DQ4" s="19" t="n">
         <v>45247.5792544538</v>
       </c>
-      <c r="DR4" s="27" t="n">
-        <v>0.694338991781743</v>
-      </c>
+      <c r="DR4" s="27"/>
       <c r="DS4" s="26" t="n">
         <v>23</v>
       </c>
@@ -8159,7 +8129,7 @@
         <v>66</v>
       </c>
       <c r="EE4" s="26" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="EF4" s="26" t="n">
         <v>0</v>
@@ -8386,9 +8356,7 @@
       <c r="HB4" s="19" t="n">
         <v>294.72297653721</v>
       </c>
-      <c r="HC4" s="20" t="n">
-        <v>0.00450830376539759</v>
-      </c>
+      <c r="HC4" s="20"/>
       <c r="HD4" s="26" t="n">
         <v>71</v>
       </c>
@@ -8411,7 +8379,7 @@
         <v>53</v>
       </c>
       <c r="HK4" s="26" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="HL4" s="26" t="n">
         <v>40</v>
@@ -8425,9 +8393,7 @@
       <c r="HO4" s="26" t="n">
         <v>65</v>
       </c>
-      <c r="HP4" s="26" t="n">
-        <v>0</v>
-      </c>
+      <c r="HP4" s="26"/>
       <c r="HQ4" s="21" t="n">
         <v>8.4472588489961</v>
       </c>
@@ -8489,7 +8455,7 @@
         <v>32</v>
       </c>
       <c r="IK4" s="26" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="IL4" s="26" t="n">
         <v>15</v>
@@ -8498,14 +8464,12 @@
         <v>55</v>
       </c>
       <c r="IN4" s="26" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="IO4" s="26" t="n">
         <v>21</v>
       </c>
-      <c r="IP4" s="26" t="n">
-        <v>86</v>
-      </c>
+      <c r="IP4" s="26"/>
       <c r="IQ4" s="21" t="n">
         <v>8.96099571358181</v>
       </c>
@@ -8567,7 +8531,7 @@
         <v>38</v>
       </c>
       <c r="JK4" s="26" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="JL4" s="26" t="n">
         <v>39</v>
@@ -8582,7 +8546,7 @@
         <v>46</v>
       </c>
       <c r="JP4" s="26" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="JQ4" s="26" t="n">
         <v>55</v>
@@ -8606,7 +8570,7 @@
         <v>38</v>
       </c>
       <c r="JX4" s="26" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="JY4" s="26" t="n">
         <v>36</v>
@@ -8621,7 +8585,7 @@
         <v>52</v>
       </c>
       <c r="KC4" s="26" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="KD4" s="26" t="n">
         <v>1</v>
@@ -9102,9 +9066,7 @@
       <c r="AK5" s="25" t="n">
         <v>0.000503854809620127</v>
       </c>
-      <c r="AL5" s="25" t="n">
-        <v>0</v>
-      </c>
+      <c r="AL5" s="25"/>
       <c r="AM5" s="25" t="n">
         <v>0.433314397203002</v>
       </c>
@@ -9198,9 +9160,7 @@
       <c r="BQ5" s="25" t="n">
         <v>0.0321524784064006</v>
       </c>
-      <c r="BR5" s="25" t="n">
-        <v>0</v>
-      </c>
+      <c r="BR5" s="25"/>
       <c r="BS5" s="25" t="n">
         <v>0.524090716325584</v>
       </c>
@@ -9354,9 +9314,7 @@
       <c r="DQ5" s="19" t="n">
         <v>78181.5232928303</v>
       </c>
-      <c r="DR5" s="27" t="n">
-        <v>0.570038295433618</v>
-      </c>
+      <c r="DR5" s="27"/>
       <c r="DS5" s="26" t="n">
         <v>38</v>
       </c>
@@ -9397,7 +9355,7 @@
         <v>85</v>
       </c>
       <c r="EF5" s="26" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="EG5" s="26" t="n">
         <v>88</v>
@@ -9508,13 +9466,13 @@
         <v>74</v>
       </c>
       <c r="FQ5" s="26" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="FR5" s="26" t="n">
         <v>0</v>
       </c>
       <c r="FS5" s="26" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="FT5" s="26" t="n">
         <v>82</v>
@@ -9621,9 +9579,7 @@
       <c r="HB5" s="19" t="n">
         <v>353.608038014291</v>
       </c>
-      <c r="HC5" s="20" t="n">
-        <v>0</v>
-      </c>
+      <c r="HC5" s="20"/>
       <c r="HD5" s="26" t="n">
         <v>94</v>
       </c>
@@ -9660,9 +9616,7 @@
       <c r="HO5" s="26" t="n">
         <v>66</v>
       </c>
-      <c r="HP5" s="26" t="n">
-        <v>0</v>
-      </c>
+      <c r="HP5" s="26"/>
       <c r="HQ5" s="21" t="n">
         <v>8.4472588489961</v>
       </c>
@@ -9724,10 +9678,10 @@
         <v>54</v>
       </c>
       <c r="IK5" s="26" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="IL5" s="26" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="IM5" s="26" t="n">
         <v>89</v>
@@ -9738,9 +9692,7 @@
       <c r="IO5" s="26" t="n">
         <v>47</v>
       </c>
-      <c r="IP5" s="26" t="n">
-        <v>0</v>
-      </c>
+      <c r="IP5" s="26"/>
       <c r="IQ5" s="21" t="n">
         <v>12.3057217864917</v>
       </c>
@@ -10337,9 +10289,7 @@
       <c r="AK6" s="25" t="n">
         <v>0.00868087267876925</v>
       </c>
-      <c r="AL6" s="25" t="n">
-        <v>0</v>
-      </c>
+      <c r="AL6" s="25"/>
       <c r="AM6" s="25" t="n">
         <v>0.808330758734756</v>
       </c>
@@ -10433,9 +10383,7 @@
       <c r="BQ6" s="25" t="n">
         <v>0.553952380772692</v>
       </c>
-      <c r="BR6" s="25" t="n">
-        <v>0</v>
-      </c>
+      <c r="BR6" s="25"/>
       <c r="BS6" s="25" t="n">
         <v>0.977670368461893</v>
       </c>
@@ -10589,9 +10537,7 @@
       <c r="DQ6" s="19" t="n">
         <v>17647.8256381353</v>
       </c>
-      <c r="DR6" s="27" t="n">
-        <v>0.217327899777291</v>
-      </c>
+      <c r="DR6" s="27"/>
       <c r="DS6" s="26" t="n">
         <v>94</v>
       </c>
@@ -10629,10 +10575,10 @@
         <v>51</v>
       </c>
       <c r="EE6" s="26" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="EF6" s="26" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="EG6" s="26" t="n">
         <v>87</v>
@@ -10856,9 +10802,7 @@
       <c r="HB6" s="19" t="n">
         <v>6092.28352609306</v>
       </c>
-      <c r="HC6" s="20" t="n">
-        <v>0</v>
-      </c>
+      <c r="HC6" s="20"/>
       <c r="HD6" s="26" t="n">
         <v>96</v>
       </c>
@@ -10895,9 +10839,7 @@
       <c r="HO6" s="26" t="n">
         <v>86</v>
       </c>
-      <c r="HP6" s="26" t="n">
-        <v>0</v>
-      </c>
+      <c r="HP6" s="26"/>
       <c r="HQ6" s="21" t="n">
         <v>8.4472588489961</v>
       </c>
@@ -10959,7 +10901,7 @@
         <v>87</v>
       </c>
       <c r="IK6" s="26" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="IL6" s="26" t="n">
         <v>99</v>
@@ -10973,9 +10915,7 @@
       <c r="IO6" s="26" t="n">
         <v>75</v>
       </c>
-      <c r="IP6" s="26" t="n">
-        <v>0</v>
-      </c>
+      <c r="IP6" s="26"/>
       <c r="IQ6" s="21" t="n">
         <v>12.3057217864917</v>
       </c>
@@ -11572,9 +11512,7 @@
       <c r="AK7" s="25" t="n">
         <v>0.000436355248532326</v>
       </c>
-      <c r="AL7" s="25" t="n">
-        <v>0.00622286789969474</v>
-      </c>
+      <c r="AL7" s="25"/>
       <c r="AM7" s="25" t="n">
         <v>1.16411412096828</v>
       </c>
@@ -11668,9 +11606,7 @@
       <c r="BQ7" s="25" t="n">
         <v>0.0905303353279273</v>
       </c>
-      <c r="BR7" s="25" t="n">
-        <v>0.00503941005613082</v>
-      </c>
+      <c r="BR7" s="25"/>
       <c r="BS7" s="25" t="n">
         <v>1.47255609670349</v>
       </c>
@@ -11824,9 +11760,7 @@
       <c r="DQ7" s="19" t="n">
         <v>26796.2011477966</v>
       </c>
-      <c r="DR7" s="27" t="n">
-        <v>0.133918814627673</v>
-      </c>
+      <c r="DR7" s="27"/>
       <c r="DS7" s="26" t="n">
         <v>85</v>
       </c>
@@ -11978,13 +11912,13 @@
         <v>52</v>
       </c>
       <c r="FQ7" s="26" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="FR7" s="26" t="n">
         <v>0</v>
       </c>
       <c r="FS7" s="26" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="FT7" s="26" t="n">
         <v>82</v>
@@ -12091,9 +12025,7 @@
       <c r="HB7" s="19" t="n">
         <v>306.236479963514</v>
       </c>
-      <c r="HC7" s="20" t="n">
-        <v>0.0137817166146356</v>
-      </c>
+      <c r="HC7" s="20"/>
       <c r="HD7" s="26" t="n">
         <v>50</v>
       </c>
@@ -12130,9 +12062,7 @@
       <c r="HO7" s="26" t="n">
         <v>65</v>
       </c>
-      <c r="HP7" s="26" t="n">
-        <v>0</v>
-      </c>
+      <c r="HP7" s="26"/>
       <c r="HQ7" s="21" t="n">
         <v>8.4472588489961</v>
       </c>
@@ -12194,10 +12124,10 @@
         <v>31</v>
       </c>
       <c r="IK7" s="26" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="IL7" s="26" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="IM7" s="26" t="n">
         <v>93</v>
@@ -12208,9 +12138,7 @@
       <c r="IO7" s="26" t="n">
         <v>64</v>
       </c>
-      <c r="IP7" s="26" t="n">
-        <v>0</v>
-      </c>
+      <c r="IP7" s="26"/>
       <c r="IQ7" s="21" t="n">
         <v>7.63995881566755</v>
       </c>
@@ -12287,7 +12215,7 @@
         <v>86</v>
       </c>
       <c r="JP7" s="26" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="JQ7" s="26" t="n">
         <v>79</v>
@@ -12326,7 +12254,7 @@
         <v>87</v>
       </c>
       <c r="KC7" s="26" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="KD7" s="26" t="n">
         <v>2</v>
@@ -12807,9 +12735,7 @@
       <c r="AK8" s="25" t="n">
         <v>0.00141713409442646</v>
       </c>
-      <c r="AL8" s="25" t="n">
-        <v>0</v>
-      </c>
+      <c r="AL8" s="25"/>
       <c r="AM8" s="25" t="n">
         <v>0.598963522675061</v>
       </c>
@@ -12903,9 +12829,7 @@
       <c r="BQ8" s="25" t="n">
         <v>0.0904315538922277</v>
       </c>
-      <c r="BR8" s="25" t="n">
-        <v>0</v>
-      </c>
+      <c r="BR8" s="25"/>
       <c r="BS8" s="25" t="n">
         <v>0.724442168729984</v>
       </c>
@@ -13059,9 +12983,7 @@
       <c r="DQ8" s="19" t="n">
         <v>30048.337068096</v>
       </c>
-      <c r="DR8" s="27" t="n">
-        <v>0.754079671532098</v>
-      </c>
+      <c r="DR8" s="27"/>
       <c r="DS8" s="26" t="n">
         <v>76</v>
       </c>
@@ -13326,9 +13248,7 @@
       <c r="HB8" s="19" t="n">
         <v>994.552393200536</v>
       </c>
-      <c r="HC8" s="20" t="n">
-        <v>0</v>
-      </c>
+      <c r="HC8" s="20"/>
       <c r="HD8" s="26" t="n">
         <v>98</v>
       </c>
@@ -13365,9 +13285,7 @@
       <c r="HO8" s="26" t="n">
         <v>73</v>
       </c>
-      <c r="HP8" s="26" t="n">
-        <v>0</v>
-      </c>
+      <c r="HP8" s="26"/>
       <c r="HQ8" s="21" t="n">
         <v>8.4472588489961</v>
       </c>
@@ -13429,7 +13347,7 @@
         <v>25</v>
       </c>
       <c r="IK8" s="26" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="IL8" s="26" t="n">
         <v>93</v>
@@ -13443,9 +13361,7 @@
       <c r="IO8" s="26" t="n">
         <v>53</v>
       </c>
-      <c r="IP8" s="26" t="n">
-        <v>0</v>
-      </c>
+      <c r="IP8" s="26"/>
       <c r="IQ8" s="21" t="n">
         <v>12.3057217864917</v>
       </c>
@@ -14042,9 +13958,7 @@
       <c r="AK9" s="25" t="n">
         <v>0.000887571275404455</v>
       </c>
-      <c r="AL9" s="25" t="n">
-        <v>2.09093824288668</v>
-      </c>
+      <c r="AL9" s="25"/>
       <c r="AM9" s="25" t="n">
         <v>0.963394724089408</v>
       </c>
@@ -14138,9 +14052,7 @@
       <c r="BQ9" s="25" t="n">
         <v>0.85763341290785</v>
       </c>
-      <c r="BR9" s="25" t="n">
-        <v>5.71225509831866</v>
-      </c>
+      <c r="BR9" s="25"/>
       <c r="BS9" s="25" t="n">
         <v>1.13147756068488</v>
       </c>
@@ -14294,9 +14206,7 @@
       <c r="DQ9" s="19" t="n">
         <v>47912.2359227668</v>
       </c>
-      <c r="DR9" s="27" t="n">
-        <v>0.764153426100977</v>
-      </c>
+      <c r="DR9" s="27"/>
       <c r="DS9" s="26" t="n">
         <v>23</v>
       </c>
@@ -14334,7 +14244,7 @@
         <v>67</v>
       </c>
       <c r="EE9" s="26" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="EF9" s="26" t="n">
         <v>0</v>
@@ -14561,9 +14471,7 @@
       <c r="HB9" s="19" t="n">
         <v>622.902334762339</v>
       </c>
-      <c r="HC9" s="20" t="n">
-        <v>4.63077776784912</v>
-      </c>
+      <c r="HC9" s="20"/>
       <c r="HD9" s="26" t="n">
         <v>32</v>
       </c>
@@ -14600,9 +14508,7 @@
       <c r="HO9" s="26" t="n">
         <v>70</v>
       </c>
-      <c r="HP9" s="26" t="n">
-        <v>89</v>
-      </c>
+      <c r="HP9" s="26"/>
       <c r="HQ9" s="21" t="n">
         <v>8.4472588489961</v>
       </c>
@@ -14678,9 +14584,7 @@
       <c r="IO9" s="26" t="n">
         <v>93</v>
       </c>
-      <c r="IP9" s="26" t="n">
-        <v>91</v>
-      </c>
+      <c r="IP9" s="26"/>
       <c r="IQ9" s="21" t="n">
         <v>6.63359798685088</v>
       </c>
@@ -15277,9 +15181,7 @@
       <c r="AK10" s="25" t="n">
         <v>0.0174599841032236</v>
       </c>
-      <c r="AL10" s="25" t="n">
-        <v>0.309428850228623</v>
-      </c>
+      <c r="AL10" s="25"/>
       <c r="AM10" s="25" t="n">
         <v>0.843989090299306</v>
       </c>
@@ -15373,9 +15275,7 @@
       <c r="BQ10" s="25" t="n">
         <v>0.139618819597715</v>
       </c>
-      <c r="BR10" s="25" t="n">
-        <v>0.43809421260056</v>
-      </c>
+      <c r="BR10" s="25"/>
       <c r="BS10" s="25" t="n">
         <v>1.10007717347245</v>
       </c>
@@ -15529,9 +15429,7 @@
       <c r="DQ10" s="19" t="n">
         <v>41106.5778205061</v>
       </c>
-      <c r="DR10" s="27" t="n">
-        <v>0.630529575993296</v>
-      </c>
+      <c r="DR10" s="27"/>
       <c r="DS10" s="26" t="n">
         <v>44</v>
       </c>
@@ -15572,7 +15470,7 @@
         <v>89</v>
       </c>
       <c r="EF10" s="26" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="EG10" s="26" t="n">
         <v>87</v>
@@ -15796,9 +15694,7 @@
       <c r="HB10" s="19" t="n">
         <v>12253.5115366992</v>
       </c>
-      <c r="HC10" s="20" t="n">
-        <v>0.685288647450255</v>
-      </c>
+      <c r="HC10" s="20"/>
       <c r="HD10" s="26" t="n">
         <v>33</v>
       </c>
@@ -15835,9 +15731,7 @@
       <c r="HO10" s="26" t="n">
         <v>89</v>
       </c>
-      <c r="HP10" s="26" t="n">
-        <v>76</v>
-      </c>
+      <c r="HP10" s="26"/>
       <c r="HQ10" s="21" t="n">
         <v>8.4472588489961</v>
       </c>
@@ -15913,9 +15807,7 @@
       <c r="IO10" s="26" t="n">
         <v>71</v>
       </c>
-      <c r="IP10" s="26" t="n">
-        <v>86</v>
-      </c>
+      <c r="IP10" s="26"/>
       <c r="IQ10" s="21" t="n">
         <v>7.55988471860629</v>
       </c>
@@ -16031,7 +15923,7 @@
         <v>74</v>
       </c>
       <c r="KC10" s="26" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="KD10" s="26" t="n">
         <v>1</v>
@@ -16512,9 +16404,7 @@
       <c r="AK11" s="25" t="n">
         <v>0.00153318592106951</v>
       </c>
-      <c r="AL11" s="25" t="n">
-        <v>0</v>
-      </c>
+      <c r="AL11" s="25"/>
       <c r="AM11" s="25" t="n">
         <v>0.310220761801734</v>
       </c>
@@ -16608,9 +16498,7 @@
       <c r="BQ11" s="25" t="n">
         <v>0.318089070823213</v>
       </c>
-      <c r="BR11" s="25" t="n">
-        <v>0</v>
-      </c>
+      <c r="BR11" s="25"/>
       <c r="BS11" s="25" t="n">
         <v>0.392416401353481</v>
       </c>
@@ -16764,9 +16652,7 @@
       <c r="DQ11" s="19" t="n">
         <v>85137.4892325996</v>
       </c>
-      <c r="DR11" s="27" t="n">
-        <v>0.835318928511225</v>
-      </c>
+      <c r="DR11" s="27"/>
       <c r="DS11" s="26" t="n">
         <v>12</v>
       </c>
@@ -17031,9 +16917,7 @@
       <c r="HB11" s="19" t="n">
         <v>1075.99819453796</v>
       </c>
-      <c r="HC11" s="20" t="n">
-        <v>0</v>
-      </c>
+      <c r="HC11" s="20"/>
       <c r="HD11" s="26" t="n">
         <v>25</v>
       </c>
@@ -17056,7 +16940,7 @@
         <v>69</v>
       </c>
       <c r="HK11" s="26" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="HL11" s="26" t="n">
         <v>0</v>
@@ -17070,9 +16954,7 @@
       <c r="HO11" s="26" t="n">
         <v>74</v>
       </c>
-      <c r="HP11" s="26" t="n">
-        <v>0</v>
-      </c>
+      <c r="HP11" s="26"/>
       <c r="HQ11" s="21" t="n">
         <v>8.4472588489961</v>
       </c>
@@ -17134,7 +17016,7 @@
         <v>49</v>
       </c>
       <c r="IK11" s="26" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="IL11" s="26" t="n">
         <v>0</v>
@@ -17148,9 +17030,7 @@
       <c r="IO11" s="26" t="n">
         <v>76</v>
       </c>
-      <c r="IP11" s="26" t="n">
-        <v>0</v>
-      </c>
+      <c r="IP11" s="26"/>
       <c r="IQ11" s="21" t="n">
         <v>7.63995881566755</v>
       </c>
@@ -17251,7 +17131,7 @@
         <v>40</v>
       </c>
       <c r="JX11" s="26" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="JY11" s="26" t="n">
         <v>0</v>
@@ -18062,7 +17942,7 @@
         <v>497</v>
       </c>
       <c r="AL1" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AM1" s="3" t="s">
         <v>500</v>
@@ -18074,244 +17954,244 @@
         <v>502</v>
       </c>
       <c r="AP1" s="5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AQ1" s="5" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AR1" s="5" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AS1" s="5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AT1" s="5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AU1" s="5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AV1" s="5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AW1" s="5" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AX1" s="5" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AY1" s="5" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AZ1" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="BA1" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="BB1" s="5" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="BC1" s="5" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="BD1" s="5" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="BE1" s="5" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="BF1" s="6" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="BG1" s="6" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="BH1" s="6" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="BI1" s="6" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="BJ1" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="BK1" s="6" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="BL1" s="6" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="BM1" s="6" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="BN1" s="6" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="BO1" s="6" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="BP1" s="6" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="BQ1" s="6" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="BR1" s="6" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="BS1" s="5" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="BT1" s="5" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="BU1" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="BV1" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="BW1" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="BX1" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="BY1" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="BZ1" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="CA1" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="CB1" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="CC1" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="CD1" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="CE1" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="CF1" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="CG1" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="CH1" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="CI1" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="CJ1" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="CK1" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="CL1" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="CM1" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="CN1" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="CO1" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CP1" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="CQ1" s="8" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="CR1" s="8" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="CS1" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="CT1" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="CU1" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="CV1" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="CW1" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="CX1" s="7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="CY1" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="CZ1" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="DA1" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="DB1" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="DC1" s="7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="DD1" s="7" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="DE1" s="7" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="DF1" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="DG1" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="DH1" s="7" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="DI1" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="DJ1" s="7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="DK1" s="8" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="DL1" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="DM1" s="7" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="DN1" s="8" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="DO1" s="8" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="DP1" s="8" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="DQ1" s="8" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="DR1" s="7" t="s">
         <v>627</v>
@@ -18434,151 +18314,151 @@
         <v>686</v>
       </c>
       <c r="FF1" s="11" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="FG1" s="11" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="FH1" s="11" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="FI1" s="11" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="FJ1" s="11" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="FK1" s="11" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="FL1" s="11" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="FM1" s="11" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="FN1" s="11" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="FO1" s="11" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="FP1" s="11" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="FQ1" s="11" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="FR1" s="11" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="FS1" s="11" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="FT1" s="11" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="FU1" s="11" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="FV1" s="11" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="FW1" s="11" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="FX1" s="7" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="FY1" s="7" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="FZ1" s="7" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="GA1" s="7" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="GB1" s="7" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="GC1" s="7" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="GD1" s="7" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="GE1" s="7" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="GF1" s="7" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="GG1" s="7" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="GH1" s="7" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="GI1" s="7" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="GJ1" s="7" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="GK1" s="7" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="GL1" s="7" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="GM1" s="7" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="GN1" s="7" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="GO1" s="7" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="GP1" s="7" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="GQ1" s="12" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="GR1" s="12" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="GS1" s="12" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="GT1" s="12" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="GU1" s="12" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="GV1" s="12" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="GW1" s="12" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="GX1" s="12" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="GY1" s="12" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="GZ1" s="12" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="HA1" s="12" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="HB1" s="12" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="HC1" s="12" t="s">
         <v>758</v>
@@ -18620,178 +18500,178 @@
         <v>775</v>
       </c>
       <c r="HP1" s="13" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="HQ1" s="14" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="HR1" s="14" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="HS1" s="14" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="HT1" s="14" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="HU1" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="HV1" s="14" t="s">
+        <v>788</v>
+      </c>
+      <c r="HW1" s="14" t="s">
         <v>789</v>
       </c>
-      <c r="HW1" s="14" t="s">
-        <v>790</v>
-      </c>
       <c r="HX1" s="14" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="HY1" s="14" t="s">
+        <v>793</v>
+      </c>
+      <c r="HZ1" s="14" t="s">
         <v>794</v>
       </c>
-      <c r="HZ1" s="14" t="s">
-        <v>795</v>
-      </c>
       <c r="IA1" s="14" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="IB1" s="14" t="s">
+        <v>798</v>
+      </c>
+      <c r="IC1" s="14" t="s">
         <v>799</v>
       </c>
-      <c r="IC1" s="14" t="s">
+      <c r="ID1" s="15" t="s">
         <v>800</v>
       </c>
-      <c r="ID1" s="15" t="s">
-        <v>801</v>
-      </c>
       <c r="IE1" s="15" t="s">
+        <v>802</v>
+      </c>
+      <c r="IF1" s="15" t="s">
         <v>803</v>
       </c>
-      <c r="IF1" s="15" t="s">
+      <c r="IG1" s="15" t="s">
         <v>804</v>
       </c>
-      <c r="IG1" s="15" t="s">
+      <c r="IH1" s="15" t="s">
         <v>805</v>
       </c>
-      <c r="IH1" s="15" t="s">
+      <c r="II1" s="15" t="s">
         <v>806</v>
       </c>
-      <c r="II1" s="15" t="s">
-        <v>807</v>
-      </c>
       <c r="IJ1" s="15" t="s">
+        <v>808</v>
+      </c>
+      <c r="IK1" s="15" t="s">
         <v>809</v>
       </c>
-      <c r="IK1" s="15" t="s">
+      <c r="IL1" s="15" t="s">
         <v>810</v>
       </c>
-      <c r="IL1" s="15" t="s">
-        <v>812</v>
-      </c>
       <c r="IM1" s="15" t="s">
+        <v>811</v>
+      </c>
+      <c r="IN1" s="15" t="s">
         <v>813</v>
       </c>
-      <c r="IN1" s="15" t="s">
+      <c r="IO1" s="15" t="s">
+        <v>814</v>
+      </c>
+      <c r="IP1" s="15" t="s">
         <v>815</v>
       </c>
-      <c r="IO1" s="15" t="s">
-        <v>816</v>
-      </c>
-      <c r="IP1" s="15" t="s">
-        <v>818</v>
-      </c>
       <c r="IQ1" s="14" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="IR1" s="14" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="IS1" s="14" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="IT1" s="14" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="IU1" s="14" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="IV1" s="14" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="IW1" s="14" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="IX1" s="14" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="IY1" s="14" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="IZ1" s="14" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="JA1" s="14" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="JB1" s="14" t="s">
+        <v>839</v>
+      </c>
+      <c r="JC1" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="JD1" s="16" t="s">
         <v>842</v>
       </c>
-      <c r="JC1" s="14" t="s">
+      <c r="JE1" s="16" t="s">
+        <v>843</v>
+      </c>
+      <c r="JF1" s="16" t="s">
         <v>844</v>
       </c>
-      <c r="JD1" s="16" t="s">
+      <c r="JG1" s="16" t="s">
         <v>845</v>
       </c>
-      <c r="JE1" s="16" t="s">
-        <v>846</v>
-      </c>
-      <c r="JF1" s="16" t="s">
+      <c r="JH1" s="16" t="s">
         <v>847</v>
       </c>
-      <c r="JG1" s="16" t="s">
-        <v>848</v>
-      </c>
-      <c r="JH1" s="16" t="s">
-        <v>850</v>
-      </c>
       <c r="JI1" s="16" t="s">
+        <v>849</v>
+      </c>
+      <c r="JJ1" s="16" t="s">
         <v>851</v>
       </c>
-      <c r="JJ1" s="16" t="s">
+      <c r="JK1" s="16" t="s">
         <v>853</v>
       </c>
-      <c r="JK1" s="16" t="s">
+      <c r="JL1" s="16" t="s">
         <v>854</v>
       </c>
-      <c r="JL1" s="16" t="s">
+      <c r="JM1" s="16" t="s">
         <v>855</v>
       </c>
-      <c r="JM1" s="16" t="s">
+      <c r="JN1" s="16" t="s">
         <v>856</v>
       </c>
-      <c r="JN1" s="16" t="s">
+      <c r="JO1" s="16" t="s">
         <v>857</v>
       </c>
-      <c r="JO1" s="16" t="s">
+      <c r="JP1" s="16" t="s">
         <v>858</v>
       </c>
-      <c r="JP1" s="16" t="s">
-        <v>859</v>
-      </c>
       <c r="JQ1" s="16" t="s">
+        <v>860</v>
+      </c>
+      <c r="JR1" s="16" t="s">
         <v>861</v>
       </c>
-      <c r="JR1" s="16" t="s">
+      <c r="JS1" s="16" t="s">
         <v>862</v>
       </c>
-      <c r="JS1" s="16" t="s">
-        <v>863</v>
-      </c>
       <c r="JT1" s="16" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="JU1" s="16" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="JV1" s="16" t="s">
         <v>868</v>
@@ -19284,9 +19164,7 @@
       <c r="AK2" s="25" t="n">
         <v>0.00256029341158546</v>
       </c>
-      <c r="AL2" s="25" t="n">
-        <v>0.812284925754853</v>
-      </c>
+      <c r="AL2" s="25"/>
       <c r="AM2" s="25" t="n">
         <v>0.819317927505898</v>
       </c>
@@ -19380,9 +19258,7 @@
       <c r="BQ2" s="25" t="n">
         <v>0.134176149667439</v>
       </c>
-      <c r="BR2" s="25" t="n">
-        <v>1.17989444001946</v>
-      </c>
+      <c r="BR2" s="25"/>
       <c r="BS2" s="25" t="n">
         <v>0.992516278560708</v>
       </c>
@@ -19536,9 +19412,7 @@
       <c r="DQ2" s="19" t="n">
         <v>43667.8118611728</v>
       </c>
-      <c r="DR2" s="27" t="n">
-        <v>0.405385554234062</v>
-      </c>
+      <c r="DR2" s="27"/>
       <c r="DS2" s="26" t="n">
         <v>70</v>
       </c>
@@ -19690,13 +19564,13 @@
         <v>57.6216050626212</v>
       </c>
       <c r="FQ2" s="26" t="n">
-        <v>84.9423601169581</v>
+        <v>26.0844119852241</v>
       </c>
       <c r="FR2" s="26" t="n">
         <v>5.02618445096331</v>
       </c>
       <c r="FS2" s="26" t="n">
-        <v>85.612347469941</v>
+        <v>26.3473274981435</v>
       </c>
       <c r="FT2" s="26" t="n">
         <v>68.8657580521925</v>
@@ -19803,9 +19677,7 @@
       <c r="HB2" s="19" t="n">
         <v>1796.82780183088</v>
       </c>
-      <c r="HC2" s="20" t="n">
-        <v>1.79895842841897</v>
-      </c>
+      <c r="HC2" s="20"/>
       <c r="HD2" s="26" t="n">
         <v>89</v>
       </c>
@@ -19842,9 +19714,7 @@
       <c r="HO2" s="26" t="n">
         <v>78</v>
       </c>
-      <c r="HP2" s="26" t="n">
-        <v>84</v>
-      </c>
+      <c r="HP2" s="26"/>
       <c r="HQ2" s="21" t="n">
         <v>8.4472588489961</v>
       </c>
@@ -19906,23 +19776,21 @@
         <v>46.4249874543021</v>
       </c>
       <c r="IK2" s="26" t="n">
-        <v>69.7121730817598</v>
+        <v>3.76963833822248</v>
       </c>
       <c r="IL2" s="26" t="n">
-        <v>82.3314591272486</v>
+        <v>26.6169908681623</v>
       </c>
       <c r="IM2" s="26" t="n">
-        <v>79.1870584420925</v>
+        <v>78.9323777941743</v>
       </c>
       <c r="IN2" s="26" t="n">
-        <v>47.1976415279885</v>
+        <v>43.5815947161454</v>
       </c>
       <c r="IO2" s="26" t="n">
         <v>60.1564576670604</v>
       </c>
-      <c r="IP2" s="26" t="n">
-        <v>15.7249929374575</v>
-      </c>
+      <c r="IP2" s="26"/>
       <c r="IQ2" s="21" t="n">
         <v>9.73839662456579</v>
       </c>
@@ -20863,16 +20731,14 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s">
+      <c r="A39"/>
+      <c r="B39" t="s">
         <v>498</v>
-      </c>
-      <c r="B39" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B40" t="s">
         <v>500</v>
@@ -20899,7 +20765,7 @@
         <v>456</v>
       </c>
       <c r="B43" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="44">
@@ -20907,15 +20773,15 @@
         <v>449</v>
       </c>
       <c r="B44" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B45" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="46">
@@ -20923,15 +20789,15 @@
         <v>451</v>
       </c>
       <c r="B46" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B47" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="48">
@@ -20939,7 +20805,7 @@
         <v>451</v>
       </c>
       <c r="B48" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="49">
@@ -20947,7 +20813,7 @@
         <v>461</v>
       </c>
       <c r="B49" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="50">
@@ -20955,7 +20821,7 @@
         <v>456</v>
       </c>
       <c r="B50" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="51">
@@ -20963,23 +20829,23 @@
         <v>449</v>
       </c>
       <c r="B51" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B52" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B53" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="54">
@@ -20987,39 +20853,39 @@
         <v>486</v>
       </c>
       <c r="B54" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B55" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B56" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B57" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B58" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="59">
@@ -21027,7 +20893,7 @@
         <v>451</v>
       </c>
       <c r="B59" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="60">
@@ -21035,15 +20901,15 @@
         <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B61" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="62">
@@ -21051,7 +20917,7 @@
         <v>463</v>
       </c>
       <c r="B62" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="63">
@@ -21059,7 +20925,7 @@
         <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="64">
@@ -21067,15 +20933,15 @@
         <v>468</v>
       </c>
       <c r="B64" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B65" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="66">
@@ -21083,47 +20949,45 @@
         <v>463</v>
       </c>
       <c r="B66" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B67" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B68" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B69" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B70" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s">
-        <v>456</v>
-      </c>
+      <c r="A71"/>
       <c r="B71" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="72">
@@ -21131,7 +20995,7 @@
         <v>7</v>
       </c>
       <c r="B72" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="73">
@@ -21139,39 +21003,39 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B74" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B75" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B76" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B77" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="78">
@@ -21179,63 +21043,63 @@
         <v>447</v>
       </c>
       <c r="B78" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B79" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B80" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B81" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B82" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B83" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B84" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B85" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="86">
@@ -21243,7 +21107,7 @@
         <v>496</v>
       </c>
       <c r="B86" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="87">
@@ -21251,63 +21115,63 @@
         <v>496</v>
       </c>
       <c r="B87" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B88" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B89" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B90" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B91" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B92" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B93" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B94" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="95">
@@ -21315,95 +21179,95 @@
         <v>488</v>
       </c>
       <c r="B95" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B96" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B97" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B98" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B99" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B100" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B101" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B102" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B103" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B104" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B105" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B106" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="107">
@@ -21411,7 +21275,7 @@
         <v>447</v>
       </c>
       <c r="B107" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="108">
@@ -21419,125 +21283,123 @@
         <v>7</v>
       </c>
       <c r="B108" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B109" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B110" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B111" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B112" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B113" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B114" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B115" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B116" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B117" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B118" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B119" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B120" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B121" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B122" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s">
-        <v>626</v>
-      </c>
+      <c r="A123"/>
       <c r="B123" t="s">
         <v>627</v>
       </c>
@@ -21560,7 +21422,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B126" t="s">
         <v>632</v>
@@ -21584,7 +21446,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B129" t="s">
         <v>636</v>
@@ -21600,7 +21462,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B131" t="s">
         <v>639</v>
@@ -21672,7 +21534,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B140" t="s">
         <v>655</v>
@@ -21688,7 +21550,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B142" t="s">
         <v>658</v>
@@ -21720,7 +21582,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B146" t="s">
         <v>665</v>
@@ -21728,7 +21590,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B147" t="s">
         <v>666</v>
@@ -21736,7 +21598,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B148" t="s">
         <v>667</v>
@@ -21744,7 +21606,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B149" t="s">
         <v>668</v>
@@ -21752,7 +21614,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B150" t="s">
         <v>669</v>
@@ -21768,7 +21630,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B152" t="s">
         <v>672</v>
@@ -21776,7 +21638,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B153" t="s">
         <v>673</v>
@@ -21784,7 +21646,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B154" t="s">
         <v>674</v>
@@ -21856,26 +21718,26 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B163" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B164" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B165" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="166">
@@ -21883,7 +21745,7 @@
         <v>637</v>
       </c>
       <c r="B166" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="167">
@@ -21891,87 +21753,87 @@
         <v>637</v>
       </c>
       <c r="B167" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B168" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B169" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B170" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B171" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B172" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B173" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>647</v>
+        <v>702</v>
       </c>
       <c r="B174" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B175" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B176" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B177" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="178">
@@ -21979,47 +21841,47 @@
         <v>656</v>
       </c>
       <c r="B178" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B179" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B180" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B181" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B182" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B183" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="184">
@@ -22027,63 +21889,63 @@
         <v>447</v>
       </c>
       <c r="B184" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B185" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B186" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B187" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B188" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B189" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>722</v>
+        <v>702</v>
       </c>
       <c r="B190" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B191" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="192">
@@ -22091,7 +21953,7 @@
         <v>3</v>
       </c>
       <c r="B192" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="193">
@@ -22099,7 +21961,7 @@
         <v>496</v>
       </c>
       <c r="B193" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="194">
@@ -22107,7 +21969,7 @@
         <v>496</v>
       </c>
       <c r="B194" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="195">
@@ -22115,7 +21977,7 @@
         <v>7</v>
       </c>
       <c r="B195" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="196">
@@ -22123,133 +21985,131 @@
         <v>678</v>
       </c>
       <c r="B196" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B197" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B198" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B199" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B200" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B201" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B202" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B203" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B204" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B205" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B206" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B207" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B208" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B209" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B210" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B211" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s">
-        <v>757</v>
-      </c>
+      <c r="A212"/>
       <c r="B212" t="s">
         <v>758</v>
       </c>
@@ -22344,90 +22204,88 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B224" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s">
+      <c r="A225"/>
+      <c r="B225" t="s">
         <v>776</v>
-      </c>
-      <c r="B225" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
+        <v>777</v>
+      </c>
+      <c r="B226" t="s">
         <v>778</v>
-      </c>
-      <c r="B226" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
+        <v>779</v>
+      </c>
+      <c r="B227" t="s">
         <v>780</v>
-      </c>
-      <c r="B227" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
+        <v>781</v>
+      </c>
+      <c r="B228" t="s">
         <v>782</v>
-      </c>
-      <c r="B228" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
+        <v>783</v>
+      </c>
+      <c r="B229" t="s">
         <v>784</v>
-      </c>
-      <c r="B229" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
+        <v>785</v>
+      </c>
+      <c r="B230" t="s">
         <v>786</v>
-      </c>
-      <c r="B230" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
+        <v>787</v>
+      </c>
+      <c r="B231" t="s">
         <v>788</v>
-      </c>
-      <c r="B231" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B232" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
+        <v>790</v>
+      </c>
+      <c r="B233" t="s">
         <v>791</v>
-      </c>
-      <c r="B233" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
+        <v>792</v>
+      </c>
+      <c r="B234" t="s">
         <v>793</v>
-      </c>
-      <c r="B234" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="235">
@@ -22435,23 +22293,23 @@
         <v>490</v>
       </c>
       <c r="B235" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
+        <v>795</v>
+      </c>
+      <c r="B236" t="s">
         <v>796</v>
-      </c>
-      <c r="B236" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
+        <v>797</v>
+      </c>
+      <c r="B237" t="s">
         <v>798</v>
-      </c>
-      <c r="B237" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="238">
@@ -22459,7 +22317,7 @@
         <v>481</v>
       </c>
       <c r="B238" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="239">
@@ -22467,23 +22325,23 @@
         <v>628</v>
       </c>
       <c r="B239" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
+        <v>801</v>
+      </c>
+      <c r="B240" t="s">
         <v>802</v>
-      </c>
-      <c r="B240" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B241" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="242">
@@ -22491,15 +22349,15 @@
         <v>760</v>
       </c>
       <c r="B242" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B243" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="244">
@@ -22507,31 +22365,31 @@
         <v>628</v>
       </c>
       <c r="B244" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
+        <v>807</v>
+      </c>
+      <c r="B245" t="s">
         <v>808</v>
-      </c>
-      <c r="B245" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>628</v>
+        <v>488</v>
       </c>
       <c r="B246" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>811</v>
+        <v>578</v>
       </c>
       <c r="B247" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="248">
@@ -22539,15 +22397,15 @@
         <v>760</v>
       </c>
       <c r="B248" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B249" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="250">
@@ -22555,127 +22413,125 @@
         <v>680</v>
       </c>
       <c r="B250" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="s">
-        <v>817</v>
-      </c>
+      <c r="A251"/>
       <c r="B251" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="B252" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B253" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B254" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="B255" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="B256" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B257" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B258" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="B259" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="B260" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="B261" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="B262" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="B263" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="B264" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B265" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="266">
@@ -22683,7 +22539,7 @@
         <v>642</v>
       </c>
       <c r="B266" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="267">
@@ -22691,7 +22547,7 @@
         <v>645</v>
       </c>
       <c r="B267" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="268">
@@ -22699,39 +22555,39 @@
         <v>647</v>
       </c>
       <c r="B268" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="B269" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>811</v>
+        <v>848</v>
       </c>
       <c r="B270" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B271" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>703</v>
+        <v>852</v>
       </c>
       <c r="B272" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="273">
@@ -22739,7 +22595,7 @@
         <v>645</v>
       </c>
       <c r="B273" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="274">
@@ -22747,23 +22603,23 @@
         <v>647</v>
       </c>
       <c r="B274" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B275" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B276" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="277">
@@ -22771,15 +22627,15 @@
         <v>640</v>
       </c>
       <c r="B277" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
+        <v>859</v>
+      </c>
+      <c r="B278" t="s">
         <v>860</v>
-      </c>
-      <c r="B278" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="279">
@@ -22787,7 +22643,7 @@
         <v>760</v>
       </c>
       <c r="B279" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="280">
@@ -22795,28 +22651,28 @@
         <v>647</v>
       </c>
       <c r="B280" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
+        <v>863</v>
+      </c>
+      <c r="B281" t="s">
         <v>864</v>
-      </c>
-      <c r="B281" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
+        <v>865</v>
+      </c>
+      <c r="B282" t="s">
         <v>866</v>
-      </c>
-      <c r="B282" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>776</v>
+        <v>867</v>
       </c>
       <c r="B283" t="s">
         <v>868</v>
@@ -22824,7 +22680,7 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B284" t="s">
         <v>869</v>
@@ -22832,7 +22688,7 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>703</v>
+        <v>852</v>
       </c>
       <c r="B285" t="s">
         <v>870</v>
@@ -22840,7 +22696,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>811</v>
+        <v>848</v>
       </c>
       <c r="B286" t="s">
         <v>871</v>
@@ -22848,7 +22704,7 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>703</v>
+        <v>852</v>
       </c>
       <c r="B287" t="s">
         <v>872</v>
@@ -22928,7 +22784,7 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B297" t="s">
         <v>883</v>
@@ -22952,7 +22808,7 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B300" t="s">
         <v>888</v>
@@ -22968,7 +22824,7 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B302" t="s">
         <v>891</v>
@@ -22976,7 +22832,7 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B303" t="s">
         <v>892</v>
@@ -23032,7 +22888,7 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B310" t="s">
         <v>899</v>
@@ -23040,7 +22896,7 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B311" t="s">
         <v>900</v>
@@ -23048,7 +22904,7 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B312" t="s">
         <v>901</v>
@@ -23056,7 +22912,7 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B313" t="s">
         <v>902</v>
@@ -23064,7 +22920,7 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B314" t="s">
         <v>903</v>
@@ -23080,7 +22936,7 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B316" t="s">
         <v>905</v>
@@ -23216,7 +23072,7 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B333" t="s">
         <v>937</v>
@@ -23384,7 +23240,7 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B354" t="s">
         <v>972</v>
@@ -23392,7 +23248,7 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B355" t="s">
         <v>973</v>
@@ -23416,7 +23272,7 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B358" t="s">
         <v>976</v>
@@ -23424,7 +23280,7 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B359" t="s">
         <v>977</v>

--- a/inst/testdata/examples_of_output/testoutput_doaggregate_10pts_1miles.xlsx
+++ b/inst/testdata/examples_of_output/testoutput_doaggregate_10pts_1miles.xlsx
@@ -2129,72 +2129,75 @@
     <t xml:space="preserve">State percentile for % Asian (non-Hispanic, single race)</t>
   </si>
   <si>
+    <t xml:space="preserve">State percentile for % American Indian and Alaska Native (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for % Native Hawaiian and Other Pacific Islander (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for % Other race (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for % Two or more races (non-Hispanic)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for % White (non-Hispanic, single race)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for % with Disabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State percentile for %Low life expectancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for Demographic Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for Supplemental EJ Index for Supplemental Demographic Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for % Low Income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for % in limited English-speaking Households</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for % Unemployed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for % with Less Than High School Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for % under Age 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for % over Age 64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average for % People of Color</t>
+  </si>
+  <si>
     <t xml:space="preserve">26</t>
   </si>
   <si>
-    <t xml:space="preserve">State percentile for % American Indian and Alaska Native (non-Hispanic, single race)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for % Native Hawaiian and Other Pacific Islander (non-Hispanic, single race)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for % Other race (non-Hispanic, single race)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for % Two or more races (non-Hispanic)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for % White (non-Hispanic, single race)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for % with Disabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State percentile for %Low life expectancy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State Average for Demographic Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State Average for Supplemental EJ Index for Supplemental Demographic Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State Average for % Low Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State Average for % in limited English-speaking Households</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State Average for % Unemployed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State Average for % with Less Than High School Education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State Average for % under Age 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State Average for % over Age 64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State Average for % People of Color</t>
-  </si>
-  <si>
     <t xml:space="preserve">State Average for % Hispanic or Latino</t>
   </si>
   <si>
@@ -2453,13 +2456,16 @@
     <t xml:space="preserve">State percentile for Superfund Proximity (site count/km distance)</t>
   </si>
   <si>
+    <t xml:space="preserve">82</t>
+  </si>
+  <si>
     <t xml:space="preserve">State percentile for RMP Proximity (facility count/km distance)</t>
   </si>
   <si>
     <t xml:space="preserve">State percentile for Hazardous Waste Proximity (facility count/km distance)</t>
   </si>
   <si>
-    <t xml:space="preserve">44</t>
+    <t xml:space="preserve">47</t>
   </si>
   <si>
     <t xml:space="preserve">State percentile for Underground Storage Tanks (UST) indicator</t>
@@ -2567,9 +2573,6 @@
     <t xml:space="preserve">US percentile for EJ Index for Toxic Releases to Air</t>
   </si>
   <si>
-    <t xml:space="preserve">82</t>
-  </si>
-  <si>
     <t xml:space="preserve">US percentile for EJ Index for Traffic Proximity and Volume</t>
   </si>
   <si>
@@ -2577,9 +2580,6 @@
   </si>
   <si>
     <t xml:space="preserve">US percentile for EJ Index for Lead Paint Indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86</t>
   </si>
   <si>
     <t xml:space="preserve">US percentile for EJ Index for Superfund Proximity</t>
@@ -4576,10 +4576,10 @@
         <v>701</v>
       </c>
       <c r="FQ1" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="FR1" s="11" t="s">
         <v>703</v>
-      </c>
-      <c r="FR1" s="11" t="s">
-        <v>704</v>
       </c>
       <c r="FS1" s="11" t="s">
         <v>705</v>
@@ -4624,250 +4624,250 @@
         <v>723</v>
       </c>
       <c r="GG1" s="7" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="GH1" s="7" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="GI1" s="7" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="GJ1" s="7" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="GK1" s="7" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="GL1" s="7" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="GM1" s="7" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="GN1" s="7" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="GO1" s="7" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="GP1" s="7" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="GQ1" s="12" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="GR1" s="12" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="GS1" s="12" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="GT1" s="12" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="GU1" s="12" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="GV1" s="12" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="GW1" s="12" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="GX1" s="12" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="GY1" s="12" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="GZ1" s="12" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="HA1" s="12" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="HB1" s="12" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="HC1" s="12" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="HD1" s="13" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="HE1" s="13" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="HF1" s="13" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="HG1" s="13" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="HH1" s="13" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="HI1" s="13" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="HJ1" s="13" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="HK1" s="13" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="HL1" s="13" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="HM1" s="13" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="HN1" s="13" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="HO1" s="13" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="HP1" s="13" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="HQ1" s="14" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="HR1" s="14" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="HS1" s="14" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="HT1" s="14" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="HU1" s="14" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="HV1" s="14" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="HW1" s="14" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="HX1" s="14" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="HY1" s="14" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="HZ1" s="14" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="IA1" s="14" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="IB1" s="14" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="IC1" s="14" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="ID1" s="15" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="IE1" s="15" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="IF1" s="15" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="IG1" s="15" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="IH1" s="15" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="II1" s="15" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="IJ1" s="15" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="IK1" s="15" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="IL1" s="15" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="IM1" s="15" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="IN1" s="15" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="IO1" s="15" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="IP1" s="15" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="IQ1" s="14" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="IR1" s="14" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="IS1" s="14" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="IT1" s="14" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="IU1" s="14" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="IV1" s="14" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="IW1" s="14" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="IX1" s="14" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="IY1" s="14" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="IZ1" s="14" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="JA1" s="14" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="JB1" s="14" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="JC1" s="14" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="JD1" s="16" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="JE1" s="16" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="JF1" s="16" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="JG1" s="16" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="JH1" s="16" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="JI1" s="16" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="JJ1" s="16" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="JK1" s="16" t="s">
         <v>853</v>
@@ -6015,10 +6015,10 @@
         <v>0</v>
       </c>
       <c r="IM2" s="26" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="IN2" s="26" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="IO2" s="26" t="n">
         <v>10</v>
@@ -7020,13 +7020,13 @@
         <v>82</v>
       </c>
       <c r="FQ3" s="26" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="FR3" s="26" t="n">
         <v>0</v>
       </c>
       <c r="FS3" s="26" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="FT3" s="26" t="n">
         <v>61</v>
@@ -7235,13 +7235,13 @@
         <v>0</v>
       </c>
       <c r="IL3" s="26" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="IM3" s="26" t="n">
         <v>0</v>
       </c>
       <c r="IN3" s="26" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="IO3" s="26" t="n">
         <v>65</v>
@@ -8455,7 +8455,7 @@
         <v>32</v>
       </c>
       <c r="IK4" s="26" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="IL4" s="26" t="n">
         <v>15</v>
@@ -8464,7 +8464,7 @@
         <v>55</v>
       </c>
       <c r="IN4" s="26" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="IO4" s="26" t="n">
         <v>21</v>
@@ -9466,13 +9466,13 @@
         <v>74</v>
       </c>
       <c r="FQ5" s="26" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="FR5" s="26" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="FS5" s="26" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="FT5" s="26" t="n">
         <v>82</v>
@@ -9678,10 +9678,10 @@
         <v>54</v>
       </c>
       <c r="IK5" s="26" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="IL5" s="26" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="IM5" s="26" t="n">
         <v>89</v>
@@ -10692,7 +10692,7 @@
         <v>84</v>
       </c>
       <c r="FR6" s="26" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="FS6" s="26" t="n">
         <v>83</v>
@@ -10901,7 +10901,7 @@
         <v>87</v>
       </c>
       <c r="IK6" s="26" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="IL6" s="26" t="n">
         <v>99</v>
@@ -11912,13 +11912,13 @@
         <v>52</v>
       </c>
       <c r="FQ7" s="26" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="FR7" s="26" t="n">
         <v>0</v>
       </c>
       <c r="FS7" s="26" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="FT7" s="26" t="n">
         <v>82</v>
@@ -12124,10 +12124,10 @@
         <v>31</v>
       </c>
       <c r="IK7" s="26" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="IL7" s="26" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="IM7" s="26" t="n">
         <v>93</v>
@@ -13347,7 +13347,7 @@
         <v>25</v>
       </c>
       <c r="IK8" s="26" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="IL8" s="26" t="n">
         <v>93</v>
@@ -17016,7 +17016,7 @@
         <v>49</v>
       </c>
       <c r="IK11" s="26" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="IL11" s="26" t="n">
         <v>0</v>
@@ -18347,10 +18347,10 @@
         <v>701</v>
       </c>
       <c r="FQ1" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="FR1" s="11" t="s">
         <v>703</v>
-      </c>
-      <c r="FR1" s="11" t="s">
-        <v>704</v>
       </c>
       <c r="FS1" s="11" t="s">
         <v>705</v>
@@ -18395,250 +18395,250 @@
         <v>723</v>
       </c>
       <c r="GG1" s="7" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="GH1" s="7" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="GI1" s="7" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="GJ1" s="7" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="GK1" s="7" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="GL1" s="7" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="GM1" s="7" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="GN1" s="7" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="GO1" s="7" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="GP1" s="7" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="GQ1" s="12" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="GR1" s="12" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="GS1" s="12" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="GT1" s="12" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="GU1" s="12" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="GV1" s="12" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="GW1" s="12" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="GX1" s="12" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="GY1" s="12" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="GZ1" s="12" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="HA1" s="12" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="HB1" s="12" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="HC1" s="12" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="HD1" s="13" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="HE1" s="13" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="HF1" s="13" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="HG1" s="13" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="HH1" s="13" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="HI1" s="13" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="HJ1" s="13" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="HK1" s="13" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="HL1" s="13" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="HM1" s="13" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="HN1" s="13" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="HO1" s="13" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="HP1" s="13" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="HQ1" s="14" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="HR1" s="14" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="HS1" s="14" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="HT1" s="14" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="HU1" s="14" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="HV1" s="14" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="HW1" s="14" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="HX1" s="14" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="HY1" s="14" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="HZ1" s="14" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="IA1" s="14" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="IB1" s="14" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="IC1" s="14" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="ID1" s="15" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="IE1" s="15" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="IF1" s="15" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="IG1" s="15" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="IH1" s="15" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="II1" s="15" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="IJ1" s="15" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="IK1" s="15" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="IL1" s="15" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="IM1" s="15" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="IN1" s="15" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="IO1" s="15" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="IP1" s="15" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="IQ1" s="14" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="IR1" s="14" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="IS1" s="14" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="IT1" s="14" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="IU1" s="14" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="IV1" s="14" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="IW1" s="14" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="IX1" s="14" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="IY1" s="14" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="IZ1" s="14" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="JA1" s="14" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="JB1" s="14" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="JC1" s="14" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="JD1" s="16" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="JE1" s="16" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="JF1" s="16" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="JG1" s="16" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="JH1" s="16" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="JI1" s="16" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="JJ1" s="16" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="JK1" s="16" t="s">
         <v>853</v>
@@ -19564,13 +19564,13 @@
         <v>57.6216050626212</v>
       </c>
       <c r="FQ2" s="26" t="n">
-        <v>26.0844119852241</v>
+        <v>84.9423601169581</v>
       </c>
       <c r="FR2" s="26" t="n">
-        <v>5.02618445096331</v>
+        <v>37.931634588221</v>
       </c>
       <c r="FS2" s="26" t="n">
-        <v>26.3473274981435</v>
+        <v>85.612347469941</v>
       </c>
       <c r="FT2" s="26" t="n">
         <v>68.8657580521925</v>
@@ -19776,16 +19776,16 @@
         <v>46.4249874543021</v>
       </c>
       <c r="IK2" s="26" t="n">
-        <v>3.76963833822248</v>
+        <v>69.7121730817598</v>
       </c>
       <c r="IL2" s="26" t="n">
-        <v>26.6169908681623</v>
+        <v>82.3314591272486</v>
       </c>
       <c r="IM2" s="26" t="n">
-        <v>78.9323777941743</v>
+        <v>79.1870584420925</v>
       </c>
       <c r="IN2" s="26" t="n">
-        <v>43.5815947161454</v>
+        <v>47.1976415279885</v>
       </c>
       <c r="IO2" s="26" t="n">
         <v>60.1564576670604</v>
@@ -21806,23 +21806,23 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
+        <v>647</v>
+      </c>
+      <c r="B174" t="s">
         <v>702</v>
-      </c>
-      <c r="B174" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>567</v>
+        <v>656</v>
       </c>
       <c r="B175" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B176" t="s">
         <v>705</v>
@@ -21934,10 +21934,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>702</v>
+        <v>724</v>
       </c>
       <c r="B190" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="191">
@@ -21945,7 +21945,7 @@
         <v>562</v>
       </c>
       <c r="B191" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="192">
@@ -21953,7 +21953,7 @@
         <v>3</v>
       </c>
       <c r="B192" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="193">
@@ -21961,7 +21961,7 @@
         <v>496</v>
       </c>
       <c r="B193" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="194">
@@ -21969,7 +21969,7 @@
         <v>496</v>
       </c>
       <c r="B194" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="195">
@@ -21977,7 +21977,7 @@
         <v>7</v>
       </c>
       <c r="B195" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="196">
@@ -21985,7 +21985,7 @@
         <v>678</v>
       </c>
       <c r="B196" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="197">
@@ -21993,15 +21993,15 @@
         <v>620</v>
       </c>
       <c r="B197" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B198" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="199">
@@ -22009,71 +22009,71 @@
         <v>612</v>
       </c>
       <c r="B199" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B200" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B201" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B202" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B203" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B204" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B205" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B206" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B207" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="208">
@@ -22081,37 +22081,37 @@
         <v>505</v>
       </c>
       <c r="B208" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B209" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B210" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B211" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="212">
       <c r="A212"/>
       <c r="B212" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="213">
@@ -22119,31 +22119,31 @@
         <v>633</v>
       </c>
       <c r="B213" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B214" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B215" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B216" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="217">
@@ -22151,7 +22151,7 @@
         <v>628</v>
       </c>
       <c r="B217" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="218">
@@ -22159,15 +22159,15 @@
         <v>633</v>
       </c>
       <c r="B218" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B219" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="220">
@@ -22175,7 +22175,7 @@
         <v>651</v>
       </c>
       <c r="B220" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="221">
@@ -22183,7 +22183,7 @@
         <v>651</v>
       </c>
       <c r="B221" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="222">
@@ -22191,15 +22191,15 @@
         <v>649</v>
       </c>
       <c r="B222" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B223" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="224">
@@ -22207,61 +22207,61 @@
         <v>623</v>
       </c>
       <c r="B224" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="225">
       <c r="A225"/>
       <c r="B225" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B226" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B227" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B228" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B229" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B230" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B231" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="232">
@@ -22269,23 +22269,23 @@
         <v>517</v>
       </c>
       <c r="B232" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B233" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B234" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="235">
@@ -22293,23 +22293,23 @@
         <v>490</v>
       </c>
       <c r="B235" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B236" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B237" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="238">
@@ -22317,7 +22317,7 @@
         <v>481</v>
       </c>
       <c r="B238" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="239">
@@ -22325,15 +22325,15 @@
         <v>628</v>
       </c>
       <c r="B239" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B240" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="241">
@@ -22341,15 +22341,15 @@
         <v>616</v>
       </c>
       <c r="B241" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B242" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="243">
@@ -22357,7 +22357,7 @@
         <v>616</v>
       </c>
       <c r="B243" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="244">
@@ -22365,47 +22365,47 @@
         <v>628</v>
       </c>
       <c r="B244" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B245" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>488</v>
+        <v>628</v>
       </c>
       <c r="B246" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>578</v>
+        <v>811</v>
       </c>
       <c r="B247" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B248" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B249" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="250">
@@ -22413,117 +22413,117 @@
         <v>680</v>
       </c>
       <c r="B250" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
     </row>
     <row r="251">
       <c r="A251"/>
       <c r="B251" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B252" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B253" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B254" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="B255" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B256" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="B257" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B258" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="B259" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="B260" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B261" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="B262" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="B263" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="B264" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="265">
@@ -22531,7 +22531,7 @@
         <v>623</v>
       </c>
       <c r="B265" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
     </row>
     <row r="266">
@@ -22539,7 +22539,7 @@
         <v>642</v>
       </c>
       <c r="B266" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="267">
@@ -22547,7 +22547,7 @@
         <v>645</v>
       </c>
       <c r="B267" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="268">
@@ -22555,36 +22555,36 @@
         <v>647</v>
       </c>
       <c r="B268" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B269" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>848</v>
+        <v>811</v>
       </c>
       <c r="B270" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B271" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>852</v>
+        <v>704</v>
       </c>
       <c r="B272" t="s">
         <v>853</v>
@@ -22608,7 +22608,7 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B275" t="s">
         <v>856</v>
@@ -22640,7 +22640,7 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B279" t="s">
         <v>861</v>
@@ -22688,7 +22688,7 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>852</v>
+        <v>704</v>
       </c>
       <c r="B285" t="s">
         <v>870</v>
@@ -22696,7 +22696,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>848</v>
+        <v>811</v>
       </c>
       <c r="B286" t="s">
         <v>871</v>
@@ -22704,7 +22704,7 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>852</v>
+        <v>704</v>
       </c>
       <c r="B287" t="s">
         <v>872</v>
@@ -23032,7 +23032,7 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B328" t="s">
         <v>928</v>
